--- a/output/Total_time_range_data/山西省/晋中市_学习考察.xlsx
+++ b/output/Total_time_range_data/山西省/晋中市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,3806 +436,4165 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>20</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>晋中市供销社赴重庆市供销合作总社考察学习</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2019-04-23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>https://gxs.sxjz.gov.cn/gzdt/content_270819</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['考察组一行在重庆市供销合作总社经济发展处副调研员高仁伟、合作指导处赵强、南川区供销社党委书记、主任冉茂莲的陪同下，实地考察了重庆市南川区大观镇供销酒店、超市、为农服务站、社有资产保值增值项目，大观镇废弃农膜回收站，南川区水江供销社、水江配肥技术服务站、庄稼医院，东城高桥村综合服务社、农资便民店，南川区再生资源分拣中心，重点学习', '参观考察结束后，南川区供销社组织召开座谈会。南川区供销社介绍了本区供销系统的基本情况和近年来的发展状况，着重讲解了南川区社在废弃农地膜回收工作中一些好的经验和做法。两地供销社就强化基层社合作经济组织属性专项试点、开展农业社会化服务和废弃农地膜回收项目进行了友好亲切交流。', '市社副主任李慧明对南川区供销社在服务“三农”、废弃农地膜回收和再生资源分拣项目等方面的成功做法给予了高度评价和充分肯定。考察人员纷纷表示要对标学习重庆经验，加强与南川区社的交流学习，继续推进强化基层社合作经济组织属性建设和深化供销社综合改革，增强为农服务本领，努力促进我市供销社各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>20</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>晋中市供销社赴泰州市供销合作总社考察学习</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2019-04-19</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>https://gxs.sxjz.gov.cn/gzdt/content_270491</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['4月10日至11日，晋中市供销合作社党组成员、副主任李慧明、彭超一行15人赴江苏省泰州市供销合作总社考察学习', '一行与泰州市供销合作总社党组成员、监事会主任朱余昌、监事会副主任王荣、办公室主任钱进进行了深入沟通交流。实地参观了泰州市高港区白马供销社，高港区黄河为农服务社，靖江市现代农业综合服务中心，盛世再生资源交易市场及分拣加工中心、废品回收站，泰兴市电子商务服务中心，泰兴市惠农总公司，全面了解加强基层社建设、农业社会化服务体系建设、健全', '这次学习考察进一步加强了两地市供销社之间的交流与合作，开拓了视野，学到了经验，拓展了思路。考察组人员一致表示，将认真学习借鉴泰州市社先进经验，对标一流，因地制宜，积极谋划好农业废弃物回收项目设计，全面推进全市供销社综合改革。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>20</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>大同市供销社郑建华一行在平遥学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2018-06-26</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>https://gxs.sxjz.gov.cn/gzdt/content_235855</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['6月14日，大同市供销社党组成员、理事会副主任郑建华带领市社基层科科长李志远、业务科科长李晓强、广灵县供销社主任韩福林、大同县供销社主任孙国川、天镇县供销社主任李文峰、阳高县供销社主任张印忠、新荣区供销社主任张素英、浑源县供销社主任胡觉非一行十人赴平遥县供销社就围绕基层组织体系建设、基层社改造恢复复建、引领规范发展专业合作社、供销社电子商务等供销合作社综合改革取得的成绩进行学习考察。晋中市供销社副调研员沙怒江、基层科科长李志亮、业务科科长崔瑞红、平遥县供销社理事会主任赵亚柱、监事会主任梁键、副科级干部郭欣福陪同考察。', '考察组一行分别深入平遥县新供销电子商务公司、东泉供销合作社、岳壁供销合作社、晋伟中药材综合开发专业合作社进行了实地考察。', '电商公司经理赵智勇分别从建设县级电商运营中心、改造建设村级电商服务站，构建农村电商服务体系，实现线上线下整合发展；打通农产品外销渠道，实现农产品品牌营销，打造特色农产品品牌，实现精准扶贫助农增收及建设电子商务产业园，实施电商快递融合发展，打通农村物流最后一公里等方面，详细地向调研组作了工作汇报。考察组对电商公司所做的工作表示十分认可。', '晋伟专业合作社以中药材产业为依托，建立产、加、销服务体系，增加了农民收入，提升了产业水平，资金互助部有序规范发展得到了考察组充分肯定。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>20</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>山西党政代表团召开赴安徽陕西学习考察小结会</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-07-23</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/snxw/content_470028</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['7月21日下午，在圆满结束赴安徽、陕西的学习考察后，山西党政代表团在西安召开小结会。省委书记蓝佛安主持会议并讲话。他强调，要深入贯彻习近平总书记关于“三新一高”的重要论述精神，全面落实习近平总书记考察调研山西重要讲话重要指示精神，认真学习皖陕两省宝贵经验，进一步解放思想、锐意创新，深化改革、扩大开放，狠抓各项工作落实，加快推动高质量发展和现代化建设，朝着“两个基本实现”目标奋勇前进。省委副书记、省长金湘军讲话，省领导李凤岐、卢东亮、韦韬、汤志平、赵红严、杨勤荣、熊继军出席会议。', '蓝佛安指出，组织山西党政代表团赴安徽、陕西学习考察，是深入贯彻习近平总书记关于“三新一高”的重要论述精神的重要安排，是学习借鉴兄弟省份先进经验的具体行动，是新时代新征程上推动山西高质量发展和现代化建设的务实举措。四天时间里，我们先后踏上八皖之乡和三秦大地，考察了近20家知名企业、创新基地、科研院所、示范园区等，切身体会到两省“干部敢为、地方敢闯、企业敢干、群众敢首创”的浓厚氛围，学习到两省矢志推动科技创新的前瞻布局、持续加快产业转型的坚定决心、做大做强开放平台的宏阔手笔、始终坚持生态优先的战略定力，进一步深化了我省与皖陕两省的全方位交流合作，可以说是一次解放思想之旅、学习取经之旅、交流合作之旅、共谋发展之旅。', '蓝佛安强调，这次学习考察，大家一路走、一路学、一路交流，进一步开阔了视野、看到了差距、取到了真经、强化了合作，实现了预期目的。我们既要坚定发展信心、笃定转型定力，进一步提升山西在新发展格局中的地位和作用，更要虚怀若谷学习借鉴他山之石，取人之长、补己之短，不断提升推动高质量发展的能力和水平。下一步，要切实做好成果转化运用的“后半篇文章”，奋力开创全省各项事业发展新局面。一是心动更需要行动，切实把解放思想落实到转型发展的生动实践上。坚决扛牢高质量发展首要任务和转型发展重大使命，学习皖陕两省登高望远的战略眼光、敢为人先的创新意识、勇攀高峰的进取精神，勇于解放思想，打开发展视野，激活改革意识、创新精神、开放思维、市场理念，大胆试、放手干，努力创造更多走在前列的“山西经验”“山西模式”，在服从服务国家大局中实现自身高质量发展。二是真经要变成真招，切实把学习借鉴的好经验好做法运用好。以虚怀若谷的态度用好“他山之石”，学习借鉴皖陕两省在扩大开放、招商引资、营商环境优化、科技成果转化、先进制造业发展、文旅融合发展、城市夜经济、高效智慧农业、生态环境治理等方面的创新实践和有益探索，推动各项工作开创新局面、见到新气象。三是合意要变成合作，切实把会谈交流的成果转化为实实在在的项目。深入研究对接皖陕两省战略需求，聚焦制造业产业转移、科技成果转化利用等方向，更加深入地参与区域省际协作，实现优势互补、合作共赢。用足用好我省区位、能源、资源、算力、要素成本、基础产业配套等比较优势，最大限度吸引东部地区和皖陕两省先进要素、创新资源和新兴产业落户山西。跟进落实我省与陕西省战略合作框架协议，共同推进黄河流域生态保护和高质量发展重要实验区、黄河文化保护传承弘扬核心区建设，确保相关合作事项全部落地。四是朋友要越走越近，切实把各领域各层级交流合作常态化机制化。加强与皖陕两省党政领导干部的交流互访、密切互动，建立健全省际间会商协商对接、部门衔接落实等常态化工作推进机制，共同研究推动重大合作事项和项目。推动我省与皖陕两省企业、商会及社会各界人士常来常往，更好发挥桥梁纽带作用，构建全方位多渠道交流合作格局，形成全社会参与、共同促进区域合作的浓厚氛围。蓝佛安重点围绕融入京津冀协同发展、交通大通道建设、加强科技创新、制造业振兴升级、文旅康养深度融合、环境保护和生态治理、通航产业发展、地热资源开发利用、现代高效农业、充分发挥比较优势等方面，要求加强谋划、深入研究，充分借鉴他山之石，尽快形成可操作、可落实的行动方案和具体举措。要求全省党员干部进一步提振精神状态，提升能力素质，强化担当作为，推动高质量发展不断取得新突破。', '金湘军指出，通过这次考察，我们学到了皖陕两省在科技创新、产业升级、开放发展和亲商爱商等方面的先进理念及做法，进一步找准拓展了合作共赢空间，要充分借鉴经验，立足山西禀赋优势，只争朝夕、久久为功推动党中央及省委决策部署落地见效。要突出科技创新核心位置，深入实施高等教育百亿工程，培育开放创新生态，主动融入京津冀协同发展，打造内陆地区对外开放新高地。要突出先进制造业主攻方向，抓好“三个要件一个重点”，用足链长制、专业镇、开发区等平台，构建现代化产业体系。要突出能源安全保障责任，坚持清洁高效低碳绿色方向，加快能源领域“五大基地”建设和“五个一体化”融合发展，纵深推进能源革命。要突出文化资源丰厚优势，做足做好文旅康养深度融合这篇大文章，打造国际知名文化旅游目的地。要突出“三农”重中之重地位，落实最严格耕地保护制度，坚定实施“特优”战略，学习借鉴“千万工程”经验，全面推动乡村振兴。', '会上，太原市、长治市、省发改委、省工信厅、省文旅厅主要负责同志分别作了交流发言。大家结合学习考察和工作实际，找差距、谈认识、谋举措、话未来，进一步坚定了加快推动高质量发展和现代化建设的信心和决心。大家一致表示，这次学习考察主题鲜明、内容丰富、安排紧凑，人人带着问题来、带着收获走，真正是不虚此行。要紧密结合本地区本部门工作实际，对标找差补短板、争先进位创一流，切实把学习考察成果转化为推动事业发展的实际行动和具体成效。', '习近平总书记在全国生态环境保护大会上的重要讲话激励我省广大干部群众—— 打好组合拳 健全美丽中国建设保障体系']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>20</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>晋中市供销社赴温州市供销合作社考察学习</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2019-04-19</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>https://gxs.sxjz.gov.cn/gzdt/content_270492</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['温州市供销社组织召开了晋中、温州两市供销社综合改革座谈会，温州市供销社结合近年来工作成效，与我市考察人员分别交流了', '社有资产保值增值和供销社文化建设等方面的体会及工作打算。考察组在温州市供销合作社党委委员、理事会副主任、农合联执行委员会副主任厉良中、合作经济指导处副处长张章的陪同下，', '实地考察温州市平阳县群策中药材专业合作社农村资金互助会，平阳县山门镇农合联现代农业综合服务中心，瓯海区凰桥老供销超市和庄稼医院。', '等方面走在全国前列，通过强化乡镇农合联与供销社的融合发展，把产业发展、农民创业创新和供销文化结合起来，真正为农民谋利。彭超副主任指出，考察人员要认真对标温州市社典型经验，特别是太谷县、平遥县、和顺县“三位一体”试点县，要', '等方面走在全国前列，通过强化乡镇农合联与供销社的融合发展，把产业发展、农民创业创新和供销文化结合起来，真正为农民谋利。彭超副主任指出，考察人员要认真对标温州市社典型经验，特别是太谷县、平遥县、和顺县']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>20</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>晋中市供销社赴长治市考察学习</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2022-06-24</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>https://gxs.sxjz.gov.cn/gzdt/content_421235</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['经验，赴山西天脊煤化工集团公司考察并就农资采购事宜进行座谈。参加考察人员还有市供销社党组成员、副主任李慧明、王爱斌，主要业务科室负责人，部分县（区、市）供销社主任、农资企业负责人。', '考察组首先前往综合改革先进试点县潞城区供销社，在长治市供销社总会计师王平等陪同下，考察潞城区下黄供销社、黄牛蹄惠农服务中心和成家川街道神泉村幸福山庄种养殖专业合作社，详细了解基层社改造、运营情况，查看统防统治、农资直供、土地服务情况。在长治市供销社主任王旭平的陪同下，考察组前往长治市广益昌再生资源有限公司、', '实地学习垃圾分类、再生资源回收经验。市供销社主任何宇雄在考察中指出，长治市供销社是全省供销系统内的标杆，我们要认真学习借鉴长治市供销社改革经验，牢牢抓住农业生产资料领域，进一步夯实基层基础，为农民提供更为优质的服务。', '考察组一行还实地参观山西天脊煤化工集团，了解企业历史、产品、经营情况，双方就山西地区化肥销售情况及天脊化肥产品进行了深入交流。何宇雄指出，供销合作社作为党和政府为“三农”服务的重要载体，在维护粮食安全领域被赋予了更多重要职能，希望通过此次交流合作，以天脊放心化肥、好化肥为依托，增强宣传培训服务力度，提高农民朋友认知能力、辨识能力，共同携手为晋中地区化肥稳价保供、粮食安全、“三农”发展贡献更大力量。', '，必将为深化晋中市供销社综合改革，以平台优势擦亮供销社金字招牌，更好发挥好党委政府联系群众的桥梁纽带作用提供更加有力的支持。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>20</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>我市组织考察学习农村集体产权制度改革工作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2017-12-15</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/xxgk/fdzdgknr/gzdt31nw/content_52922</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['我市组织考察学习农村集体产权制度改革工作_工作动态_法定主动公开内容_政府信息公开_晋中市农业农村局', '查看了产权制度改革的相关资料，与镇村干部就如何做好农村产权制度改革工作进行了座谈交流，特别是对农村集体']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>20</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>山西党政代表团赴陕西学习考察</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2023-07-22</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/zwyw/content_469961</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['山西党政代表团赴陕西学习考察 签订两省推动黄河流域生态保护和高质量发展战略合作框架协议', '7月20日，山西党政代表团在中国西部科技创新港考察汇聚创新资源、培育创新生态情况。山西日报记者史晓波摄', '7月21日，山西省·陕西省工作交流座谈会在西安市举行，签订两省推动黄河流域生态保护和高质量发展战略合作框架协议。山西日报记者史晓波摄', '为深入贯彻习近平总书记关于“三新一高”的重要论述精神，深入落实黄河流域生态保护和高质量发展重大国家战略，进一步做好新时代晋陕合作“大文章”，7月20日至21日，山西党政代表团赴陕西学习考察，并召开山西省·陕西省工作交流座谈会，签订两省推动黄河流域生态保护和高质量发展战略合作框架协议。山西省委书记、省人大常委会主任蓝佛安，陕西省委书记、省人大常委会主任赵一德，山西省委副书记、省长金湘军，陕西省委副书记、省长赵刚出席座谈会并参加考察。', '黄河流域生态保护和高质量发展，是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略。晋陕两省同处黄河中游，黄河干流在两省间奔流七百余公里，共同抓好大保护、协同推进大治理是双方共同的政治责任和历史使命。此次山西党政代表团赴陕，一方面是学习考察陕西在科技创新、产业转型、现代农业、文旅融合等方面的先进经验，另一方面是加强与陕西省的工作联动，共同推动黄河流域生态保护和高质量发展走深走实。在陕期间，山西党政代表团先后来到西安市和西咸新区、杨凌农业高新技术产业示范区等地，深入秦创原综合服务中心、商汤智能科技公司、西部科技创新港、隆基乐叶光伏科技公司，学习借鉴陕西打造创新平台、深化科技管理体制改革、推动科技成果转化等方面的亮点做法；走进沣西新城总部经济园综合能源供应站、陕西煤业化工技术研究院，深入了解能源综合利用和现代煤化工产业发展情况；来到中欧班列（西安）集结中心，学习考察打造现代综合交通运输体系、推进自贸区建设、助推高水平对外开放的经验做法；考察文旅业态创新和城市夜经济发展情况；深入杨凌渭河生态公园、先正达集团技术中心试验基地、杨凌智慧农业示范园、杨凌耕地保护与质量提升创新中心，实地感受和学习陕西治渭兴水、保护生态、加强农业科技创新的经验做法。', '21日下午，山西省·陕西省工作交流座谈会在西安市举行。赵一德代表陕西省委、省政府对山西党政代表团的到来表示欢迎，向山西长期以来对陕西的大力支持表示感谢。他说，党的十八大以来，习近平总书记高度重视陕西和山西两省工作，在主持中国—中亚峰会前夕，专门听取陕西省委和省政府工作汇报，前往陕西途中专门到山西考察，为两省推动高质量发展、推进现代化建设进一步指明了前进方向。近年来，山西深入学习贯彻习近平总书记考察调研山西重要讲话重要指示精神，坚决扛起能源革命、黄河保护、文化传承等重大使命，蹚出了资源型地区经济转型综改、产业多元支撑的新路子，成就令人钦佩，经验值得学习。当前，陕西正深入学习贯彻习近平总书记历次来陕重要讲话重要指示精神，努力在西部地区发挥示范作用，奋力谱写中国式现代化建设的陕西新篇章。陕西和山西山水祖脉相依、文化根脉相亲、红色血脉相融、交通动脉相连，希望围绕构建新发展格局、高质量共建“一带一路”、黄河流域生态保护和高质量发展、关中平原城市群建设、汾渭平原大气污染治理、“三北”工程黄河“几字弯”攻坚战等重大任务，共同推进生态大保护、能源大转型、科技大创新、产业大升级、内陆大开放、区域大协同、文旅大融合，携手为强国建设、民族复兴作出新贡献。', '蓝佛安向陕西长期以来对山西的支持帮助表示感谢。他说，党的十八大以来，习近平总书记先后四次莅晋考察调研，对做好山西工作作出重要指示、寄予殷切期望，为我省高质量发展和现代化建设提供了根本遵循、指明了前进方向。当前，全省上下牢记领袖殷殷嘱托，加快“三区三地”建设，正朝着“两个基本实现”目标阔步前进。近年来，陕西省深入学习贯彻习近平总书记对陕西工作的重要指示要求，聚焦在西部地区发挥示范作用的战略定位，推动经济社会发展面貌焕然一新，探索出很多宝贵经验，值得山西学习借鉴。晋陕两省隔河相望、山水相依、人文相亲，历史上交流往来源远流长、经久不断，目前正呈现出党政互动、经贸互利、人文互惠的良好局面。面向以中国式现代化全面推进中华民族伟大复兴的宏阔征程，两省在融入和服务新发展格局上承担着许多共同任务、面临着许多共同课题。希望以此次学习考察特别是签署框架协议为契机，进一步做好新时代晋陕合作“大文章”，携手把习近平总书记为两省擘画的宏伟蓝图变成美好现实。一是在黄河流域生态保护治理上深化合作。建立健全两省间经常性会商协商、部门衔接落实等机制，合力推进晋陕大峡谷、汾渭平原等生态环境保护，共同谋划实施好黄河古贤水利枢纽工程，持续优化沿黄地区产业结构和空间布局，推动左右两岸“一泓清水入黄河”。二是在产业转型升级上深化合作。在推进制造业振兴升级、深化能源革命、发展现代高效农业上加强合作，加强园区产业对接，推进数字产业协同发展，携手建设“5G+智慧矿山”，共同做好乡村产业“土特产”文章。三是在文旅融合发展上深化合作。围绕推动中华优秀传统文化创造性转化、创新性发展，联合布局跨省域经典旅游线路，携手打造更多文旅、文创、文博产业的优质项目和知名品牌。四是在教育、科技、人才支撑上深化合作。加强科创平台、学科建设、人才培养等方面深层次交流，共同推进科技创新和成果转化，以智力和人才优势培育新的竞争优势。五是在扩大高水平对外开放上深化合作。学好陕西自贸试验区经验，加快构建高标准市场体系，用好“一带一路”开放平台，推动交通互联互通、信息共享共用，共同融入全国统一大市场，更好服务新发展格局。', '座谈会上，金湘军、赵刚分别介绍了晋陕两省经济社会发展情况，共同签署了两省推动黄河流域生态保护和高质量发展战略合作框架协议。根据协议，晋陕两省将深入学习贯彻习近平生态文明思想和习近平总书记关于黄河流域生态保护和高质量发展重要论述，按照优势互补、协同联动、互利共赢、共同发展的原则，以生态保护、水利建设、能源革命、资源型经济转型、交通基础设施、文化旅游等领域为重点全方位深化合作，共同抓好大保护、协同推进大治理，携手推动黄河流域生态保护和高质量发展不断取得新突破。', '山西省领导李凤岐、卢东亮、韦韬、汤志平、赵红严、杨勤荣、熊继军，陕西省领导方红卫、蒿慧杰、王琳、樊维斌、徐明非、钟洪江、张晓光，西安交通大学党委书记卢建军参加有关活动。省直有关部门、部分省管国有企业、有关开发区主要负责同志，各市市委书记等山西党政代表团成员参加。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>20</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>内蒙古巴彦淖尔市考察组在晋中国家农高区考察学习</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2022-06-20</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>https://ng.sxjz.gov.cn/xwdt/ngdt/content_420567</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['内蒙古巴彦淖尔市考察组在晋中国家农高区考察学习_农高区动态_新闻动态_晋中国家农高区', '6月19日，由内蒙古巴彦淖尔市委副书记、市长王志平带队的考察组，就晋中国家农高区建设情况在太谷区调研。晋中市委常委、副市长、晋中国家农高区（太谷科创中心）党工委书记、管委会主任、太谷区委书记刘伟，区委常委、宣传部部长李波，晋中国家农高区（太谷科创中心）党工委委员许云峰参加。', '考察组深入晋中国家农高区科创基地产品研发展示中心、谷子研究所、藜麦研究院、山西农谷功能食品加工基地、晋中国家农高区设施农业示范基地、山西巨鑫伟业农业开发科技有限公司，通过听取介绍、现场交流、实地考察等方式，详细了解晋中国家农高区总体规划布局、重点项目分布、创新平台建设、产业集聚、人才引进及管理模式等情况，实地学习晋中国家农高区在建设管理运营、现代农业发展和创新平台载体建设等方面的先进做法和成功经验。', '考察组对晋中国家农高区建设取得的成就给予高度评价，将积极借鉴转化晋中国家农高区的发展经验，加快推进巴彦淖尔国家农业高新技术产业示范区建设工作。希望今后加强交流合作，携手打造现代农业创新高地、人才高地、产业高地。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>20</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>江门市发改委考察组来我委学习考察无审批管理工作</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2017-09-06</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>https://fgw.sxjz.gov.cn/xxgk/xxgkml/gzdt25fgw/content_42751</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['江门市发改委考察组来我委学习 考察无审批管理工作_工作动态_法定主动公开内容_政府信息公开_晋中市发展和改革委员会', '月11日下午， 江门市发改委考察组一行3人组成考察组来我市学习考察无审批管理工作。', '石小晋副主任对江门市考察组一行的到来表示热烈欢迎。他指出，此次江门市考察组到我市参观考察，为双方提供了互相学习的机会，希望双方加强沟通交流，共同在规范化、标准化上下功夫，']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>20</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>王建忠带队赴黑龙江学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2023-07-31</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>https://renda.sxjz.gov.cn/rdyw/content_471169</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['蔓越莓培育生产基地、北大荒科技产业园、万亩水稻产业园等现代化农业生产基地，以及抚远中俄贸易园区、同江中俄贸易口岸等对外经贸窗口']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>20</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>张家口市行政审批局考察组来我委学习考察无审批管理工作</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2017-09-15</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://fgw.sxjz.gov.cn/gzdt/content_198391</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['张家口市行政审批局考察组来我委 学习考察无审批管理工作_工作动态_晋中市发展和改革委员会', '张家口市考察组主要是想学习山西省在行政审批制度改革方面的先进经验，特别是在社会投资类项目开展承诺无审批制的做法。石小晋副主任对晋中市当前开展企业投资项目试行承诺制实行无审批管理的情况进行了全面的介绍，并重点阐述了我市试行承诺制实行无审批管理试点工作的一些做法，并对有关文件进行了解读。', '双方就当前无审批试点工作的开展情况及当前遇到的问题进行了深入探讨。双方共同表态愿在当前改革大形势下，共同研究改革政策，互相学习，加强沟通与交流，加速推进双方行政审批制度改革，打造出更加高效的审批服务机构。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>20</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>金湘军率团在湖南学习考察</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2024-06-04</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/snxw/content_504393</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['5月31日至6月2日，省委副书记、省长金湘军率我省代表团参加第十三届中部博览会，并在湖南学习考察，进一步深化晋湘两省交流合作。其间，省政府与中南大学签约战略合作协议。湖南省委常委、长沙市委书记吴桂英，中南大学校长、中国工程院院士李建成，中国工程院院士田红旗，副省长汤志平参加有关活动。', '在湘期间，金湘军一行考察了三一集团有限公司、中联智慧产业城、国家网络安全产业园区、马栏山视频文创园、中南大学铁道校区，了解制造业智能化数字化绿色化发展、国家新一代自主安全计算系统产业集群建设、数字视频产业链基地建设、轨道交通安全国家重点实验室自主创新等情况，实地察看湖南省以科技创新引领产业创新的成果展示，与企业家、科技工作者深入交流。他说，近年来，湖南深入贯彻习近平总书记考察湖南重要讲话和指示精神，锚定“三高四新”美好蓝图，推动经济社会高质量发展取得新突破，成绩令人振奋。当前，山西全省上下正在深入学习贯彻习近平总书记在新时代推动中部地区崛起座谈会上的重要讲话精神和对山西工作的重要讲话重要指示精神，牢牢把握在国家构建新发展格局中的战略定位，因地制宜培育发展新质生产力，以先进制造业为主攻方向，着力打造高端装备制造等省级重点产业链，建设中部地区先进制造业基地，构建体现山西特色优势的现代化产业体系，加快推动高质量发展、深化全方位转型。希望晋湘两地企业、高校及科研院所围绕项目投资、产业协作、科技创新、文化新业态发展等方面深化交流合作，实现共赢发展。', '6月2日，省政府与中南大学在长沙签约战略合作协议。根据协议，省校双方将在决策咨询、科技创新与成果转化、人才交流培养、高水平大学建设等领域开展全方位合作。', '考察中，金湘军强调，推动中部地区崛起是以习近平同志为核心的党中央作出的重大战略决策。全省各级各部门要深刻领会党中央战略意图，切实紧抓重大机遇，始终紧扣发展定位，扛牢主体责任，主动对接其他区域发展战略，加强区域内省际合作，着力推进各项重点工作任务落地落实，在合力推动中国式现代化建设、谱写中部地区崛起新篇章中彰显山西作为。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>20</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>孝义经济开发区考察组来到介休开发区考察学习</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2021-12-10</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>https://swj.sxjz.gov.cn/zxzczt/content_395896</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['孝义开发区与介休开发区地缘相近、人缘相亲，希望两地认真贯彻落实十九届六中全会精神，以此次考察学习交流为契机，不断扩大交流范围，积极搭建平台，互相学习交流，借鉴有益经验，切实提升履职能力和工作水平，不断促进两地开发区纪检监察工作高质量发展，推动区域经济蓬勃发展。', '介休开发区分别从纪检监察工作开展情况、组织建设、内部管理和监督执纪等方面进行了经验介绍,并以开发区精准监督为主线，以重点领域廉政风险防控为切入点，重点介绍了介休开发区如何开展政治监督、工程建设领域、招商引资项目落地、党员干部监督执纪等监督工作的开展情况。', '孝义开发区纪工委考察组对介休开发区纪检监察工作开展情况进行了深入、细致的学习交流和讨论并表示，介休开发区纪工委的经验做法，大有可借鉴的思路、可参考的样本，孝义开发区纪工委将认真借鉴介休开发区纪工委的工作思路和措施，全力推动孝义经开区纪检监察工作，以紧张、严肃的战斗姿态投入当地经济社会的发展中。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>20</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>赴朔州家政企业学习考察</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2020-07-08</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>https://swj.sxjz.gov.cn/gzdt/content_340066</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['为深入贯彻习近平总书记视察山西重要讲话重要指示和林武省长调研服务业恢复稳定增长重要指示，扎实做好“六稳”工作，落实“六保”任务，实现“六新”突破。7月3日，市商务局郝昌林副局长带队，组织我市30余家家政服务企业赴朔州市爱心家政服务公司学习考察。在爱心家政职业培训学校，详细了解了学校开设的培训专业，参观了理论教室、实操基地、家政电商孵化基地，召开了座谈会。会上，我市家政企业与爱心家政公司相关人员从职业技能培训项目、课程安排、实习、家政服务人员派单等方面进行了面对面的沟通，尤其针对家政电商直播、新媒体传播、互联网应用等方面进行了深度交流。随后又参观了爱心家政服务大厅、朔州市总工会农民之家，爱心家政负责人在手机上向大家展示了家政服务线上APP系统。', '高度重视家政服务业提质扩容，不断提高家政从业人员素质，增加家政服务有效供给，提升家政服务规范化水平，实现高质量发展。目前，我市家政服务业呈现出精细化、个性化和专业化的良好发展态势。', '2020年受新冠肺炎疫情影响，一道门槛拦住了千万家政从业人员的脚步，造成了家政服务市场需求和供应的双降低局面，亟需探索出一条疫情防控常态化下家政服务业的转型突围之路。通过此次学习，我市家政企业纷纷表示要苦练内功，在专业技能方面再加强，同时要将先进的经营理念运用到企业发展中，在常态化疫情防控形势下，积极探索新业态、新模式，履行好社会责任，积极拓展“互联网+家政”业务，不断提升家政服务品质，促进我市家政服务市场健康发展。', '一道门槛拦住了千万家政从业人员的脚步，造成了家政服务市场需求和供应的双降低局面，亟需探索出一条疫情防控常态化下家政服务业的转型突围之路。', '通过此次学习，我市家政企业纷纷表示要苦练内功，在专业技能方面再加强，同时要将先进的经营理念运用到企业发展中，在常态化疫情防控形势下，积极探索新业态、新模式，履行好社会责任，积极拓展“互联网+家政”业务，']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>20</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>介休市国土局不动产登记中心赴晋中市不动产登记中心考察学习</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2018-04-16</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>https://ghhzrzyj.sxjz.gov.cn/bdcdjd/bdcdj/content_227462</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['【介休】市国土局不动产登记中心赴 \u200b晋中市不动产登记中心考察学习_不动产登记_不动产登记_晋中市规划和自然资源局', '为进一步贯彻落实介政办函【2018】19号“放管服效”专项改革文件精神及“最多跑一次”要求，学习借鉴其他市县先进经验，不断提升我市不动产登记“高效、快捷、便民”的服务水平，4月10日，由市不动产登记中心、公积金中心、房地产交易所组成的考察学习组一行4人对晋中市榆次区不动产登记实行“一窗受理，集成服务”的经验和做法进行了学习考察。', '榆次区是晋中市不动产登记工作开展的先进市。“放管服效”、“最多跑一次”的服务举措，不仅是政府执政理念的一次根本性转变，也是政府最大程度释放改革红利于人民的具体体现；晋中市榆次区是较早完成“一窗受理，集成服务”模式的城市；通过将房屋交易和登记部门合并，实现“交易登记合一”走在了全市乃至全省的前列。', '在一天的行程中，考察组突出重点，从三方面进行全面考察学习。一是如何充分运用“互联网+政务服务”和大数据技术，全面推进不动产交易、登记、公积金抵押等部门自身改革方面进行了重点考察学习；二是对促进不动产交易、登记体制机制创新，使不动产交易、登记办事环节明显减少，办事程序明显优化，办事效率明显提高方面进行重点考察学习；三是从不动产登记全业务、全过程“一窗受理、集成服务”方式方面进行重点考察学习。', '通过学习考察，考察组工作人员亲身感受到晋中市榆次区不动产登记建设和管理的创新、模式的超前，可学可鉴，对我市不动产登记的建设和管理工作有三点启示：观念的转变是实现“一窗受理、集成服务”的前提；改革创新是实现“一窗受理、集成服务”的关键；领导重视、各方面配合是实现“一窗受理、集成服务”的支撑。', '“他山之石，可以攻玉”。通过学习考察，借鉴学习外地先进经验，可以加快推进我市不动产登记“一窗受理、集成服务”的改革进程。', '下一步将重点推进三项工作，一是积极推进我市不动产登记“一窗受理、集成服务”的落实；二是做好调查摸底，为政府推动实施提供科学依据；三是抓紧业务整合，体现具有我市特色的“七个一”服务模式，即：“一窗进”，方便群众办事、提升政府效率，让群众少跑路。“一网通”，让数据多跑腿、让群众少跑腿。“一套材料”，让群众办事简洁快速。“一个受理窗口、一个落宗窗口、一个窗口查询调档、一个窗口开票发证”。', '“一窗受理，集成服务”是进一步落实“放管服效”改革的要求，是服务理念的根本转变，是以为民之心，行简政之道的有效途径，先进城市的经验做法，既节约制度成本，又提升群众的幸福感和获得感，值得我们学习、借鉴和推广实施。', '不动产登记人员表示，作为一名不动产登记工作人员，要树立学习的意识，不作井底之蛙，在学习中调整自己，努力践行新理念，努力实施经验。在今后的工作中，要开拓视野，深感走出门外看世界的必要性，扩大对外交流，借鉴学习其他市（县）的先进经验，一定要将各地在不动产登记工作中的先进经验和做法应用到我们的实际工作中去，在服务水平和服务质量上下功夫，促进我市不动产登记工作健康快速发展，全面提升服务水平和服务质量。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>20</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>偏关县领导深入寿阳县社考察学习</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>https://gxs.sxjz.gov.cn/jcdt/content_457934</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['4月3日，偏关县政府副县长范彩琴、供销社理事会主任刘永明一行五人深入我县考察学习基层供销社相关工作，我县副县长李志刚、供销社班子成员和业务股负责人陪同考察。考察组首先到南燕竹供销合作社开展实地观摩学习，供销合作社负责人贾永珍详细讲解了供销超市运营模式及南燕竹供销合作社创新性的“1+1+N”土地托管模式（南燕竹供销合作社+金穗种植专业合作社+党组织、科研院所、农户、商业保险、金融机构等），近年来，先后投资390余万元在原址上重建了1500平米的综合办公大楼，主动领办金穗种植专业合作社，有效实现两社深度融合，成为了全县土地托管面积最大、管理最精细、效益最好、带动作用最明显的土地托管示范点。随后，一行人参观了党群服务中心展览厅、化肥生产车间及现代观光农业示范点，现代观光农业示范点是集观光农业、休闲农业、循环农业、创意农业、农事体验于一体的田园综合体，有效推动农村一、二、三产业的融合发展，截止目前，南燕竹供销社年营业额达到370万元。', '4月3日下午，考察组对我县五谷源农产品购销专业合作社进行参观，合作社负责人郭永生对粮食收购与销售、农产品初加工、农业技术推广方面进行详细介绍。近年来，该合作社不断强化为农服务意识，广开服务“三农”渠道，不断拓展业务范围，成为全县解决农民“卖粮难”的重点单位。随后前往朝阳供销合作社，该社立足区位优势，大力引进实力强、品牌效应好的企业—医冷家电入驻，开辟了基层社社企共建新模式，从根本解决了改制后职工就业、医疗、养老等一系列后顾之忧，满足了城乡居民生产生活需要。', '考察学习结束后，范彩琴副县长高度评价了南燕竹供销合作社和金穗种植专业合作社两社融合，共同开发、共同发展、共同打造的发展理念和运行模式，通过供销社规模化、产业化、集约化，最终达到绿色化。表示在今后的工作中，会积极学习我社的先进经验，把在我社学习到的先进经验和理念运用到服务“三农”实际工作之中，积极助力乡村振兴。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>20</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>市发改委参加县乡医疗卫生机构一体化改革学习考察</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2018-05-23</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>https://fgw.sxjz.gov.cn/gzdt/content_231992</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['，市医改办组织相关部门赴运城盐湖区学习考察县乡医疗卫生机构一体化改革。市发改委作为市医改领导组成员单位，参加了此次学习考察工作。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>20</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>市创卫办工作人员赴忻州学习考察</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2018-01-10</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>https://wjw.sxjz.gov.cn/agws/content_220583</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['按照晋中市创卫指挥部办公室的安排，12月26日市卫计委主任武保平、市爱卫会常务副主任杜云成带领创卫办工作人员就人员机构设置、创卫任务分解、组织推进落实、督促机制及档案资料的收集整理等赴忻州市进行了考察学习。考察组一行先后参观了创卫指挥部办公室、档案室，听取了忻州市卫计委主任贺贵平关于忻州市创建国家卫生城市的经验介绍，双方就创卫办人员配置、日常运行管理、责任片区划分、专家组检查指导、档案资料收集整理等问题进行了深入交流。', '这次考察活动进一步开阔了视野、明确了任务和方向，大家一致表示：创卫工作是一项惠及民生的庞大系统工程，一定要在市委、市政府的高度重视支持和强有力推动下，加强组织协调，开展达标整治，做好基础工作。同时要加大宣传力度，营造创卫氛围，发动全体党员干部和广大人民群众积极参与，确保按期完成创卫各项目标任务。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>冯建平带队赴晋城学习考察全域旅游工作</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2017-11-28</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>https://wlj.sxjz.gov.cn/gzdt/content_206188</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['11月27日，晋中市人大常委会主任冯建平带队赴晋城市学习考察全域旅游工作，晋中市人大常委会副主任张耀明、秘书长杨允强以及左权、和顺县政府主要负责人一同参加了考察。', '考察组一行先后实地考察了晋城司徒小镇和阳城中国农业公园、县城六大森林公园、城市步道建设、农业嘉年华等项目，详细听取了项目介绍，并与当地主要负责同志进行了深入的交流。', '冯建平指出，近年来，晋城市全域旅游工作特色鲜明、效果突出，特别是阳城县坚持围绕旅游抓发展格局、抓功能完备、抓旅游产品，全域旅游呈现快速发展的良好态势。', '冯建平强调，晋中市处在打造全域旅游示范区的关键时期，要认真学习借鉴，把好的经验和做法带回去，推动我市全域旅游工作快步向前发展。特别是左权、和顺两县，森林覆盖率高、自然环境优美、旅游资源丰富，更要坚定信心、乘势而上，用足用好优势资源，根据自身特点，做好发展旅游这篇大文章，打造一流的旅游品牌。要结合农业发展、美丽乡村、拆违治乱和脱贫攻坚等工作，准确定位、融合发展、久久为功，走好全域旅游发展之路，力争早日全面实现“望得见山，看得见水，记得住乡愁，富得了百姓”的美好愿景。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>20</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>晋中市科协赴辽宁省黑龙江省科技馆考察学习</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2015-02-26</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>https://kx.sxjz.gov.cn/sjdt/content_305707</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['2月5日至2月10日，晋中市科协副主席王鸿雁、王巧玉一行四人赴东北进行了科技馆的考察。期间，分别对辽宁省科技馆、黑龙江省科技馆以及沈阳市科学宫、哈尔滨市科学宫四馆在展示内容上的定位、理念和场馆的主题设计方面进行了考察，同时对各馆在公共空间、常设展厅、临时展厅等布展方面的经验以及会议报告厅、青少年工作室、球幕影院的布局方面一一进行了学习。', '考察结束后，王鸿雁和王巧玉两位副主席一致认为辽宁、黑龙江两省的省级科技馆很多展品不仅在展项上具有创新性，同时能够结合当地的特点对展品独特设计，使其具有代表性，这为我们晋中市科技馆的建设提供了一个非常好的提示，希望辽宁、黑龙江两省的科技馆专业技术人员能赴晋中进行指导，对晋中科技馆的建设提出好的建议和帮助，共同努力把晋中的科普事业推向一个新的高度！（晋中市科协 秦嘉磊）']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>20</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>王成率我市党政代表团赴浙江省湖州市学习考察</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2018-04-25</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/xdny/content_228715</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['带着争创乡村振兴示范市的强烈责任，带着全面提升晋中“三农”工作水平的使命担当，4月21日至24日，市委书记王成率我市党政代表团赴浙江省湖州市就乡村振兴进行专题考察，学习借鉴湖州市建设生态文明、实施乡村振兴战略的思路做法，对标先进、问计取经、拓宽思路、以学促干。市委副书记尹乃明，副市长任忠及市直相关部门负责人，各县（区、市）委、政府主要负责人参加考察。', '湖州市是“两山”理念的发源地，十几年来，该市坚定不移践行习近平总书记在湖州提出的“绿水青山就是金山银山”重要思想 ，坚持将全域建设生态文明先行示范区作为全面加强生态文明建设的重要载体，以理念引领为先导，以环境改善为基础，以绿色发展为根本，以文化培植为支撑，以制度建设为保障，有力推动了生态文明先行示范区建设，2014年入选首批国家生态文明建设示范市，成为全国首个地市级生态文明先行示范区，走出了一条生态美、产业兴、百姓富的可持续发展路子，探索形成了共建生态文明、共享美好生活的新局面。', '四天来，王成率晋中党政代表团马不停蹄、日夜兼程，先后深入湖州市两县一区共计22个村或产业园区考察学习。在安吉县，王成一行先后考察了天荒坪镇余村，灵峰街道大竹园村、横山坞村，上墅乡刘家塘村，递铺街道鲁家村，溪龙乡白茶主导产业示范园，梅溪镇荆湾村，山川乡马家弄村、高家堂村；在德清县，王成一行参观了下渚湖街道二都小镇，阜溪街道五四村，莫干山镇郡安里、燎原村，欧诗漫珍珠博物院和中国美丽乡村讲习所；在吴兴区，考察团又深入吴兴区八里店现代农业综合区公共服务中心、尹家圩粮油植保农机专业合作社、吴兴锋盛家庭农场、丝绸小镇学习取经。每到一处，大家都认真听、仔细看、不时问，实地感受新型乡村之美、乡风文明之美，并与村干部交流探讨，详细了解美丽乡村建设、基层党建引领、产业融合发展、人居环境改善、土地制度改革等方面的成功经验。期间，考察团还与当地相关部门负责人和有关专家进行座谈，就美丽乡村建设和乡村振兴推进中各方面具体问题进行互动交流。', '考察中，王成抢抓一切时间，及时将自己的所思所想、所得所获与大家分享，引导大家在思维碰撞中统一思想、深化认识，在研究分析中完善思路、创新举措，在对照比较中激发干劲、催生斗志。他强调，要学思践悟，认真贯彻落实党的十九大精神和党中央对“三农”工作的新部署、新要求，践行“两山”理念，围绕“产业兴旺、生态宜居、乡风文明、治理有效、生活富裕”的总要求，按照“产业振兴、人才振兴、文化振兴、生态振兴、组织振兴”的路径，坚持把做大做强农业产业作为首要任务，加快转型升级步伐，促进农民致富增收；坚持把建设美丽乡村作为主要抓手，全面提升农村生态文明建设和人居环境水平，打造优美风景线；坚持把加强农村精神文明建设作为核心内容，丰富农民精神家园；坚持把加强农村基层组织建设作为根本保证，实施党建引领工程，激活发展引擎，确保争创乡村振兴示范市有序有力有效推进。', '立足当前实际，王成就实施乡村振兴战略提出明确要求。要规划先行，迅速启动我市乡村振兴相关规划的编制工作。按照实施方案要求，抓好市县两级乡村振兴战略总体规划和各项专项规划以及乡村村庄布局规划的编制，指导村级做好景观提升规划和产业发展规划编制工作。要示范领路，扎实推进乡村振兴五级示范工作。围绕争创乡村振兴示范市目标，尽快制定出台相关标准。各县要针对不同类别、不同情况，确定示范乡、示范村、示范户，明确类型、标准和要求。要落实好基础性、普惠性、规定性工作。坚持点线面结合，整体推进，把浙江省15年建设美丽乡村的经验转化为晋中实施乡村振兴战略3年行动计划。各县（区、市）特别是两个示范县要在抓好示范引领的同时，先行一步，注重打造精品线路，把示范村串成线、连成片。当前，要集中抓好改厕、改水、垃圾处理等工程实施。要抓好产业发展，积极培育特色产业，推进融合发展，引导工商资本，做大乡村旅游。要建立乡村振兴示范村激励机制。加大前期投入，制定奖补办法，整合项目资金，支持项目建设。要积极组织县乡村干部学习考察，进一步解放思想、转变观念，让乡村振兴战略真正深入人心。要充分发挥农民主体作用，尊重农民意愿，调动和发挥好他们的积极性。要发挥干部的关键性作用，提升基层干部的思想境界、能力水平，创造有利条件，全力支持他们干事创业。要建立保障机制，正确处理好政府与市场、建设与经营、当前和长远、面上和点上的关系，统筹谋划，确保我市乡村振兴取得实质性突破。', '他山之石，可以攻玉。考察中，大家始终保持着振奋昂扬的精神状态，看浙江、说晋中，表示回去后要用足用活学习考察成果，立足各自实际，努力把浙江的好思路、好做法、好经验晋中化、具体化，运用好、落实好，在争创乡村振兴示范市的实践中迅速行动、尽快见效。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>20</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>介休市绵山镇就创建国家卫生乡镇赴外地考察学习</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2018-01-31</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>https://wjw.sxjz.gov.cn/agws/content_220603</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['1月17日，介休市爱卫办负责人和绵山镇镇村两级干部一行来到昔阳县大寨村和定襄县河边镇就创建国家卫生乡镇进行考察学习。', '考察团一行详细察看了乡村垃圾清扫清运、村容村貌亮化美化、道路绿化硬化、无害化厕所改造、环境卫生管理等重点工程；听取了相关乡镇负责人关于创建国家卫生乡镇工作经验介绍。', '要认真学习借鉴两地经验，以志在必得的精神状态和“不创则已、创则必胜”的坚定信念，凝心聚力，攻坚克难，打好“创卫”攻坚战。将立说立行、科学规划、高标准实施各项工程，争取“创卫”一举成功，助推绵山更快发展。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>20</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>常书铭赴四川省眉山市成都市考察学习</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/bssz/content_465485</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['常书铭赴四川省眉山市成都市考察学习 开辟合作新途径 丰富合作新内涵 加快打造农特产品精深加工千亿级产业集群', '6月10日至11日，市委书记常书铭赴四川省眉山市和成都市就农业产业化、深化市校合作、文旅融合考察学习，实地感受两市高质量发展成效，推进深化友好合作，共谋发展共赢愿景。他强调，要全面贯彻落实党的二十大精神和习近平总书记考察调研山西重要讲话重要指示精神，瞄准打造农特产品精深加工千亿级产业集群目标，开辟合作新途径、拓展合作新空间、丰富合作新内涵，以“坐不住、等不起”的使命自觉、以“登高望远”的战略视野，对标先进学经验、拓思路，为全面落实“五个发挥更大作用”要求、奋进“两个基本实现”走在全省前列提供持久强劲的新动能。市领导冯晓雷、张英杰参加。', '农业产业化龙头企业竞争力强、影响力大、联农带农作用突出，是推进乡村振兴战略实施的关键，是繁荣农村经济、带动农民致富的基石。6月10日下午，常书铭一行先后深入眉山市食品龙头企业千禾味业食品股份有限公司和李记乐宝食品有限公司，参观食品酿造工艺、自动化加工生产线，认真听取企业文化、运营管理介绍，重点了解企业重视研发投入、引领行业标准、多渠道销售、延伸农业产业链等经验。他指出，农产品加工业连接工农、沟通城乡，行业覆盖面广、产业关联度高，要学习借鉴眉山市培育壮大食品产业集群的先进经验做法，聚焦补链延链、接二连三，精耕深耕食品精深加工产业，从生产、经营、品牌、技术、标准等全环节发力，拉长产业链条，以品牌提市场、以市场稳规模、以规模促效益，提升晋中特优农产品附加值。要立足我市特色农业资源优势，加快推进农特产品精深加工千亿级产业集群建设，以农特产品精深加工产业园为载体，推动优势农业产业集群发展，积极开辟新赛道塑造新动能。要以晋中国家农高区建设为牵引，在加强科技创新、强化要素保障等方面下功夫，努力探索农业产业化发展新模式，以特色产业发展和龙头企业带动，促进农民增收致富，以产业振兴推动乡村振兴。', '四川大学是教育部直属全国重点大学、国家“双一流”建设高校（A类），学科门类齐全，科研实力强劲。6月11日上午，常书铭来到四川大学，察看校园环境，参观校史展览馆，认真听取学校学科建设、历史沿革、科技成果、科研队伍情况介绍，对四川大学深厚的文化底蕴、显著的科研成果表示钦佩。他说，近年来，我市与四川大学开展全方位、多领域深度合作，在农业、医疗等领域已开展多个合作项目，成果丰硕、成绩喜人。希望四川大学进一步关注晋中、牵手晋中，进一步创新合作机制、提升合作能级，拓宽双方多学科多领域合作，推动人才链与产业链、创新链有机衔接，持续提高科技成果产业化水平，推动市校合作走深走实，为晋中高质量发展不断注入创新动能。要充分发挥共建农特产品精深加工产业示范园区带动作用，联合开展关键核心技术攻关，加快推动共创共享，为农业产业转型升级、农业供给侧结构性改革提供强有力的支撑，实现人才集聚、知识创新与产业发展共振，谱写市校合作、产业创新发展新篇章。常书铭承诺，晋中市将全面服务产业示范园建设，加强点对点项目招引对接，全周期项目落地跟踪，以更实举措、更优服务推进合作项目落实落地，进一步推动四川大学学科资源、优势平台、人才智库、科学服务嵌入晋中市科技创新体系、产业发展体系，全方位赋能晋中高质量发展。', '成都水井街酒坊被誉为“中国白酒第一坊”，是国家级非物质文化遗产。11日下午，常书铭来到水井坊，先后走进酿制区、包装生产中心、产品展示区，详细了解传统古法酿制工艺流程、非遗传承保护利用情况。他指出，要牢记习近平总书记考察调研山西“敬畏历史、敬畏文化、敬畏生态”殷殷嘱托，立足我市丰富的非遗资源，学习借鉴水井坊在传承古法技艺、创新文化元素等方面的经验做法，认真挖掘非遗背后的故事，研究、阐释其所蕴涵的历史、艺术、科学价值，助推我市文化遗产保护和文化传承，全面提升非遗保护利用和保护传承水平，扩大晋中文化的影响力。要全力发挥文物在旅游发展中的带动作用，积极推动文物保护与文旅融合发展，坚持以文促旅、以旅彰文，完善基础设施，优化产品供给，促进文创产品设计与非遗文化传承相融合，深入挖掘、保护、传承和展示晋中丰富的历史文化资源，打造晋中文旅文创融合新名片。要坚持文物保护和开发利用相统一，坚持整体规划和重点打造相统一，更好地延续历史文脉，展现城市风貌，留住城市记忆，加快构建消费新场景，打造具有晋中韵味和城市特色的经典之作，进一步推进文旅产业融合发展。', '考察学习中，常书铭一路走，一路向眉山、成都两市和四川大学推介晋中发展现状、产业优势及投资机遇。他强调，要站在践行“三新一高”战略部署、更好服务“两个基本实现”奋斗目标的高度，全面贯彻全省招商引资大会精神，切实把项目建设和招商引资作为经济工作的“牛鼻子”，全力以赴抓招商、真抓实干兴项目，坚持“走出去”与“引进来”相结合，在全市范围滚动开展常态化招商引资，形成凝心聚力大抓招商的生动局面，以高水平招商引资推动高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>常书铭率队赴长三角地区学习考察</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2024-04-22</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/bssz/content_500003</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['为深入贯彻习近平总书记在新时代推动中部地区崛起座谈会上的重要讲话精神和对山西工作的重要讲话重要指示精神，落实省委关于高质量发展部署要求，4月19日至20日，市委书记常书铭率队赴长三角地区学习考察加强科技创新、扩大对外开放、促进县域经济高质量发展等方面的经验做法，开展招商引资和项目对接。他强调，要牢牢把握推动高质量发展、加快发展新质生产力的工作主线，对标先进学理念，对照找差明思路，把思想上的触动变成发展上的行动，集中精力推进创新突破、产业突围，为晋中高质量发展注入强劲动能。市领导刘伟、张英杰、梁艳萍参加。', '4月19日，常书铭一行实地考察上海凯创生物技术有限公司，详细了解该企业关于医疗检测、医疗器械、医疗技术等方面的创新研发情况，就发展生物医药产业深入对接，推动体外诊断试剂项目正式签约晋中开发区，成为我市现代医药产业链延链补链的重要一环。常书铭指出，要把特色产业集群培育作为高质量发展的重要支撑，深入挖掘我市医药产业的存量资源、科教优势、市场基础，瞄准行业前沿精准开展招商引资，持续做强质量、做大增量，加快构建现代化产业体系。要坚持改革创新，聚焦服务项目投资和民营经济发展，打造国际化、法治化、市场化营商环境，优化全生命周期服务链，激发有潜能的消费、扩大有效益的投资，为经济高质量发展注入动能。', '松江区是上海高端制造业主阵地和科创中心重要承载区。在长三角G60科创走廊规划展示馆，松江区委书记程向民与常书铭就坚持科技创新和制度创新“双轮驱动”深入沟通交流。常书铭表示，松江区加快发展长三角G60科创走廊新质生产力等方面的实践探索，具有很强的借鉴意义。要将长三角G60科创走廊建设的好经验、好做法融入到我市园区建设运营、招商引资、项目建设等工作中，在实践中大胆探索，推动理论创新和实践创新良性互动。要坚持以进促稳，立足晋中产业发展基础，以头部企业为引领，充分发挥企业创新主体作用，促进创新链、产业链、资金链、人才链深度耦合，推动科技创新与产业发展深度融合。要打造产业生态，在构建产业联盟、搭建产业平台、擦亮产业品牌上下功夫，形成区域配套、集群落地的良好态势。', '在瓦尔登技术集团，常书铭一行详细了解企业利用废弃物资源化技术生产绿电、绿氢、绿醇的探索实践，与企业负责人就生物质发电、生物质制甲醇项目落地晋中达成共识。常书铭指出，晋中依托丰富的生物质资源和甲醇资源，开拓能源产业新蓝海，壮大甲醇汽车赛道，以车为媒发展新质生产力。希望企业抢抓产业发展窗口期，快落地、快建设、快投产。晋中将秉持“时间就是效益”的理念，点对点对接沟通，全周期跟踪服务，加快推进合作项目开花结果，让企业选择晋中、赢在晋中。', '珍岛集团是国内最大的营销和销售SaaS（软件及服务）科技服务商。常书铭一行参观了该企业SaaS智能营销云平台，并与企业负责人就开展数字化赋能、产业智能升级合作进行深入交流。常书铭表示，珍岛集团拥有全球智能营销领域技术革新引领者的优势，晋中拥有21所高校的丰富科教和人才资源，希望双方进一步沟通对接，在促进数字经济发展方面寻找契合点，推动相关项目尽快落地见效。', '在苏州市，江苏省委常委、苏州市委书记刘小涛与常书铭共同交流并实地考察城市规划建设、历史文化街区保护理念及模式。常书铭表示，要学习借鉴苏州市城市规划的经济思维、生态思维、人文思维、治理思维，以明天的视野布局今天的城市，把城市发展蓝图融入国家、省重大战略，增强城市规划的科学性、权威性、严肃性，以高质量规划引领晋中高质量发展。', '在苏州工业园区，常书铭一行详细了解该园区规划建设、产业发展、科技创新等情况，要求要全面对标对表，深入学习苏州工业园区的创新做法和先进经验，围绕产业链，布局创新链，建强人才链，提升价值链，增强产业链韧性，推动产业升级。 苏州生物医药产业园是苏州工业园区重点打造的创新科技载体，也是园区孵化和培育生物医药产业的主阵地。常书铭一行详细了解产业园产业布局、开发运营等，并与生物制药领域头部企业信达生物制药集团深入洽谈对接。常书铭指出，晋中打造生物医药产业集群，要在全链条布局谋划上下更大功夫，大力构建高成长性创新型企业“雁阵”梯队，不断强化管理对标、创新业态模式、增强市场优势。', '4月20日晚，常书铭在苏州市主持召开会议，就运用考察学习成果，坚持稳中求进、以进促稳，促进经济平稳运行作出重点部署。他指出，发展经济如逆水行舟，不进则退，慢进也是退。面对煤炭、钢铁、焦化等部分传统行业承压运行的现实情况，以及前有标兵、后有追兵的激烈竞争形势，各县（区、市）摆位要正，紧扣县域经济高质量发展任务，把促进经济平稳运行放在重中之重位置，坚定全年目标任务不动摇，努力推动经济实现质的有效提升和量的合理增长。思路要清，在找长板、补短板、扬优成势、做大特色上下功夫，统筹抓好传统产业改造升级、新兴产业培育壮大和未来产业前瞻布局，因地制宜明确新质生产力重点培育领域，对接长三角地区开展精准招商，积极承接产业转移，持续激发有潜能的消费，扩大有效益的投资，做强县域特色鲜明板块经济。干劲要足，对标长三角地区，拿出“争先”的魄力、“敢拼”的劲头，拼经济、拼项目、拼作风，建立经济运行精准调度机制，卡住时间节点、逐项紧抓跟进，切实把经济发展的思路、目标、任务转化为逐月稳步向好的实绩实效，为晋中在全省高质量发展中奋勇争先作出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>20</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>冯建平率队赴运城市学习考察古建筑文化遗产保护工作</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2018-02-26</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>https://renda.sxjz.gov.cn/rdyw/content_255290</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['为推进我市古建筑历史文化遗产保护和开发利用工作，11月23日，市人大常委会主任冯建平率队赴运城市进行学习考察。市人大常委会副主任张耀明、秘书长杨允强参加考察。', '运城市委书记刘志宏与考察组一行进行了亲切交谈，双方围绕强化两市在历史文化遗产保护、文化旅游产业发展、现代农业及新型工业等方面的合作进行了深入交流。', '冯建平指出，运城是人口大市、现代农业强市和新兴工业城市，农业生产条件得天独厚，非煤产业发展潜力很大。同时，运城拥有灿烂的历史文明、丰富的文化资源、多样的文化遗存，运城市委、市政府高起点谋划，大力度推进，有效促进了历史文化遗产的保护工作，激发了当地文化旅游产业的发展。', '冯建平强调，要以此次考察学习为契机，进一步加强沟通和交流，实现共同进步、共同提高、共同发展。要深入学习借鉴运城市的宝贵经验和做法，认真研究、取长补短，进一步提升我市历史文化遗产保护工作的质量和水平。要遵循“保护为主、抢救第一、合理利用、传承发展”的原则，做好文化遗产保护利用工作这篇大文章，将保护、传承、创新发展与文化旅游产业结合起来，更好地传播历史文化，彰显晋中魅力。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>20</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>临汾市城市管理局考察学习晋中市城区提档升级工作</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2020-03-23</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xxzb1/xxk1248/content_325925</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['3月20日上午，临汾市城市管理局局长任俊杰带领规划和自然资源局、公安交警支队、市政工程集团等相关部门负责人员，来到我市考察学习城市提档升级工作。市城市管理局局长贺建国等陪同考察。', '考察团一行听取了市城区提档升级攻坚行动工作介绍，实地查看了汇通路、迎宾街、新建路立面规整和门头提质，以及锦纶路139公园品质提升和蕴华街便民市场建设情况。任俊杰表示，要认真学习借鉴晋中市提档升级攻坚行动的好经验好做法，扎实推动临汾市提档升级工作。', '考察团一行听取了市城区提档升级攻坚行动工作介绍，实地查看了汇通路、迎宾街、新建路立面规整和门头提质，以及锦纶路']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>20</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>张璞率队赴河北省邯郸市邢台市学习考察</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2016-05-10</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>https://swdx.sxjz.gov.cn/xwdt/szyw/content_208801</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['我市与河北省邯郸市、邢台市地缘相近,人缘相通,合作发展空间广阔。5月4日至5日,省政协副主席、市委书记张璞率市发改委等有关部门和左权县、和顺县政府主要领导,赴河北省邯郸市和邢台市学习考察,共同探讨合作事宜。他强调,晋中市要抢抓国家新一轮发展机遇,打开东大门,走进大平原,融入京津冀,接轨环渤海,主动与邯郸、邢台两市进行全方位对接,多角度合作,借船出海,借势发展,推动基础设施、文化旅游、商贸物流、产业转型、资源配置共同发展。市委常委、常务副市长畅志仁,市委常委、秘书长王建忠参加考察。邯郸、邢台两市市委、市政府主要领导分别参加活动。', '在邯郸市,张璞一行先后深入涉县八路军129师司令部旧址、武安市银隆新能源产业园、邯山区林安智慧商贸物流城、邯山区邯郸国际陆港、邯郸县华耀城、永年县广府古城、邯郸市文化艺术中心和邯郸市规划展览馆,考察该市企业转型、城市建设、文化旅游、新兴产业发展等方面工作。张璞一行一路走、一路看、一路议,从城市建设发展到重大项目建设,从合作开发市场到推动产业转型升级,深入进行探讨和交流。', '考察中,张璞指出,晋中、邯郸两市千百年来文化传承,民间互动,经济往来,可谓一衣带水,唇齿相依。近年来,晋中市抓住太原晋中同城化和山西转型综改试验区战略机遇,引进山西高校新校区、山西科技创新城、新能源汽车城等一批大项目落户晋中,晋中各项事业实现了新跨越。但是我们看到,邯郸市借京津冀协同发展战略,装备制造、现代物流、新材料新能源等新兴产业发展迅速,形成了全市多领域产业齐头并进的良好局面,这些都为邯郸经济社会发展提供了强力支撑。此外,邯郸市以独特的模式推动产城融合,推动城镇化进程,走出了一条新型城镇化发展之路,这些宝贵经验值得晋中学习。京津冀协同发展战略对于晋中来说也是一次重要的发展机遇,希望今后两市能够加强对接,携手并进,取长补短,一同绘就两市协同发展的美好蓝图。', '邯郸市委书记高宏志代表邯郸市委、市政府对张璞一行来邯郸考察表示热烈欢迎。高宏志指出,邯郸作为老工业基地,近年来始终把项目建设作为调结构、转方式的核心抓手,持之以恒上大项目、好项目,以优质增量调整存量、调优结构,全市产业结构发生了显著变化,大气环境得到了明显改善,群众满意度普遍提升,发展的势头越来越好。晋中与邯郸同处太行山脉,在经济发展、城市建设、环境保护等多个领域有着广阔的合作空间,希望双方进一步加强沟通联系,实现互利双赢。', '在邢台市,张璞一行先后考察了沙河市的河北中玻新材料有限公司、利多生态农业示范区,清河县的河北宏业羊绒有限公司、河北御捷车业有限公司、中航上大合金工程项目、挥公文化园,邢台市开发区的晶澳(邢台)太阳能有限公司和七里河新区,听取了邢台市“一城五星”规划建设情况介绍。', '双方就各自经济社会发展情况进行了介绍,并就加强对接交流,深化基础设施建设、产业发展、生态建设等领域的合作达成共识。', '在双方召开的座谈会上,张璞指出,通过考察学习,深切感受到邢台市在河北省委、省政府领导下,各行各业迸发出的发展活力和勃勃生机。特别是在县域经济发展上,邢台市持续不断解放思想,发扬太行精神,立足优势,稳扎稳打,坚持不懈走特色发展之路,取得了明显成效骄人业绩,值得晋中学习借鉴。张璞表示,晋中将以这次考察为契机,进一步加强与邢台的交流合作。希望两地党委、政府积极为加快两地道路基础设施建设,打通制约两地发展的通道瓶颈做好服务。同时坚持以市场为导向,不断打破行政壁垒,加快推进市场一体化进程,在资本流动、市场共享、旅游开发、项目建设等方面深化合作,力争在更大范围、更宽领域、更深层次上实现对接,推动两市各类要素的深度融合和低成本快捷流动。希望邢台各界多到晋中走走看看走亲访友,交流发展经验,谋求新的合作领域,共赢发展、共同进步。', '邢台市委书记张古江代表邢台市委、市政府对张璞一行的到来表示欢迎。他指出,邢台与晋中地缘相接,人员相亲,经济相融,文化相通,自古就有良好的合作基础。张古江表示,当前,邢台全市上下正在深入学习贯彻习近平总书记系列重要讲话精神,坚持以“五大发展”理念为引领,全力推进“经济强市、美丽邢台”建设。希望晋中与邢台以贯彻落实“五大发展”理念为遵循,加强在道路基础设施建设、产业发展、电子商务、太行山生态保护和旅游开发等方面的合作,建立合作机制,加强沟通对接,进一步明确具体合作事项,不断深化两地之间的合作与交流。(王文安)']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>20</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>昔阳县委党校赴武乡太行干部学院学习考察</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2017-05-11</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>https://swdx.sxjz.gov.cn/dxxx/content_208795</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['5月7日，昔阳县委书记王根元、县委常委、组织部长郭春林带领县委党校和县委组织部相关人员一行6人，赴武乡县太行干部学院进行学习考察。', '座谈会上，听取了武乡县委常委、组织部长吕志刚关于太行干部学院建设经验的介绍，并就所关注的资金问题、食宿问题、收费问题、租赁问题、运行问题、管理问题等一一进行了提问。随后，大家参观了太行干部学院的学员宿舍、教室、多功能报告厅、学员食堂等基础设施建设。一路走来，大家看得非常仔细，听得异常认真，特别是学院建设的一些细节问题，包括教学设备的采购、学员宿舍的布置、后勤服务的保障等，并进行了现场体验。这次太行干部学院的学习考察，必将对大寨党性教育基地建设起到积极的推动作用。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>20</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>常书铭率队赴长三角地区学习考察</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2024-04-23</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>https://gxj.sxjz.gov.cn/xxgk/xxgkml/gzdt15jxw/bgs15jxw/content_188798</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['常书铭率队赴长三角地区学习考察_工作动态_法定主动公开内容_政府信息公开_晋中市工业和信息化局', '为深入贯彻习近平总书记在新时代推动中部地区崛起座谈会上的重要讲话精神和对山西工作的重要讲话重要指示精神，落实省委关于高质量发展部署要求，4月19日至20日，市委书记常书铭率队赴长三角地区学习考察加强科技创新、扩大对外开放、促进县域经济高质量发展等方面的经验做法，开展招商引资和项目对接。他强调，要牢牢把握推动高质量发展、加快发展新质生产力的工作主线，对标先进学理念，对照找差明思路，把思想上的触动变成发展上的行动，集中精力推进创新突破、产业突围，为晋中高质量发展注入强劲动能。市领导刘伟、张英杰、梁艳萍参加。', '4月19日，常书铭一行实地考察上海凯创生物技术有限公司，详细了解该企业关于医疗检测、医疗器械、医疗技术等方面的创新研发情况，就发展生物医药产业深入对接，推动体外诊断试剂项目正式签约晋中开发区，成为我市现代医药产业链延链补链的重要一环。常书铭指出，要把特色产业集群培育作为高质量发展的重要支撑，深入挖掘我市医药产业的存量资源、科教优势、市场基础，瞄准行业前沿精准开展招商引资，持续做强质量、做大增量，加快构建现代化产业体系。要坚持改革创新，聚焦服务项目投资和民营经济发展，打造国际化、法治化、市场化营商环境，优化全生命周期服务链，激发有潜能的消费、扩大有效益的投资，为经济高质量发展注入动能。', '松江区是上海高端制造业主阵地和科创中心重要承载区。在长三角G60科创走廊规划展示馆，松江区委书记程向民与常书铭就坚持科技创新和制度创新“双轮驱动”深入沟通交流。常书铭表示，松江区加快发展长三角G60科创走廊新质生产力等方面的实践探索，具有很强的借鉴意义。要将长三角G60科创走廊建设的好经验、好做法融入到我市园区建设运营、招商引资、项目建设等工作中，在实践中大胆探索，推动理论创新和实践创新良性互动。要坚持以进促稳，立足晋中产业发展基础，以头部企业为引领，充分发挥企业创新主体作用，促进创新链、产业链、资金链、人才链深度耦合，推动科技创新与产业发展深度融合。要打造产业生态，在构建产业联盟、搭建产业平台、擦亮产业品牌上下功夫，形成区域配套、集群落地的良好态势。', '在瓦尔登技术集团，常书铭一行详细了解企业利用废弃物资源化技术生产绿电、绿氢、绿醇的探索实践，与企业负责人就生物质发电、生物质制甲醇项目落地晋中达成共识。常书铭指出，晋中依托丰富的生物质资源和甲醇资源，开拓能源产业新蓝海，壮大甲醇汽车赛道，以车为媒发展新质生产力。希望企业抢抓产业发展窗口期，快落地、快建设、快投产。晋中将秉持“时间就是效益”的理念，点对点对接沟通，全周期跟踪服务，加快推进合作项目开花结果，让企业选择晋中、赢在晋中。', '珍岛集团是国内最大的营销和销售SaaS（软件及服务）科技服务商。常书铭一行参观了该企业SaaS智能营销云平台，并与企业负责人就开展数字化赋能、产业智能升级合作进行深入交流。常书铭表示，珍岛集团拥有全球智能营销领域技术革新引领者的优势，晋中拥有21所高校的丰富科教和人才资源，希望双方进一步沟通对接，在促进数字经济发展方面寻找契合点，推动相关项目尽快落地见效。', '在苏州市，江苏省委常委、苏州市委书记刘小涛与常书铭共同交流并实地考察城市规划建设、历史文化街区保护理念及模式。常书铭表示，要学习借鉴苏州市城市规划的经济思维、生态思维、人文思维、治理思维，以明天的视野布局今天的城市，把城市发展蓝图融入国家、省重大战略，增强城市规划的科学性、权威性、严肃性，以高质量规划引领晋中高质量发展。', '在苏州工业园区，常书铭一行详细了解该园区规划建设、产业发展、科技创新等情况，要求要全面对标对表，深入学习苏州工业园区的创新做法和先进经验，围绕产业链，布局创新链，建强人才链，提升价值链，增强产业链韧性，推动产业升级。 苏州生物医药产业园是苏州工业园区重点打造的创新科技载体，也是园区孵化和培育生物医药产业的主阵地。常书铭一行详细了解产业园产业布局、开发运营等，并与生物制药领域头部企业信达生物制药集团深入洽谈对接。常书铭指出，晋中打造生物医药产业集群，要在全链条布局谋划上下更大功夫，大力构建高成长性创新型企业“雁阵”梯队，不断强化管理对标、创新业态模式、增强市场优势。', '4月20日晚，常书铭在苏州市主持召开会议，就运用考察学习成果，坚持稳中求进、以进促稳，促进经济平稳运行作出重点部署。他指出，发展经济如逆水行舟，不进则退，慢进也是退。面对煤炭、钢铁、焦化等部分传统行业承压运行的现实情况，以及前有标兵、后有追兵的激烈竞争形势，各县（区、市）摆位要正，紧扣县域经济高质量发展任务，把促进经济平稳运行放在重中之重位置，坚定全年目标任务不动摇，努力推动经济实现质的有效提升和量的合理增长。思路要清，在找长板、补短板、扬优成势、做大特色上下功夫，统筹抓好传统产业改造升级、新兴产业培育壮大和未来产业前瞻布局，因地制宜明确新质生产力重点培育领域，对接长三角地区开展精准招商，积极承接产业转移，持续激发有潜能的消费，扩大有效益的投资，做强县域特色鲜明板块经济。干劲要足，对标长三角地区，拿出“争先”的魄力、“敢拼”的劲头，拼经济、拼项目、拼作风，建立经济运行精准调度机制，卡住时间节点、逐项紧抓跟进，切实把经济发展的思路、目标、任务转化为逐月稳步向好的实绩实效，为晋中在全省高质量发展中奋勇争先作出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>20</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>校领导到红旗渠干部学院学习考察</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2018-08-25</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>https://swdx.sxjz.gov.cn/xwdt/xyxw/content_261663</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['2018年8月23至24日，市委副书记、市委党校校长尹乃明带领市委副秘书长贾尚明、市委党校常务副校长易仲林、副校长葛晋保到红旗渠干部学院学习考察。', '考察组参观了红旗渠干部学院的功能教室、国际学术交流中心等干部培训设施，详细了解了学院规划、布局以及运作管理情况，为我校的建设提供了许多值得借鉴的经验。同时，走访了红旗渠纪念馆、青年洞等现场教学点，体悟红旗渠精神，接受了精神洗礼。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>20</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>河北省保定市考察团在晋中国家农高区考察学习</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2022-11-11</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>https://ng.sxjz.gov.cn/xwdt/mtjj/content_440009</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['11月8日，河北省保定市考察团在晋中国家农高区考察学习。晋中市委常委、副市长、晋中国家农高区（太谷科创中心）党工委书记、管委会主任、太谷区委书记刘伟，区委副书记、区长郁效军，晋中国家农高区（太谷科创中心）党工委委员许云峰，晋中国家农高区（太谷科创中心）副主任贠卫华，副区长陈秋芳参加。', '考察团一行先后到山西大唐房车制造有限公司，晋中国家农高区科创基地产品研发展示中心、设施农业示范基地、智慧农场示范基地京东农场，山西巨鑫伟业农业科技有限公司、山西广誉远中医药文化产业园等地，通过听取介绍、实地参观、座谈交流等方式，详细了解晋中国家农高区总体规划布局、创新平台建设、产业集聚、人才引进等情况。', '刘伟向考察团详细介绍了太谷创建国家级农高区的经验和做法，希望双方进一步加强沟通交流，增进友谊，共同努力，相互补充，相互学习，促进双方现代农业高质量持续发展。', '考察团表示，晋中国家农高区建设为保定申报创建国家农高区提供了好思路、好经验、好做法，将把学习成果转化为务实有效的工作举措，大力推动农高区建设。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>20</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>平遥局赴省计量院开展对标一流考察学习</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2019-04-24</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>https://scj.sxjz.gov.cn/gzdt/content_271004</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['平遥局赴省计量院开展对标一流考察学习_工作动态_晋中市市场监督管理局（知识产权局）', '近日，平遥县市场监督管理局党组书记、局长带领检验测试所和质量技术股全体干部一行赴省计量院考察学习。在充分座谈后，学习人员一行了解到省计量院共建立保存有10大类206项山西省最高社会公用计量标准，可开展计量检定、校准、检测项目1100余项，计量产品质量检验项目127种、计量产品性能参数1666个，型式评价项目59种。随后参观了计量文化陈列馆和部分实验室。这是该局为对标一流建标、设备更新换代提前准备，通过外出“取经”定标准、找差距、寻办法，进一步推动该局“改革创新、奋发有为”大讨论的深入开展。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>20</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>榆次区党政考察团赴浙江省湖州市考察学习</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2018-05-24</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xxzb1/xxk1248/content_232120</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['5月18日至22日，榆次区党政考察团赴浙江省湖州市考察学习“践行‘两山’理念、建设生态文明、实施乡村振兴战略”的实践，考察团先后深入德清县、安吉县、长兴县的13个村，详细了解美丽乡村建设、基层党建引领、产业融合发展、人居环境改善、土地制度改革等方面的成功经验，对标先进、问计取经、拓宽思路、以学促干。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>20</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>太谷县司法局深圳市司法局一行来太谷县学习考察公共法律服务工作</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2018-08-09</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>https://sfj.sxjz.gov.cn/jcdt/content_241313</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['太谷县司法局：深圳市司法局一行来太谷县学习考察公共法律服务工作_基层动态_晋中市司法局', '特别是公共法律服务的先进经验和做法，以及“律师进社区”工作经验和做法进行了重点考察和详细了解，并就公共法律服务工作理念', '此次考察学习，为更好地展现我县公共法律服务工作特色，推动双方经验交流共享，推进各自工作深入开展起到了积极的促进作用。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>20</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>太原市供销社理事会主任刘照升率考察团来祁县供销社学习考察</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2018-06-26</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>https://gxs.sxjz.gov.cn/gzdt/content_235850</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['太原市供销社理事会主任刘照升率考察团来祁县供销社学习考察_工作动态_晋中市供销合作社', '6月21日，太原市供销合作社理事会主任刘照升带领由太原市供销系统市县区各主要负责人组成四十余人的学习考察团莅临祁县供销社，就合作经济组织建设工作进行学习考察，晋中市供销合作社理事会主任冯耀洲、晋中市供销合作社副调研员沙怒涛，晋中市供销合作社合作指导科科长李志亮，晋中市供销合作社综合业务科科长崔瑞红，祁县县委副书记、县长冯耀黎，副县长王海旺，祁县政府办主任霍哲慧，祁县供销合作社理事会主任杨泉海等市县领导陪同考察。', '学习考察团一行先后深入祁县供销社直属及领办合作企业祁供电子商务有限公司里村电商服务店、祁县腾达生态农业专业合作社、古县镇耀华果业专业合作社、古县供销社、东观镇马家堡村金昌源农牧业科技开发有限公司实地考察合作经济组织建设情况，借鉴学习祁县供销社在基层社恢复重建、改造提升，开放办社方面的好做法以及推动土地托管、循环经济、乡村旅游的新思路。', '每到一处，学习考察团成员都认真看、仔细听，并与相关负责人深入交流，详细了解祁县供销社在合作经济组织建设、基层社重建提升、发展土地托管、循环经济等方面的情况。考察中，刘照升主任对祁县供销社合作经济组织建设成果以及开放办社等做法给予了充分肯定。同时，希望两地以此次考察为契机，加强交流、密切合作，进一步深化供销社为农服务。', '里村供销社于2017年完成了基层社改造，并与电商公司合作，成立了电商服务店。刘照升主任一行参观了祁供电子商务有限公司里村电商服务店，耐心听取了工作人员的介绍，对祁县供销社发展农村电商、构建服务网络的做法给予肯定。', '祁县供销社把恢复改造提升基层社作为强化基层社合作经济组织建设的重点来抓，通过争取专项引导资金扶持基层社发展。2016年，古县供销社在县供销社扶持下，恢复和改造了370平方米的综合市场，并于2016年10月正式投入运营，极大地改善了服务环境。', '2017年，古县供销社拆除总店大院危房，腾空东西70米，南北50米土地，计划与山西省果品公司共同投资1000余万元，新建3200余㎡冷库，目前已申报该项目。刘照升主任对祁县供销社的基层社改造成果表示充分肯定，并听取了古县供销社与省果品公司合作的1000万元冷库建设项目的申报情况。', '考察祁县金昌源农牧业科技开发有限公司，听取负责人介绍“牛-牛粪-双孢菇-双孢菇基料-有机肥-有机小麦（有机面粉）-绿色饲草玉米（复播）-小麦绿色面粉及牛青贮青玉米-牛”的循环模式。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>20</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>祁县县政府一行学习考察市城区提档升级工作</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2020-03-07</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>https://cgj.sxjz.gov.cn/gzdt/content_323809</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['3月5日下午，祁县县委副书记、县长冯耀黎带队，就我市城区提档升级工作进行学习考察，园林、环卫等县直属相关部门参加，市城市管理局党组书记、局长贺建国、副局长张小平参加并介绍相关工作。', '祁县考察团一行认真听取了市城区提档升级攻坚行动工作介绍，实地考察了新建路、汇通路、建通路的立面规整、门头提质、违建拆除及便民市场建设工作成效和进展，表示要认真学习借鉴市城区提档升级攻坚行动中好的经验、做法，实施好祁县“两下两进两拆两补三严禁”整治工作，推动祁县提档升级攻坚行动取得新成效。', '祁县考察团一行认真听取了市城区提档升级攻坚行动工作介绍，实地考察了新建路、汇通路、建通路的立面规整、门头提质、违建拆除及便民市场建设工作成效和进展，表示要认真学习借鉴市城区提档升级攻坚行动中好的经验、做法，实施好祁县']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>20</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>湖北黄冈农业农村局来晋学习考察五地一产盘活利用</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/gzdt/content_369051</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['5月31日—6月4日，湖北黄冈市农业农村局一行6人来我市学习考察“五地一产”盘活利用的经验和做法，学习考察组一行先后来到榆次、太谷、祁县和平遥的“五地一产”示范村及农村产权交易中心参观考察。座谈中，晋中市介绍了盘活利用“五地一产”的做法，检验成效的标准及下步工作抓手，学习考察组一行人表示晋中“五地一产”模式亮点频现，效果显著，通过深化农村集体产权制度改革，把闲置的、低效的农村集体资源资产挖掘出来、统筹起来，实现市场化流动，吸引工商资本、壮大了村级集体经济和增加了农民财产性收入，希望双方能以这次考察学习为契机，继续保持沟通，深化学习交流，通过“五地一产”盘活利用，携手推进两市乡村振兴!', '晋中市现代农业产业发展中心生态站对太谷区畜禽粪污资源化利用整县推进项目进行专项督导']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>20</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>重庆市长寿区政府第二次来我市学习考察企业投资项目承诺制改革工作</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2018-10-08</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>https://fgw.sxjz.gov.cn/gzdt/content_249812</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['重庆市长寿区政府第二次来我市学习考察企业投资项目承诺制改革工作_工作动态_晋中市发展和改革委员会', '9月27日，重庆市长寿区政府党组成员、经开区管委会副主任冉洪一行7人再次来我市学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>20</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>常书铭赴四川省眉山成都考察学习</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2023-06-11</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/zwyw/content_465319</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['6月10日，市委书记常书铭赴四川省眉山市和成都市就文化遗产保护传承、产业助力乡村振兴、文旅产业融合发展考察学习，先后深入三苏祠、千禾味业食品股份有限公司、李记乐宝食品有限公司，实地感受两市高质量发展成效，推进深化友好合作，共谋发展共赢愿景。市领导冯晓雷、张英杰参加。', '蓝佛安：用足用好比较优势 强化创新协调发展 在产业升级绿色发展文旅融合上走在前作表率', '李强在辽宁调研时强调：大力优化营商环境 增强发展动力活力 推动东北全面振兴取得新突破']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>20</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>榆社县组团赴娄烦县考察学习社会扶贫工作</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2019-01-11</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xxzb1/xxk1248/content_260934</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['为了动员社会各方面力量参与扶贫开发，更加精准、快速、有效推进社会扶贫工作，1月9日，县委副书记、统战部长高杰，县委常委、政法委书记柳扣兔，县委常委、宣传部长王晓峰，县委常委、常务副县长王卫东率领我县考察团赴娄烦县专题考察学习社会扶贫工作。', '考察团一行先后深入娄烦县社会扶贫管理服务中心、盖家庄乡万子村爱心超市、马家庄乡张家庄村爱心超市，通过观看专题片、听取介绍、查看资料等方式，详细考察学习了娄烦县在社会扶贫工作方面采取的措施和办法。', '考察团成员边走边看边思索，不时与娄烦县、乡、村负责人交流探讨并用手机拍照留存资料。他们表示：通过考察学习，差距找到了，思路拓宽了，回去之后一定对标先进，查漏补缺，为进一步做好社会扶贫工作添砖加瓦。', '据了解：娄烦县全面统筹、协调、管理全县的社会扶贫工作，主要依托中国社会扶贫网，以“爱心超市、项目超市、消费扶贫”为载体建设“三位一体”融合的“1+3”社会扶贫娄烦新模式。“爱心超市”以农户物资需求信息为基础，通过“第一书记”主动掌握贫困群众物资需求，广泛发动爱心人士、爱心企业参与捐赠，以奖励积分的形式把捐献物品发放到农户手中。“项目超市”是一种充分动员社会力量投身公益性精准扶贫的新模式，是党委、政府实施精准扶贫工作的补充完善，通过贫困村、贫困户申报基础设施务、环境改善、特色产业等项目，制定项目清单，形员目库。“消费扶贫”主要是通过设立农副产品展示区推销、发动各级帮扶机关单位助销、建立县电商服务中心网上营销、开展农副产品“五进”活动承销，实行“扶贫农场”认领进行定销这五种方式，拓宽农产品销售渠道，把贫困群众产品变商品、收成变收入。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>20</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>常书铭参观广交会展馆并赴广州韶关考察学习</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2023-04-26</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/bssz/content_460007</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['常书铭参观广交会展馆并赴广州韶关考察学习 走出去引进来对标先进借力赋能 拓思路展视野解放思想聚势谋远', '4 月23日至24日，市委书记常书铭在广州参加第133届中国进出口商品交易会（广交会）期间，参观展馆看望我市参展企业，并赴广州市和韶关市考察学习，实地感受两市专业镇建设成效。他强调，要深入学习贯彻习近平总书记考察广东重要讲话精神，对照对标对表全省招商引资大会精神，切实向最高处看齐、向最强处学起，解放思想，开拓思路，充分运用广交会等平台，积极向外对接交流，着眼打好“产业链、专业镇、园区建设”三张王牌，广泛推介宣传晋中之长、之优，汲取先进地区高质量发展之道、之要，扩大招商引资成果，为晋中加快高质量转型先行、区域一体化先行注入澎湃动能，不断把比较优势转化为发展胜势。市领导刘伟、鹿建平、张英杰、张鹏参加。', '4月23日下午，常书铭一行参观广交会展馆，先后来到大华、晶鹏、喜福来、宏艺、红海等我市玻璃器皿参展企业展位，认真查看企业布展情况和参展产品，与企业负责人交谈，详细询问企业参展感受、订单情况，了解企业产品研发设计、自主品牌建设、智能化转型升级等方面情况。他勉励企业要充分利用好广交会等大型展会平台，及时掌握国内外市场动态，积极对外宣传推介我市产品，进一步拓展国内外市场。要坚持自主创新，注重品牌建设，瞄准产业链、价值链高端加大研发力度，持续在以精细工艺提高产品附加值、促进供给与需求良性互动上下功夫，在以数字技术推动产业升级上求突破，不断提升“晋中制造”的美誉度和知名度。要充分用好国内国际两个市场两种资源，促进内外贸优势相互转化、叠加强化，不断提高我市企业的国际化水平和国际竞争力。', '广州市花都区狮岭镇皮革皮具产业起源于20世纪80年代，经过40余年的发展，已经成为全国皮具箱包产业集聚度最高、产业链最完整、产业配套能力最强的皮具专业镇。4月23日下午，常书铭一行来到狮岭镇中国皮具产业文化创意园和花都（皮革皮具）知识产权快速维权中心，参观产品展示区、设计研发区，详细了解该镇皮具产业规模、研发创新、市场拓展、知识产权保护以及专业镇培育、 特色产业集群建设等情况。他强调，要结合我市产业实际，立足我市特色产业基础，积极借鉴狮岭镇相关经验做法，围绕产业培育、品牌打造、政策扶持、服务保障等方面全链条发力，打破思维定势，创造竞争优势，把学习考察成果转化为晋中专业镇建设的实际行动。', '4月24日上午，常书铭一行来到韶关市城市规划展示馆，了解韶关概览、城市规划建设等情况，听取韶关市历史沿革、产业布局等方面介绍。他指出，要学习借鉴韶关市城市规划的经济思维、生态思维、人文思维、治理思维，更加重视城市规划在城市发展中的重要引领作用，以明天的视野布局今天的城市，把城市发展蓝图融入国家、省重大战略，统筹考虑晋中城市战略定位、空间格局、文化特色等，突出晋中城市功能布局，优化市域生产力空间布局，增强规划的科学性、权威性、严肃性，以高质量规划引领晋中高质量发展。', '韶关市星河生物科技有限公司是广东省农业产业化重点龙头企业，深耕食用菌产业20余年，是专业从事工厂化食用菌研发、生产和销售的现代化高科技农业企业。常书铭一行实地参观公司食用菌工厂化种植模式，了解食用菌生产、研发情况，并就延长食用菌产业链条、做大做强企业等与企业负责人进行了深入交流。常书铭强调，要学习借鉴星河生物科技模式，着眼现代农业发展新需求，用工业化思维谋划农业产业发展，把工业管理模式、组织方式、营销手段、科学技术引入农业生产、加工、流通全过程，在延伸产业链条、加强科技创新、强化要素保障等方面下功夫。要加大与科研院所的合作，致力于农产品研发、精深加工环节，增加我市农产品附加值，提升品牌影响力，加快推动我市农业转型升级。', '华南先进装备产业园是东莞、韶关整合两市资源共建的产业发展新平台，第二轮东莞对口帮扶韶关先进装备制造专业园区扩能增效的主战场，目前已成为珠三角重要的产业拓展地和先进生产力延伸区。常书铭一行认真听取产业园共建机制、运作模式、规划设计和产业链配套等方面的情况介绍，详细了解园区要素保障、基础设施建设和招商引资等工作开展。他强调，华南先进装备产业园在园区模式创新共建共享等方面的实践探索，具有很强的借鉴意义。我们要进一步创新工作方式，拓宽工作思路，把华南先进装备产业园建设的好经验、好做法融入到我市各类园区建设运营、招商引资、项目建设工作中去，整合区域资源，深化共建共享，围绕科技创新、产业发展、资源互通、人才交流等各个方面，不断创新协同发展模式，提升我市园区建设能级和创新成果转化，实现优势互补、长板共赢。', '宝武集团广东中南钢铁股份有限公司是广东省重要的钢铁生产基地，产品涵盖板材、棒材、品种线材以及特钢长材等，广泛应用于汽车、石油化工、机械制造、能源交通、航天航空、核电等行业。常书铭一行参观了公司厂区，深入公司智慧中心、717风度书房，听取公司发展历史、生产经营以及贯彻新发展理念，建设“智慧钢铁、精彩钢铁、人文钢铁”的经验介绍，对宝武中南公司的历史传承、现代化管理、智慧制造、企业文化等印象深刻。常书铭指出，这次到访让我们感受到了“不一样的钢铁”。要借鉴宝武中南公司的经验，把创新摆在产业转型升级的核心位置，坚持高端化、智能化、绿色化发展方向，大力促进新技术、新业态、新模式与传统产业结合，加快我市传统产业转型升级，提升产业发展的层次和竞争力，使传统产业焕发新活力，为晋中经济高质量发展增添新动力。', '考察学习中，常书铭与随行人员一路走一路议，指出要理清楚向先进发达地区学什么，认真学习借鉴发达地区产业发展强劲态势、深度嵌入“双循环”先进理念、数智融合创新举措、敢闯敢拼的干事激情。要弄清楚对标先进怎么学，要吃透弄通省委招商“十二法”，持续提高“引进来”的吸引力，不断提高“走出去”的竞争力，全力以赴抓招商，千方百计引项目，以开放创新的思维、求真务实的作风、扎实有力的举措，开拓晋中高质量发展新赛道。']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>20</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>晋中市供销合作社赴晋城高平市长治武乡县考察学习</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2024-06-18</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>https://gxs.sxjz.gov.cn/gzdt/content_505791</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['为进一步推进党纪学习教育活动引向深入，对标对表省内先进地市工作经验做法，6月13日至14日，晋中市供销合作社党组成员、监事会主任刘文香率队赴高平市供销合作社联合社、武乡县供销合作社联合社考察供销合作社综合改革等工作。市供销社党组成员、理事会副主任李慧明，市社主要业务科室负责人，各县（区、市）供销社主任参加。', '在高平市，考察团队先后到高平市供销超市及米山分店、野川分店和农业生产资料公司考察学习，详细了解了覆盖全市的供销商贸流通体系和“土地银行”农业社会化服务先进经验做法。近年来，高平市供销社以社属企业为依托，通过城关供销社有限责任公司运营管理人民卖场、电子商务公司和15家供销超市及分店，在全市建立起“日用消费品配送中心+乡镇供销超市+村级便民店”的经营网络，在部分乡镇中心社，供销超市还与惠农服务中心、农资超市连并建设，形成“一站式”为农服务平台；通过农业生产资料公司整合土地流转和土地托管，形成“土地银行”新模式，如今服务面积已扩大至30000余亩，有效破解了“谁来种地 地怎么种”的难题，成为了高平市供销社开展农业社会化服务的有力抓手。', '在武乡县，考察团队先后前往武乡县供销社梅杏种植产业园、三里湾种植专业合作社、武乡县农副产品批发市场、城关供销社、故城供销社等地实地参观，考察特色农业发展和商贸流通体系建设。近年来，武乡县供销社大力发展特色农业和农产品加工业，走上了一条产业振兴带动乡村振兴的新路子，“武乡梅杏”“监漳黑花生”和三里湾“石磨面粉”“石碾小米”等农副产品已经成为武乡县规模较大、带动效果较好的农产品品牌，助力百姓增收致富的同时也壮大了供销社社有资产。城区商贸流通体系主要依靠农副产品批发市场、农产日杂公司等，对于晋中市流通网络建设具有借鉴意义。', '刘文香主任指出，此次调研学习，进一步加强了晋中市同晋城市、长治市供销合作社之间的交流合作，促进了经验共享、共同发展。高平市和武乡县都是依托社有企业推进综合改革工作的先进典型，特别是“市基一体化经营”“土地银行”和特色农业发展等工作具有非常强的借鉴意义，各县（区、市）要及时把先进经验学习好借鉴好，因地制宜地发展晋中模式，加快深化供销合作社综合改革，积极寻求当地党委政府支持，努力壮大社有资产、资本，强化项目、资金监督管理。', '随行人员纷纷表示此行收获满满，学到了宝贵经验，拓展了工作思路，在接下来的工作中，要将先进经验做法有机融入晋中供销合作社综合改革工作中，以切实的行动助力供销合作社成为党委政府靠得住、用得上的坚强力量。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>20</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>榆社县组团赴和顺县左权县学习考察脱贫攻坚工作</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2018-12-27</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xxzb1/xxk1248/content_259310</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['县委书记张英杰，县长韩军带领考察团赴和顺县、左权县就脱贫攻坚相关工作进行学习考察。考察团一行先后深入和顺县李阳镇上石勒村、左权县寒王乡鹿鸣村、里长村旱鸭养殖项目基地、石港口村，通过分组入户走访、查看档案资料、召开座谈会等方式，详细了解了两县在脱贫攻坚工作中的做法和成效。张英杰指出', '要以此次学习考察为契机，学习兄弟县的好经验、好做法、好作风，寻找差距、补齐短板，做到活学活用，着力推动']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>20</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>校领导赴扬州市委党校学习考察</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2018-05-15</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>https://swdx.sxjz.gov.cn/xwdt/xyxw/content_261662</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['2018年5月13日至14日，在市委副书记、市委党校校长尹乃明同志带领下，我校常务副校长易仲林和副校长葛晋保同市委办、晋中经济技术开发区、市规管局等部门有关负责同志一行6人组成的晋中市调研考察组，赴扬州市委党校进行了调研考察。', '考察组对扬州市委党校建设及运行管理情况进行了重点考察。此次考察为我校的建设提供了有益借鉴，必将有力推动我校发展。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>20</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>李哲出席重庆市长寿经济技术开发区管委会考察学习座谈会</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2023-08-04</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/bssz/content_471549</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['8月3日，重庆市长寿经济技术开发区党工委委员、管委会副主任殷湖北一行在我市考察学习。市政府党组成员李哲，市审批服务管理局、综改区晋中开发区审批局相关负责人参加座谈。', '殷湖北一行先后来到吉利新能源汽车基地、晋能光伏技术有限公司、综改区晋中开发区审批局、市审批服务管理局，详细了解企业生产经营和发展规划，并就行政审批服务工作理念和经验进行交流学习。', '李哲对重庆市长寿经济技术开发区管委会一行在我市考察学习表示欢迎。他指出，晋中市紧邻省会太原，是山西中部城市群中心区域，农业产品丰富，工业集群集聚，服务业活力充足。希望两地以此次考察学习为契机，加强沟通，建立友谊，常来常往，互相学习，共同发展，推动两地各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>20</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>段燕翔带队学习考察长株潭城市群发展先进经验</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>https://renda.sxjz.gov.cn/rdyw/content_462389</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['为深入贯彻落实党中央关于完善城镇化空间布局、推动城市群一体化发展的决策部署，促进山西中部城市群高质量发展，5月7日至11日，市人大常委会副主任段燕翔带队，赴长沙市、株洲市、湘潭市，就支持和保障城市群高质量发展的先进经验进行学习考察。', '长株潭城市群是全国城市群建设的先行者。学习考察组在长沙市、株洲市、湘潭市分别召开座谈会，就长株潭一体化发展的历程、经验、成效进行了交流学习，重点了解从人大角度推动城市群发展的工作举措和机制。此外，学习考察组还实地调研了长沙文创中心、中国动力谷、城市规划馆等城市发展成果展示，调研了中车集团、蓝思科技、飞翼股份等先进企业。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>20</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>江西省萍乡市发改委来我市学习考察新能源汽车充电基础设施建设</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2018-05-28</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>https://fgw.sxjz.gov.cn/gzdt/content_232376</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['江西省萍乡市发改委来我市学习考察新能源汽车充电基础设施建设_工作动态_晋中市发展和改革委员会', '5月17日，江西萍乡市发改委、经信委等一行6人来我市学习考察新能源汽车充电基础设施建设。考察组一行深入我市瑞达公交公司实地参观公交车停车场及充电基础设施规划布局、建设、使用等。参观后，召开座谈会就新能源汽车发展、充电基础设施发展、两市新能源汽车及充电基础设施的规划建设等内容进行讨论交流。萍乡市一行表示此次考察交流增进了两市了解，特别是在新能源汽车充电基础设施规划建设方面交流了发展理念，借鉴了宝贵经验，为今后充电基础设施发展提供了助力。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>20</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>市委召开山西党政代表团赴安徽陕西学习考察精神传达落实会</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2023-07-25</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/bssz/content_470153</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['7月24日上午，市委召开山西党政代表团赴安徽陕西学习考察精神传达落实会，认真学习皖陕两省宝贵经验，聚焦山西党政代表团赴安徽陕西学习考察小结会部署要求，找准晋中优势长板，逐一对标对表抓落实，切实做好成果转化运用“后半篇文章”。市委书记常书铭作了全面传达，并强调指出，要深入贯彻习近平总书记关于“三新一高”的重要论述精神，全面落实习近平总书记考察调研山西重要讲话重要指示精神，认真学习领会山西党政代表团赴安徽陕西学习考察小结会精神，充分学习借鉴他山之石，围绕中心、聚焦主责，提振精神、提升能力，以“再认识、再梳理、再出发”的状态，以“坐不得、慢不得、等不得”的精气神，奋勇对标一流、学习一流、争创一流，不断开创全市高质量发展和现代化建设新局面。市委副书记、市长刘星，市领导王兵、贡琦、冯晓雷、刘伟、张鹏、张英杰、许利伟、靳润喜、张拥军、梁艳萍、李哲、赵宏钟出席会议。', '常书铭指出，7月18日至21日，山西党政代表团赴安徽、陕西学习考察，先后考察了近20家知名企业、创新基地、科研院所、示范园区等，切身体会到两省“干部敢为、地方敢闯、企业敢干、群众敢首创”的浓厚氛围，学习到两省矢志推动科技创新的前瞻布局、持续加快产业转型的坚定决心、做大做强开放平台的宏阔手笔、始终坚持生态优先的战略定力。全市各级各部门要认真学习贯彻山西党政代表团赴安徽陕西学习考察精神，解放思想、深入思考，深度精准谋划，找准发力点，拿出务实之举、破题之策。重点围绕深化太原晋中一体化融入京津冀协同发展，加快建设阳涉铁路推动交通大通道建设，做好教育与产业、职教与专业镇“两个打通”，加快科技创新，锚定制造业振兴升级主攻方向不放松，擦亮晋商文化品牌促进文旅康养深度融合，攻坚“一泓清水入黄河”强化环境保护和生态治理，积极探路通航产业发展、地热资源开发利用，发挥国家农高区作用引领现代高效农业，充分发挥比较优势等方面，着眼当前、立足长远，深度谋划，形成可操作、可落实的行动方案和具体举措。', '就我市贯彻落实好本次学习考察特别是省委书记蓝佛安总结讲话精神，常书铭强调，全市上下要强化“长板思维”，紧扣晋中比较优势深耕不辍、久久为功，积厚成器、扬优成势。要高标准建设晋中国家农高区。始终心怀“国之大者”、服务国家战略，围绕习近平总书记赋予我们有机旱作农业和“特”“优”农业的重大使命，积极对标杨凌国家农高区，聚焦农业科技创新和深化农村改革重大任务，在创新优化建设运营体制机制中不断破题破局，在落实“藏粮于地、藏粮于技”和种子安全国家战略上作出贡献，为全省乃至全国建设现代高效农业发挥示范、带动、辐射作用。要依托晋中开发区主战场推动制造业振兴升级。以实体经济为主体，方向不偏、焦点不变、靶向不散，走出一条“工业立市、产业兴市、制造业强市”之路。要立足现实、对标先进、借梯登高梳理发展目标，把准政策方向、产业导向，狠抓传统产业改造升级和战略性新兴产业培育壮大，狠抓头部企业布局和“专精特新”企业培育，补强产业链薄弱环节，加快构建多点支撑的制造业高质量发展格局。要擦亮晋商故里和国际知名文化旅游目的地品牌。邀请国家级团队策划，高起点谋划、大手笔打造，持续挖掘晋商文化、晋商精神内涵，持续打造独具晋商特色的文化IP，持续提升旅游接待能力和服务水平，聚力打造山西国际知名文化旅游目的地第一站，让四方游客“爱上晋中”，形成特色聚集、人流聚集、消费聚集、产业升级的文旅产业新局面。要强化大学城和职教港科教人才支撑。加强与高校合作，充分发挥我市高端人才汇集、科技成果聚集的独特资源优势，加快推进教育与产业、职教与专业镇“两个打通”，强化政产学研对接，推动更多科技成果在晋中转化、落地，在科技创新上争当全省排头兵。要加快推进城市群城市核和太晋一体化发展。高站位主动融入京津冀协同发展战略，坚持规划先行，进一步梳理和明确城市群城市核和太晋一体化发展的规划衔接、交通网络、产业布局等，加快建设宜居宜业宜游城市，提升城市形象，打造城市品牌。树牢太原晋中一体化意识、城市群城市核意识、省域副中心意识，以开放的视野和改革的魄力，做好京津冀地区人流、资金流、信息流、物流的承接，在产业层级、项目层级、人才层级、城市更新层级、公共服务层级上不断跃升。', '常书铭强调，要用好用足调查研究这一传家宝，扎实开展市级领导领题的大调研活动，从调研中摸清底数、发现问题、提出对策。要始终统筹好发展和安全，树牢正确政绩观，以“时时放心不下”的责任感和“风险就是事故”的危机感，高度重视防风险保安全工作，全面抓好安全生产和信访维稳、耕地保护、生态环保、舆情处置等工作，全力守好安全稳定底线。要扎实做好经济运行各项工作，一方面要持续抓好重大项目建设，高标准谋划建设一批重大基础设施项目、新基建项目、产业转型项目；另一方面要创新招商引资工作，打造市场化、法治化、国际化一流营商环境，激活经济增长内生力。要突出抓好党建引领。常态化开展抓党建促基层治理能力提升专项行动，市县乡村四级体系一齐抓，系统夯实党的建设和基层治理。要深入推进党风廉政建设工作，教育各级领导干部牢记“清廉是福、贪欲是祸”，守好廉洁底线。要深入开展“双百双创”，把纪检和组织“双轮驱动”一体贯通，激励干部担当作为，提振干部精气神，打造打硬仗的干部铁军，涵养打胜仗的能力水平，奋力开创全市各项事业发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>20</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>市委召开山西党政代表团赴安徽陕西学习考察精神传达落实会</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2023-07-26</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>https://wlj.sxjz.gov.cn/gzdt/content_470444</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['市委召开山西党政代表团赴安徽陕西学习考察精神传达落实会_工作动态_\u200b晋中市文化和旅游局', '7月24日上午，市委召开山西党政代表团赴安徽陕西学习考察精神传达落实会，认真学习皖陕两省宝贵经验，聚焦山西党政代表团赴安徽陕西学习考察小结会部署要求，找准晋中优势长板，逐一对标对表抓落实，切实做好成果转化运用“后半篇文章”。市委书记常书铭作了全面传达，并强调指出，要深入贯彻习近平总书记关于“三新一高”的重要论述精神，全面落实习近平总书记考察调研山西重要讲话重要指示精神，认真学习领会山西党政代表团赴安徽陕西学习考察小结会精神，充分学习借鉴他山之石，围绕中心、聚焦主责，提振精神、提升能力，以“再认识、再梳理、再出发”的状态，以“坐不得、慢不得、等不得”的精气神，奋勇对标一流、学习一流、争创一流，不断开创全市高质量发展和现代化建设新局面。市委副书记、市长刘星，市领导王兵、贡琦、冯晓雷、刘伟、张鹏、张英杰、许利伟、靳润喜、张拥军、梁艳萍、李哲、赵宏钟出席会议。', '常书铭指出，7月18日至21日，山西党政代表团赴安徽、陕西学习考察，先后考察了近20家知名企业、创新基地、科研院所、示范园区等，切身体会到两省“干部敢为、地方敢闯、企业敢干、群众敢首创”的浓厚氛围，学习到两省矢志推动科技创新的前瞻布局、持续加快产业转型的坚定决心、做大做强开放平台的宏阔手笔、始终坚持生态优先的战略定力。全市各级各部门要认真学习贯彻山西党政代表团赴安徽陕西学习考察精神，解放思想、深入思考，深度精准谋划，找准发力点，拿出务实之举、破题之策。重点围绕深化太原晋中一体化融入京津冀协同发展，加快建设阳涉铁路推动交通大通道建设，做好教育与产业、职教与专业镇“两个打通”，加快科技创新，锚定制造业振兴升级主攻方向不放松，擦亮晋商文化品牌促进文旅康养深度融合，攻坚“一泓清水入黄河”强化环境保护和生态治理，积极探路通航产业发展、地热资源开发利用，发挥国家农高区作用引领现代高效农业，充分发挥比较优势等方面，着眼当前、立足长远，深度谋划，形成可操作、可落实的行动方案和具体举措。', '就我市贯彻落实好本次学习考察特别是省委书记蓝佛安总结讲话精神，常书铭强调，全市上下要强化“长板思维”，紧扣晋中比较优势深耕不辍、久久为功，积厚成器、扬优成势。要高标准建设晋中国家农高区。始终心怀“国之大者”、服务国家战略，围绕习近平总书记赋予我们有机旱作农业和“特”“优”农业的重大使命，积极对标杨凌国家农高区，聚焦农业科技创新和深化农村改革重大任务，在创新优化建设运营体制机制中不断破题破局，在落实“藏粮于地、藏粮于技”和种子安全国家战略上作出贡献，为全省乃至全国建设现代高效农业发挥示范、带动、辐射作用。要依托晋中开发区主战场推动制造业振兴升级。以实体经济为主体，方向不偏、焦点不变、靶向不散，走出一条“工业立市、产业兴市、制造业强市”之路。要立足现实、对标先进、借梯登高梳理发展目标，把准政策方向、产业导向，狠抓传统产业改造升级和战略性新兴产业培育壮大，狠抓头部企业布局和“专精特新”企业培育，补强产业链薄弱环节，加快构建多点支撑的制造业高质量发展格局。要擦亮晋商故里和国际知名文化旅游目的地品牌。邀请国家级团队策划，高起点谋划、大手笔打造，持续挖掘晋商文化、晋商精神内涵，持续打造独具晋商特色的文化IP，持续提升旅游接待能力和服务水平，聚力打造山西国际知名文化旅游目的地第一站，让四方游客“爱上晋中”，形成特色聚集、人流聚集、消费聚集、产业升级的文旅产业新局面。要强化大学城和职教港科教人才支撑。加强与高校合作，充分发挥我市高端人才汇集、科技成果聚集的独特资源优势，加快推进教育与产业、职教与专业镇“两个打通”，强化政产学研对接，推动更多科技成果在晋中转化、落地，在科技创新上争当全省排头兵。要加快推进城市群城市核和太晋一体化发展。高站位主动融入京津冀协同发展战略，坚持规划先行，进一步梳理和明确城市群城市核和太晋一体化发展的规划衔接、交通网络、产业布局等，加快建设宜居宜业宜游城市，提升城市形象，打造城市品牌。树牢太原晋中一体化意识、城市群城市核意识、省域副中心意识，以开放的视野和改革的魄力，做好京津冀地区人流、资金流、信息流、物流的承接，在产业层级、项目层级、人才层级、城市更新层级、公共服务层级上不断跃升。', '常书铭强调，要用好用足调查研究这一传家宝，扎实开展市级领导领题的大调研活动，从调研中摸清底数、发现问题、提出对策。要始终统筹好发展和安全，树牢正确政绩观，以“时时放心不下”的责任感和“风险就是事故”的危机感，高度重视防风险保安全工作，全面抓好安全生产和信访维稳、耕地保护、生态环保、舆情处置等工作，全力守好安全稳定底线。要扎实做好经济运行各项工作，一方面要持续抓好重大项目建设，高标准谋划建设一批重大基础设施项目、新基建项目、产业转型项目；另一方面要创新招商引资工作，打造市场化、法治化、国际化一流营商环境，激活经济增长内生力。要突出抓好党建引领。常态化开展抓党建促基层治理能力提升专项行动，市县乡村四级体系一齐抓，系统夯实党的建设和基层治理。要深入推进党风廉政建设工作，教育各级领导干部牢记“清廉是福、贪欲是祸”，守好廉洁底线。要深入开展“双百双创”，把纪检和组织“双轮驱动”一体贯通，激励干部担当作为，提振干部精气神，打造打硬仗的干部铁军，涵养打胜仗的能力水平，奋力开创全市各项事业发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>20</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>介休市对标一流考察学习城市党建以实际行动贯彻意见</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2019-05-24</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xxzb1/xxk1248/content_277411</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['介休市委组织部立即掀起学习贯彻热潮，并于近日组织各街道党工委书记、党建办主任以及城管执法局、网格中心等单位相关工作人员，赴北京市东城区、太原市杏花岭区和迎泽区等地进行对标一流考察学习。', '“街乡吹哨、部门报到”是北京市推进党建引领基层治理体制机制创新的成功探索。在北京，考察团先后参观考察了东城区网格中心、东直门街道街区政务服务站和龙潭街道。东城区全力构建“党建引领、街道吹哨、部门报到、群众满意”的工作机制，充分发挥网格化管理体系的作用，对“街道吹哨、部门报到”工作进行全过程监督和考核，实现了“民有所呼、我有所应”；龙潭街道首创的“小巷管家”工作模式引起了大家的浓厚兴趣，目前该街道共招募“小巷管家”147人，成立“小巷管家团”9支，与社区专员制度、街巷长制度三位一体，按照“巡、访、做、报、记、刷”六字工作法，打通了服务群众“最后一公里”。', '在太原，考察团到杏花岭区域党群服务中心、迎泽街道和解放南路二社区参观学习。打造了全省首个区域党群服务中心——杏花岭区域党群服务中心的杏花岭区，提出以“党建引领、区域联动、服务集约、治理创新”为核心的区域党群服务中心建设理念，服务功能集党建、政务、服务、活动为一体，让人耳目一新；迎泽街道的“服务群众工作信息平台”，以互联网+政务服务的模式，让信息多跑路、群众少跑腿，让居民拥有更多的获得感和幸福感。', '通过学习观摩，大家开阔了眼界，拓宽了思路，看到了差距，找到了不足，也为介休市对标城市基层党建先进经验，进一步推进城市基层党建和社会治理创新，助力打造全省最美丽最宜居县级城市提供了良好的借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>20</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>晋中市太谷平遥县乡村三农干部赴浙江省湖州市进行考察学习</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2018-05-09</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/xdny/content_303338</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['晋中市太谷平遥县、乡、村三农干部赴浙江省湖州市进行考察学习_现代农业_晋中市农业农村局', '为了学习借鉴先进地区实施乡村振兴战略的经验，不断拓宽我市三农干部的视野和思路，早日实现市委，市政府提出“争创乡村振兴示范市”的宏伟目标。5月3日至7日，由市农委总农艺师肖虎善带领我市太谷平遥县、乡、村三农干部考察团赴浙江省湖州市就乡村振兴进行专题考察，学习借鉴湖州市建设生态文明、实施乡村振兴战略的思路做法，对标先进、问计取经、拓宽思路、以学促干。两县的分管副县长、农委主任、住建局长、旅发委主任及示范乡镇、示范村主要负责人共计45人参加考察。', '湖州市是“两山”理念的发源地，十几年来，该市坚定不移践行习近平总书记在湖州提出的“绿水青山就是金山银山”重要思想 ，坚持将全域建设生态文明先行示范区作为全面加强生态文明建设的重要载体，以理念引领为先导，以环境改善为基础，以绿色发展为根本，以文化培植为支撑，以制度建设为保障，有力推动了生态文明先行示范区建设，2014年入选首批国家生态文明建设示范市，成为全国首个地市级生态文明先行示范区，走出了一条生态美、产业兴、百姓富的可持续发展路子，探索形成了共建生态文明、共享美好生活的新局面。', '五天来，考察团马不停蹄、日夜兼程，先后深入湖州市两县一区共计13个村或产业园区考察学习。在安吉县，考察团先后考察了天荒坪镇余村（两山思想发源地），灵峰街道横山坞村（美丽乡村示范村），递铺街道鲁家村（国家级田园综合体试点），溪龙乡白茶主导产业示范园（一二三产业融合发展），山川乡马家弄村（美丽乡村示范村）；在德清县，考察团参观了钟管镇沈家顿村（农村新社区、基层党建治理），德清农耕博物馆、中国美丽乡村讲习所（德清县美丽乡村建设总结），下渚湖街道二都小镇（小城镇综合整治），阜溪街道五四村（农村环境整治、土地制度改革），莫干山镇燎原村（休闲农业产业和民宿经济发展），洛社镇东衡村（中国钢琴第一村、村集体经济发展、农村社区管理、乡村治理）；在吴兴区，考察团又深入“浙江首个”及“全国唯一”省级旅游产业集聚区水口乡“上海村”的休闲农业产业和农家乐发展经验学习取经。每到一处，大家都认真听、仔细看、不时问，实地感受新型乡村之美、乡风文明之美，并与村干部交流探讨，详细了解美丽乡村建设、基层党建引领、产业融合发展、人居环境改善、土地制度改革等方面的成功经验。期间，考察团还与当地相关部门负责人和有关专家进行座谈，就美丽乡村建设和乡村振兴推进中各方面具体问题进行互动交流。', '考察中，德清县农办主任王国树、安吉县农办副主任仁强军分别为考察团做了题为“以城乡统筹为引领，推进美丽乡村建设，”“践行两山思想，建设美丽乡村，统筹城乡发展，实现美丽乡村”的精彩讲座，重点围绕两个县多年来开展美丽乡村的顶层设计，建设内容，实践阶段，建设效果，成功经验，注意事项等六方面的问题给大家进行传授，并结合他们长期在建设美丽乡村，发展美丽经济的丰富经验与大家一起互动，为我市顺利开展乡村振兴战略的实施提供了有效的实践经验，确保争创乡村振兴示范市有序有力有效推进。', '为把考察学到的成果转化为实践的力量，两个县的带队领导抢抓一切时间，晚上加班加点，及时分别召开了座谈会，将自己的所思所想、所得所获与大家分享，引导乡村干部在思维碰撞中统一思想、深化认识，在研究分析中完善思路、创新举措，在对照比较中激发干劲、催生斗志。特别是太谷县副县长石俊杰把他几天来的感受和体会与大家交流，他指出，作为示范县的太谷三农干部，在乡村振兴战略实施中如何大显神手，必须自加压力，超常发挥，要学思践悟，认真把这次学到的经验迅速落实到行动，具体从顶层设计，规划引领；狠下决心，夯实基础；典型示范，全面推进；党建引领，全民参与；产业支撑，拓展业态；集体经济，创新机制；多方筹资，项目整合；综合整治，六化四改；文明治理，德治先行；完善体系，明确标准；实现文明，生活幸福等十个方面取得突破！真正把太谷县的乡村振兴工作走在全市乃至全省，全国的前列！', '肖虎善总农艺师在参加两县的座谈会中，他指出，要进一步解放思想、转变观念，让乡村振兴战略真正深入人心。要充分发挥农民主体作用，尊重农民意愿，调动和发挥好他们的积极性，把湖州市15年美丽乡村建设的经验转化为晋中实施乡村振兴的3年行动计划，统筹协调，确保我市乡村振兴取得实质性突破。他山之石，可以攻玉。全程的考察中，大家始终保持着振奋昂扬的精神状态，看浙江、说太谷，谈平遥，表示回去后要用足用活学习考察成果，立足各自实际，努力把浙江的好思路、好做法、好经验晋中化、太谷化、平遥化，运用好、落实好，在争创乡村振兴示范市的实践中迅速行动、尽快见效.', '他山之石，可以攻玉。全程的考察中，大家始终保持着振奋昂扬的精神状态，看浙江、说太谷，谈平遥，表示回去后要用足用活学习考察成果，立足各自实际，努力把浙江的好思路、好做法、好经验晋中化、太谷化、平遥化，运用好、落实好，在争创乡村振兴示范市的实践中迅速行动、尽快见效.']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>20</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>刘荣局长赴南京江宁区国土局考察学习</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2018-05-23</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>https://ghhzrzyj.sxjz.gov.cn/gzdt/content_231954</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['2018年5月17日和18日，晋中市国土资源局开发区土地分局刘荣局长陪同开发区管委会刘国华委员、规划局局长等一行赴南京江宁区国土局考察学习，受到江宁区管委会吴副主任，规划国土局同志的热情接待。江宁区规划国土局相关同志详细介绍了江宁区近几年来在土地利用方面做的改革举措，特别是低效土地开发再利用方面一些做法和经验，给我区盘活低效利用土地，提高节约集约利用水平提供了很多新的思路。会后，一行人又', '晋中市国土资源局开发区土地分局 刘荣局长一行前往成都市龙泉驿区 国土资源局进行工作调研']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>20</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>晋中市太谷平遥县乡村三农干部赴浙江省湖州市进行考察学习</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2018-05-08</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/xxgk/fdzdgknr/gzdt31nw/content_67983</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['晋中市太谷平遥县、乡、村三农干部赴浙江省湖州市进行考察学习_工作动态_法定主动公开内容_政府信息公开_晋中市农业农村局', '为了学习借鉴先进地区实施乡村振兴战略的经验，不断拓宽我市三农干部的视野和思路，早日实现市委，市政府提出“争创乡村振兴示范市”的宏伟目标。5月3日至7日，由市农委总农艺师肖虎善带领我市太谷平遥县、乡、村三农干部考察团赴浙江省湖州市就乡村振兴进行专题考察，学习借鉴湖州市建设生态文明、实施乡村振兴战略的思路做法，对标先进、问计取经、拓宽思路、以学促干。两县的分管副县长、农委主任、住建局长、旅发委主任及示范乡镇、示范村主要负责人共计45人参加考察。', '湖州市是“两山”理念的发源地，十几年来，该市坚定不移践行习近平总书记在湖州提出的“绿水青山就是金山银山”重要思想 ，坚持将全域建设生态文明先行示范区作为全面加强生态文明建设的重要载体，以理念引领为先导，以环境改善为基础，以绿色发展为根本，以文化培植为支撑，以制度建设为保障，有力推动了生态文明先行示范区建设，2014年入选首批国家生态文明建设示范市，成为全国首个地市级生态文明先行示范区，走出了一条生态美、产业兴、百姓富的可持续发展路子，探索形成了共建生态文明、共享美好生活的新局面。', '五天来，考察团马不停蹄、日夜兼程，先后深入湖州市两县一区共计13个村或产业园区考察学习。在安吉县，考察团先后考察了天荒坪镇余村（两山思想发源地），灵峰街道横山坞村（美丽乡村示范村），递铺街道鲁家村（国家级田园综合体试点），溪龙乡白茶主导产业示范园（一二三产业融合发展），山川乡马家弄村（美丽乡村示范村）；在德清县，考察团参观了钟管镇沈家顿村（农村新社区、基层党建治理），德清农耕博物馆、中国美丽乡村讲习所（德清县美丽乡村建设总结），下渚湖街道二都小镇（小城镇综合整治），阜溪街道五四村（农村环境整治、土地制度改革），莫干山镇燎原村（休闲农业产业和民宿经济发展），洛社镇东衡村（中国钢琴第一村、村集体经济发展、农村社区管理、乡村治理）；在吴兴区，考察团又深入“浙江首个”及“全国唯一”省级旅游产业集聚区水口乡“上海村”的休闲农业产业和农家乐发展经验学习取经。每到一处，大家都认真听、仔细看、不时问，实地感受新型乡村之美、乡风文明之美，并与村干部交流探讨，详细了解美丽乡村建设、基层党建引领、产业融合发展、人居环境改善、土地制度改革等方面的成功经验。期间，考察团还与当地相关部门负责人和有关专家进行座谈，就美丽乡村建设和乡村振兴推进中各方面具体问题进行互动交流。', '考察中，德清县农办主任王国树、安吉县农办副主任仁强军分别为考察团做了题为“以城乡统筹为引领，推进美丽乡村建设，”“践行两山思想，建设美丽乡村，统筹城乡发展，实现美丽乡村”的精彩讲座，重点围绕两个县多年来开展美丽乡村的顶层设计，建设内容，实践阶段，建设效果，成功经验，注意事项等六方面的问题给大家进行传授，并结合他们长期在建设美丽乡村，发展美丽经济的丰富经验与大家一起互动，为我市顺利开展乡村振兴战略的实施提供了有效的实践经验，确保争创乡村振兴示范市有序有力有效推进。', '为把考察学到的成果转化为实践的力量，两个县的带队领导抢抓一切时间，晚上加班加点，及时分别召开了座谈会，将自己的所思所想、所得所获与大家分享，引导乡村干部在思维碰撞中统一思想、深化认识，在研究分析中完善思路、创新举措，在对照比较中激发干劲、催生斗志。特别是太谷县副县长石俊杰把他几天来的感受和体会与大家交流，他指出，作为示范县的太谷三农干部，在乡村振兴战略实施中如何大显神手，必须自加压力，超常发挥，要学思践悟，认真把这次学到的经验迅速落实到行动，具体从顶层设计，规划引领；狠下决心，夯实基础；典型示范，全面推进；党建引领，全民参与；产业支撑，拓展业态；集体经济，创新机制；多方筹资，项目整合；综合整治，六化四改；文明治理，德治先行；完善体系，明确标准；实现文明，生活幸福等十个方面取得突破！真正把太谷县的乡村振兴工作走在全市乃至全省，全国的前列！', '肖虎善总农艺师在参加两县的座谈会中，他指出，要进一步解放思想、转变观念，让乡村振兴战略真正深入人心。要充分发挥农民主体作用，尊重农民意愿，调动和发挥好他们的积极性，把湖州市15年美丽乡村建设的经验转化为晋中实施乡村振兴的3年行动计划，统筹协调，确保我市乡村振兴取得实质性突破。他山之石，可以攻玉。全程的考察中，大家始终保持着振奋昂扬的精神状态，看浙江、说太谷，谈平遥，表示回去后要用足用活学习考察成果，立足各自实际，努力把浙江的好思路、好做法、好经验晋中化、太谷化、平遥化，运用好、落实好，在争创乡村振兴示范市的实践中迅速行动、尽快见效.', '他山之石，可以攻玉。全程的考察中，大家始终保持着振奋昂扬的精神状态，看浙江、说太谷，谈平遥，表示回去后要用足用活学习考察成果，立足各自实际，努力把浙江的好思路、好做法、好经验晋中化、太谷化、平遥化，运用好、落实好，在争创乡村振兴示范市的实践中迅速行动、尽快见效.']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>20</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>晋中市商务局积极参加河南自由贸易区的考察学习活动</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>https://swj.sxjz.gov.cn/gzdt/content_461815</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['4月25-28日，在省厅的统一安排部署下，晋中市商务局党组成员、贸促会刘学军会长带队，晋中开发区、晋中农高区相关部门负责人共16人，赴河南自贸区郑州片区、开封片区开展考察学习。', '下一步，我们要把此次考察学习成果转化为全市自贸区片区发展的具体举措，以晋中开发区和太谷农高区为主战场，围绕全省自贸区的建设方针、要求，抓紧抓实自贸区片区的推进工作。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>20</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>刘星赴长三角地区开展招商推介洽谈和学习考察</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2023-11-08</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/bssz/content_482111</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['刘星赴长三角地区开展招商推介洽谈和学习考察 深化交流合作 加快创新发展 汇聚高质量发展强劲动能', '11月4日、5日，在参加第六届中国国际进口博览会期间，市委副书记、市长刘星赴长三角地区开展招商推介洽谈和学习考察活动，实地感受长三角地区蓬勃发展的强劲势头，大力推介晋中合作发展优势。他强调，要深入学习贯彻习近平总书记对山西工作的重要讲话重要指示精神，认真落实省委、省政府决策部署，解放思想，开拓创新，充分运用进博会等国际化窗口平台，更好服务融入新发展格局，广泛开展交流合作，持续扩大招商“朋友圈”，对标先进借力赋能，加快创新发展，为全市高质量发展注入新动力新活力。', '与先进地区深化合作，赋能晋中创新发展是刘星此次招商洽谈和学习考察的重点。在浙江省杭州市，上海市，刘星深入杭州百诚医药科技股份有限公司、浙江诺尔康神经电子科技股份有限公司、上海凯创生物技术有限公司，详细了解企业医疗技术研发、医疗电子器械、技术创新等情况。他指出，晋中区位条件优越，现代医药产业是晋中重点发展的战略性新兴产业之一，医药产业发展有良好基础和特色优势，特别是山西大学城创新要素集聚，与晋中开展合作前景广阔、潜力巨大。希望企业充分发挥在医药创新、研发技术和国际市场拓展方面的独特优势，挖掘合作潜力，深度参与晋中现代医药产业集群建设，促进产学研用深度融合和创新成果转化，提升医疗装备产业韧性和现代化水平。在杭州西奥电梯有限公司，刘星实地参观行政楼展示厅、智能化服务系统、智能制造指挥中心等，与企业负责人深入交流，他说，制造业是晋中产业转型的主攻方向，希望双方围绕智能制造、智慧生活等方面深化对接交流、推进务实合作，携手推动晋中加快制造业转型升级和新型工业化步伐。在海康威视，刘星听取企业在物联感知、人工智能、大数据等方面的介绍，他指出，海康威视拥有先进创新设备设施及成熟的技术方案，希望海康威视充分发挥自身优势，加快科研成果转化落地，在数字化改革、物联网建设方面增进交流合作，用数字技术赋能晋中高质量发展。', '实地调研中，刘星推介我市资源禀赋、招商优势、产业布局、营商环境，诚邀企业到晋中实地考察、洽谈合作，拓展新业务、布局新项目。希望企业积极对接晋中发展需求，加大创新研发投入，面向新材料、现代医药、大数据等领域拓展更多合作场景，参与产业补链延链强链，推动制造业振兴升级，更好助力中国式现代化晋中实践。晋中市将持续优化营商环境，全力为企业发展提供优质服务，促进合作共赢。', '刘星在国网晋中供电公司调研时强调 全面深入融入全市发展大局 在服务保障中作出更大贡献']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>20</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>全市检察机关未检工作负责人赴四川学习考察</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2018-04-27</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xxzb1/xxk1248/content_228999</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['4月16日至20日，市院刑事检察五部赵伟部长带领11个县、区院分管未检工作的副检察长和未检业务负责人共22人，远赴四川省成都市、泸州市检察院及部分基层检察院进行为期五天的学习考察，旨在学习试点单位未成年人刑事执行检察、民事执行检察业务集中统一办理工作经验，提高我市未检干警开展新时代未检工作的能力和水平，加强我市未成年人法治教育基地建设和继续推动社会观护基地的建设，进一步推动我市未成年人法治教育和观护工作的规范化、制度化。', '学习期间，考察组一行先后与成都市、泸州市及部分基层检察院进行了未检工作座谈，参观了成都市武侯区检察院未检办案区、武侯“星火”团队青少年违法犯罪数据分析平台及VR模拟法庭、成都市中小学法治体验馆、泸州市纳溪区检察院“纳爱”基地及新乐小学“纳爱”普法特色点、泸州市叙永县检察院未成年人成长护航中心“永宁港湾”，观看了法治微电影、“纳爱”工作微记录片、未检工作职能职责展板、未检工作画册、未检法治宣传手册、被附条件不起诉人跟踪帮教“五色”档案等。大家充分学习了成都市、泸州市未检办案团队在未检专属办案区建设、未成年人法治教育基地和观护基地建设、涉案未成年人社会化支持体系、未成年人刑事执行检察、民事执行检察业务集中统一办理等方面的先进工作经验，并认识到了我市未检工作存在的不足和差距。', '学习期间，考察组一行先后与成都市、泸州市及部分基层检察院进行了未检工作座谈，参观了成都市武侯区检察院未检办案区、武侯', '考察结束后，市院刑事检察五部认真分析并借鉴试点单位的先进工作经验和做法，结合我市各基层院未检工作实际，对各基层院未检工作提出要求：', '尽快建立适合未成年人身心特点的未检专属办案区，设置心理宣泄室、心理疏导室、心理测评室、沙盘游戏室、司法听证室、宣告室等特色办案场所；', '加强与当地共青团组织、教育局、司法局、学校、企业的合作，尽快启动建立一批有地方特色、高水准的法治教育基地或观护基地，推动我市未检工作走上新台阶；', '加强与综治、民政、教育、关工委、妇联、共青团、社会团体的联系配合，积极培育和引入未成年人司法社工，探索未成年人社会化支持体系建设；', '加强与学校、新闻媒体的配合，开展形式多样、体验式、常态化的“法治进校园”系列活动，综合运用传统媒体和“两微一端”等新媒体平台，加强我市未检工作宣传力度；', '加强未检队伍建设，尽快明确专人办案，注重未检品牌建设，着力打造具有晋中特色的优秀“未检”团队。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>20</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>河南省汝州市农业农村局来我市考察学习农业生产托管工作</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2021-03-12</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/gzdt/content_360547</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['2021年3月11日，河南省汝州市农业农村局副局长郭丽芳带队的一行6人赴我市寿阳县考察学习农业生产托管工作，寿阳县农村事务管理中心主任王爱保陪同。', '寿阳县农村事务管理中心主任王爱保对我市寿阳县的农业生产托管工作进行了介绍，寿阳县连续承担了山西省农业生产托管服务试点项目任务，四年得到扶持资金2420万元，全域推行农业生产托管，创造出"四级联动抓落实、双向选择促托管"的寿阳模式。', '考察团一行首先来到寿阳县嘉禾农业科技有限公司，嘉禾总经理刘玉柱对公司的发展历程、经营模式和实施效果进行了介绍，该公司在寿阳县实行跨乡镇跨村整体打包连片开发，实现了玉米大田作物规模化、机械化、现代化、智能化生产，农民、村集体和公司三方受益，探索出了种植和管理的新模式。一行人又在会议室观看了公司的农业生产托管宣传片并前往久田牧业进行了参观。', '考察组一行又深入到南燕竹镇的寿阳县金穗种植专业合作社，合作社负责人贾永珍对该社的全托管和半托管两种模式进行了介绍，并现场翻看了农业生产托管资料。', '考察团对我市的农业生产托管工作给予了充分肯定，这次考察学习，对我市的工作既是交流，又是促进，必将有效推进我市农业生产托管工作进入一个新的阶段。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>20</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>太谷县交通运输局局长到榆次区考察学习养护提质工程</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2018-08-23</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>https://jtj.sxjz.gov.cn/xxgk/fdzdgknr/gzdtjtj/gzdt18jtj/content_80204</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['太谷县交通运输局局长到榆次区 考察学习养护提质工程_工作动态_工作动态_法定主动公开内容_政府信息公开_晋中市交通运输局', '8月22日上午，太谷县交通运输局局长、分管养护工作的副局长、公路所所长、养护公司经理等人员一同到榆次区考察学习，在榆次区交通运输局相关人员的陪同下，我局人员参观了榆次区两条县乡道，考察了路肩和排水沟新项目，学习了其养护提质工程的先进经验和做法。', '养护提质工程是改善乡村道路，改善人居环境的惠民项目，我局今年实施的养护提质工程共30个建设项目建设里程137公里。如果将这次考察学习的先进经验和先进做法运用到养护提质工程中，不仅养护提质工程质量有所提升，排水设施更加完善，而且大大美化乡村道路环境，为打造美丽乡村打下坚实的基础。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>20</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>市县组团赴岢岚学习考察红芸豆特色产业扶贫工作</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2019-04-29</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/xxgk/fdzdgknr/gzdt31nw/content_104553</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['市县组团赴岢岚学习考察红芸豆特色产业扶贫工作_工作动态_法定主动公开内容_政府信息公开_晋中市农业农村局', '为进一步夯实榆社县特色产业扶贫工作基础，助推贫困农户实现稳定脱贫，4月25日，按照市委、市政府领导安排，我局由局党组成员、总农艺师肖虎善带队，率市、榆社县农业农村局相关专业技术人员赴忻州市岢岚县，就红芸豆特色产业生产发展、加工流通、市场销售等情况进行了学习考察，与岢岚县农业农村局相关领导、专业技术人员进行了工作座谈，并深入山西炜岚工贸有限公司、岢岚县电商公共服务中心进行实地考察学习。通过一天时间的学习考察，考察组对岢岚县发展红芸豆特色产业，助推县域经济发展和农民增收致富有了进一步的了解，结合榆社县气候资源禀赋和产业脱贫实际情况，从生产技术、经济效益、劳动强度、市场销售等四个角度提出了分析评价意见，并就下一步榆社县推进红芸豆特色产业发展提出了工作建议。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>20</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>张咸雨副主任带队赴四川省考察学习现代农业产业扶贫工作</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2017-12-04</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/xxgk/fdzdgknr/gzdt31nw/content_48938</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['张咸雨副主任带队赴四川省考察学习现代农业、产业扶贫工作_工作动态_法定主动公开内容_政府信息公开_晋中市农业农村局', '为了学习借鉴发达地区推动现代农业、产业扶贫发展的好经验、好做法，拓展农业干部的思路和视野，11月27日-30日，市农委副主任张咸雨带领市农委有关科室负责人和榆次、太谷、祁县、平遥四县农委有关负责人组成的考察团赴四川省成都市、南充市考察学习现代农业发展和产业扶贫创新工作。', '为了学习借鉴发达地区推动现代农业、产业扶贫发展的好经验、好做法，拓展农业干部的思路和视野，', '11月28日考察团对成都市崇州市隆兴镇杨柳土地股份合作社、崇州市农业综合服务中心、崇州市白头镇五星土地股份合作社、崇州市土而奇禽业合作社、', '、崇州市林业综合服务总部进行了实地考察。通过现场讲解、实地观摩和现场经验交流，深入了解了成都市崇州市新型农业经营体系建设发展的先进模式，对其中的构建土地股份合作社', '难题，给予了高度评价，要求考察团成员要学习借鉴崇州市的好经验和好做法，积极转变农业发展方式，发展粮食适度规模经营，推动我市农业转型升级取得成效。', '考察团一行于11月29日对南充市进行了实地考察。考察组在当地农业部门有关人员的引领下，先后听取了他们发展现代农业和产业扶贫的工作经验', '参观了南充市顺庆区搬罾镇锦绣田园、顺庆区尚好桑茶有限公司、顺庆区中国绸都丝绸博物馆、嘉陵区国家农业产业化龙头企业', '天兆猪业核心区、嘉陵区万亩柑橘示范基地等。张咸雨指出，南充走出了发展现代农业的新路子，其做法与经验值得推广借鉴，科技是第一生产力，晋中要学习南充经验，引入现代科技发展现代农业，通过科技手段，不断提高农产品的产量和附加值；要借鉴成功经验，加快我市传统农业改造升级，大力发展旅游观光农业，真正实现助农增收。', '通过对成都市、南充市考察学习，直观的了解了兄弟地市在现代农业发展和产业扶贫创新方面成功经验和做法。我市要学习成都、南充经验，充分发挥龙头企业和新型农业经营主体在现代农业发展中的支撑带动作用，大力引导农民参与到发展特色产业中来，让产业规模更大、产业链条更长、贫困户参与更深、产品开发更精、发展持续性更强，增强发展的内生动力，全力推动我市现代农业示范区又好又快发展，确保贫困群众尽早实现长期稳定脱贫。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>20</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>平遥县交通运输局开展改革创新奋发有为大讨论对标一流考察学习</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2019-04-03</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>https://jtj.sxjz.gov.cn/gzdt/content_268998</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['平遥县交通运输局开展“改革创新 奋发有为”大讨论对标一流考察学习_工作动态_晋中市交通运输局', '初春三月，春意阑珊，乍暖还寒。为进一步推进“改革创新、 奋发有为”大讨论走向深入，激励全局干部党员开阔眼界，改革创新，对标一流，3月29日上午，平遥县交通运输局局长李兴省带领局党政班子成员、机关中层及下属单位负责人一行18人赴晋城市城市客运管理处和左权县交通运输局进行对标一流考察学习。', '29日上午，共同观看了晋城市出租客运行业转型发展记录片，参观了出租车监管平台运营中心，了解了目前平台建设的基本情况及运作管理模式等工作。晋城市客管处处长唐大海详细介绍了晋城市出租车监管平台工作建设运营、对经营企业管理等工作情况，同时希望可以通过交流学习，达到双方互相借鉴、共同发展进步的目的。平遥县考察组对晋城市出租车监管工作中的管理经验和做法给予了高度评价，表示将对标晋城客运的先进管理经验，结合本地实际，及时调整思路，推进完善出租车考核监管模式。', '29日下午，前往左权县交通运输局考察。左权县交通局局长薛宏伟全程陪同。实地考察了“四好农村路”建设情况，薛局长详细介绍了左权县交通运输发展情况，并重点就全力打造旅游路建设、常效化管理、精细化养护等方面工作和我局相关科室负责人进行了深入对标交流。', '李兴省局长表示，要结合左权交运局考察学习情况，结合平遥交通运输工作实际，按照“大讨论”活动要求，深入找差距，认真定措施，加快补短板，对标先进标准，努力打造亮点，奋力实现首季“开门红”，推进交通工作“争一流”。', '晋中市交通运输局客运处党总支 召开“改革创新，奋发有为”大讨论组织生活会暨民主评议党员会议']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>20</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>灵石县汽车客运总站选派工作人员赴孝义市考察学习文明城市创建</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2018-05-14</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>https://jtj.sxjz.gov.cn/gzdt/content_230932</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['灵石县汽车客运总站选派工作人员 赴孝义市考察学习文明城市创建_工作动态_晋中市交通运输局', '为更好地推进我县创建全国文明城市的工作，进一步深化创建理念，理清创建思路，优化创建措施，结合我县实际，5月11日，县文明办带领我县各级文明单位、创建重点部门（市政局、交通局、园林局等）工作人员赴孝义市考察学习文明城市创建工作。', '此次考察印象最深的不仅仅是其深厚的文化底蕴、完善的城市功能，科学的城市管理、规范的窗口服务、良好的市民素质、迷人的城市风貌，还有其求实求新的创建工作理念，着眼于常态、专注于常效的创建工作机制，丰富多彩、卓有成效的创建活动，令人赞叹的创建特色和亮点。我县各部门要充分借鉴、吸收、消化先进理念和成功经验，狠抓重点、突破难点、夯实基础、彰显特色，着力完善创建工作机制，强力推进全国文明城市各项创建工作，切实抓实抓好抓出成效。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>20</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>山西党政代表团赴陕西学习考察签订两省推动黄河流域生态保护和高质量发展战略合作框架协议</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2023-07-22</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/snxw/content_469983</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['山西党政代表团赴陕西学习考察 签订两省推动黄河流域生态保护和高质量发展战略合作框架协议 蓝佛安赵一德金湘军赵刚出席座谈会并参加考察', '7月20日，山西党政代表团在中国西部科技创新港考察汇聚创新资源、培育创新生态情况。山西日报记者史晓波摄', '7月21日，山西省·陕西省工作交流座谈会在西安市举行，签订两省推动黄河流域生态保护和高质量发展战略合作框架协议。山西日报记者史晓波摄', '为深入贯彻习近平总书记关于“三新一高”的重要论述精神，深入落实黄河流域生态保护和高质量发展重大国家战略，进一步做好新时代晋陕合作“大文章”，7月20日至21日，山西党政代表团赴陕西学习考察，并召开山西省·陕西省工作交流座谈会，签订两省推动黄河流域生态保护和高质量发展战略合作框架协议。山西省委书记、省人大常委会主任蓝佛安，陕西省委书记、省人大常委会主任赵一德，山西省委副书记、省长金湘军，陕西省委副书记、省长赵刚出席座谈会并参加考察。', '黄河流域生态保护和高质量发展，是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略。晋陕两省同处黄河中游，黄河干流在两省间奔流七百余公里，共同抓好大保护、协同推进大治理是双方共同的政治责任和历史使命。此次山西党政代表团赴陕，一方面是学习考察陕西在科技创新、产业转型、现代农业、文旅融合等方面的先进经验，另一方面是加强与陕西省的工作联动，共同推动黄河流域生态保护和高质量发展走深走实。在陕期间，山西党政代表团先后来到西安市和西咸新区、杨凌农业高新技术产业示范区等地，深入秦创原综合服务中心、商汤智能科技公司、西部科技创新港、隆基乐叶光伏科技公司，学习借鉴陕西打造创新平台、深化科技管理体制改革、推动科技成果转化等方面的亮点做法；走进沣西新城总部经济园综合能源供应站、陕西煤业化工技术研究院，深入了解能源综合利用和现代煤化工产业发展情况；来到中欧班列（西安）集结中心，学习考察打造现代综合交通运输体系、推进自贸区建设、助推高水平对外开放的经验做法；考察文旅业态创新和城市夜经济发展情况；深入杨凌渭河生态公园、先正达集团技术中心试验基地、杨凌智慧农业示范园、杨凌耕地保护与质量提升创新中心，实地感受和学习陕西治渭兴水、保护生态、加强农业科技创新的经验做法。', '21日下午，山西省·陕西省工作交流座谈会在西安市举行。赵一德代表陕西省委、省政府对山西党政代表团的到来表示欢迎，向山西长期以来对陕西的大力支持表示感谢。他说，党的十八大以来，习近平总书记高度重视陕西和山西两省工作，在主持中国—中亚峰会前夕，专门听取陕西省委和省政府工作汇报，前往陕西途中专门到山西考察，为两省推动高质量发展、推进现代化建设进一步指明了前进方向。近年来，山西深入学习贯彻习近平总书记考察调研山西重要讲话重要指示精神，坚决扛起能源革命、黄河保护、文化传承等重大使命，蹚出了资源型地区经济转型综改、产业多元支撑的新路子，成就令人钦佩，经验值得学习。当前，陕西正深入学习贯彻习近平总书记历次来陕重要讲话重要指示精神，努力在西部地区发挥示范作用，奋力谱写中国式现代化建设的陕西新篇章。陕西和山西山水祖脉相依、文化根脉相亲、红色血脉相融、交通动脉相连，希望围绕构建新发展格局、高质量共建“一带一路”、黄河流域生态保护和高质量发展、关中平原城市群建设、汾渭平原大气污染治理、“三北”工程黄河“几字弯”攻坚战等重大任务，共同推进生态大保护、能源大转型、科技大创新、产业大升级、内陆大开放、区域大协同、文旅大融合，携手为强国建设、民族复兴作出新贡献。', '蓝佛安向陕西长期以来对山西的支持帮助表示感谢。他说，党的十八大以来，习近平总书记先后四次莅晋考察调研，对做好山西工作作出重要指示、寄予殷切期望，为我省高质量发展和现代化建设提供了根本遵循、指明了前进方向。当前，全省上下牢记领袖殷殷嘱托，加快“三区三地”建设，正朝着“两个基本实现”目标阔步前进。近年来，陕西省深入学习贯彻习近平总书记对陕西工作的重要指示要求，聚焦在西部地区发挥示范作用的战略定位，推动经济社会发展面貌焕然一新，探索出很多宝贵经验，值得山西学习借鉴。晋陕两省隔河相望、山水相依、人文相亲，历史上交流往来源远流长、经久不断，目前正呈现出党政互动、经贸互利、人文互惠的良好局面。面向以中国式现代化全面推进中华民族伟大复兴的宏阔征程，两省在融入和服务新发展格局上承担着许多共同任务、面临着许多共同课题。希望以此次学习考察特别是签署框架协议为契机，进一步做好新时代晋陕合作“大文章”，携手把习近平总书记为两省擘画的宏伟蓝图变成美好现实。一是在黄河流域生态保护治理上深化合作。建立健全两省间经常性会商协商、部门衔接落实等机制，合力推进晋陕大峡谷、汾渭平原等生态环境保护，共同谋划实施好黄河古贤水利枢纽工程，持续优化沿黄地区产业结构和空间布局，推动左右两岸“一泓清水入黄河”。二是在产业转型升级上深化合作。在推进制造业振兴升级、深化能源革命、发展现代高效农业上加强合作，加强园区产业对接，推进数字产业协同发展，携手建设“5G+智慧矿山”，共同做好乡村产业“土特产”文章。三是在文旅融合发展上深化合作。围绕推动中华优秀传统文化创造性转化、创新性发展，联合布局跨省域经典旅游线路，携手打造更多文旅、文创、文博产业的优质项目和知名品牌。四是在教育、科技、人才支撑上深化合作。加强科创平台、学科建设、人才培养等方面深层次交流，共同推进科技创新和成果转化，以智力和人才优势培育新的竞争优势。五是在扩大高水平对外开放上深化合作。学好陕西自贸试验区经验，加快构建高标准市场体系，用好“一带一路”开放平台，推动交通互联互通、信息共享共用，共同融入全国统一大市场，更好服务新发展格局。', '座谈会上，金湘军、赵刚分别介绍了晋陕两省经济社会发展情况，共同签署了两省推动黄河流域生态保护和高质量发展战略合作框架协议。根据协议，晋陕两省将深入学习贯彻习近平生态文明思想和习近平总书记关于黄河流域生态保护和高质量发展重要论述，按照优势互补、协同联动、互利共赢、共同发展的原则，以生态保护、水利建设、能源革命、资源型经济转型、交通基础设施、文化旅游等领域为重点全方位深化合作，共同抓好大保护、协同推进大治理，携手推动黄河流域生态保护和高质量发展不断取得新突破。', '山西省领导李凤岐、卢东亮、韦韬、汤志平、赵红严、杨勤荣、熊继军，陕西省领导方红卫、蒿慧杰、王琳、樊维斌、徐明非、钟洪江、张晓光，西安交通大学党委书记卢建军参加有关活动。省直有关部门、部分省管国有企业、有关开发区主要负责同志，各市市委书记等山西党政代表团成员参加。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>20</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>第四届进博会晋中市交易分团在沪开展考察学习</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2021-11-12</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>https://swj.sxjz.gov.cn/zxzczt/content_390847</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['相聚上海，博览全球。11月5日，市委常委、副市长、太谷区委书记刘伟率第四届中国国际进口博览会晋中市交易分团在上海开展考察学习活动。', '刘伟一行先后来到上海瑞谷拜特软件技术有限公司、上海漕河泾新兴技术开发区、中外运集装箱运输有限公司等地进行实地考察学习，通过参观展厅、听取企业介绍以及座谈交流的方式，详细了解了打造智慧园区、开发区市场化运作以及现代物流产业发展前景等，并与考察企业积极开展对接洽谈，促进双方深化合作，实现互利共赢。', '座谈会上，刘伟详细介绍了我市经济社会发展情况，重点推介了良好的营商环境和产业发展优势。他说，晋中区位优势明显、产业基础扎实、文化底蕴深厚、发展势头良好。山西转型综改示范区、晋中国家农高区（山西农谷）、山西大学城等一批重大战略布局晋中，晋中已成为山西最具发展潜力的地级市。当前，晋中提出要大力实施“1221”战略举措，加快建设全省全方位推动高质量发展先行区的战略目标，把开发区作为高质量发展的主战场主阵地，创造一流的营商环境、提供一流的政商服务、开辟一流的招商通道。热烈欢迎广大企业到晋中投资兴业，在现代农业、加工制造业、文化旅游业等领域开展深度合作，共享发展机遇、共创美好未来。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>20</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>第四届进博会晋中市交易分团在沪开展考察学习</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2021-11-29</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>https://swj.sxjz.gov.cn/gzdt/content_394428</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['11月5日，市委常委、副市长、太谷区委书记刘伟率第四届中国国际进口博览会晋中市交易分团在上海开展考察学习活动。', '刘伟一行先后来到上海瑞谷拜特软件技术有限公司、上海漕河泾新兴技术开发区、中外运集装箱运输有限公司等地进行实地考察学习，通过参观展厅、听取企业介绍以及座谈交流的方式，详细了解了打造智慧园区、开发区市场化运作以及现代物流产业发展前景等。并与考察企业积极开展对接洽谈，促进双方深化合作，实现互利共赢。', '座谈会上，刘伟详细介绍了我市经济社会发展情况，重点推介了良好的营商环境和产业发展优势。他说，晋中区位优势明显、产业基础扎实、文化底蕴深厚、发展势头良好。山西转型综改示范区、晋中国家农高区（山西农谷）、山西大学城等一批重大战略布局晋中，晋中已成为山西最具发展潜力的地级市。当前，晋中提出要大力实施“1221”战略举措，加快建设全省全方位推动高质量发展先行区的战略目标，把开发区作为高质量发展的主战场主阵地，创造一流的营商环境、提供一流的政商服务、开辟一流的招商通道。热烈欢迎广大企业到晋中投资兴业，在现代农业、加工制造业、文化旅游业等领域开展深度合作，共享发展机遇、共创美好未来。']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>20</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>灵石局赴左权开展对标一流考察学习</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2019-04-30</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>https://scj.sxjz.gov.cn/gzdt/content_271941</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['月29日，灵石局一行20余人赴左权县市场监督管理局开展“改革创新、奋发有为”大讨论对标一流考察学习活动，考察学习了党建工作、企业信用监管、信息化建设等方面的先进经验和做法，观看了相关承办人对综合执法系统、党建云平台的现场演示。随后，相关业务股室进行对标对接、学习交流，深入探讨工作中存在的问题和困惑。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>20</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>李哲一行赴浙江学习考察千万工程推进我市乡村全面振兴</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2024-04-01</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/bssz/content_497966</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['按照市委、市政府安排部署，3月26日至29日，副市长李哲率部分县委书记、农业农村（乡村振兴）局负责同志赴浙江省学习考察“千万工程”经验。市人大常委会副主任、榆次区委书记张英杰，市人大常委会副主任、和顺县委书记许利伟参加。', '考察组一行先后深入湖州市德清县、杭州市临安区、嘉兴海宁市“千万工程”样板村，现场观摩、座谈交流、答疑解惑，实地学习当地在文旅融合引领乡村振兴、打造现代新型乡村产业业态、推进数字乡村建设、乡村治理等方面的经验做法。', '李哲强调，“千村示范、万村整治”工程是习近平总书记在浙江工作时亲自谋划、亲自部署、亲自推动的一项重大决策，浙江农村从“一穷二白”到“强村富民”的华丽转身，是深入践行“以人为本、共建共享，城乡统筹、久久为功，党建引领、群众主体，绿色发展、双向转化，精准施策、守正创新”的生动实践。学习运用浙江“千万工程”经验，要深刻感受和领悟其精髓要义和理念方法，突出党建引领，坚持规划先行，大力发展产业，改善农村面貌，创新社会治理，切实把“真经”转化为“百乡千村”治理行动的晋中实践。']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>20</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>常书铭出席晋中市学习运用千万工程经验浙江大学专题培训班开班式并率队在浙江考察学习</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/bssz/content_500219</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['常书铭出席晋中市学习运用“千万工程”经验（浙江大学）专题培训班开班式并率队在浙江考察学习 在学习运用“千万工程”经验上干在实处走在前列', '4月21日至22日，市委书记常书铭率部分县（区、市）委书记、市直相关部门负责人赴浙江考察学习“千万工程”经验，并出席晋中市学习运用“千万工程”经验（浙江大学）专题培训班开班式。他强调，要深入学习贯彻习近平总书记关于“三农”工作的重要论述、对“千万工程”的重要指示批示精神和对山西工作的重要讲话重要指示精神，深刻领悟浙江“千万工程”蕴含的精髓要义和理念方法，以等不起的使命感、坐不住的责任感、慢不得的紧迫感，在学习中对标找差，在思考中科学谋划，在实践中狠抓落实，切实把学习成果转化运用到加快建设宜居宜业和美乡村、扎实推进乡村全面振兴上来，奋力走出学习运用“千万工程”经验“晋中路径”。市领导刘伟、李哲参加。', '“千万工程”是习近平总书记在浙江工作时亲自谋划、亲自部署、亲自推动的一项重大决策，实施20年来，造就了万千美丽乡村，造福了万千农民群众。赴浙江省学习考察期间，浙江省委副书记、杭州市委书记刘捷会见常书铭一行。在湖州市委副书记吴智勇、杭州市余杭区区长王牮陪同下，常书铭率考察组先后来到湖州市余村、仙谭村、五四村以及杭州市小古城村，一路走一路看，实地领悟“两山”理念的真理伟力和实践伟力，参观绿色发展驱动下的“余村奇迹”，学习德清县“万幢（套）农房盘活工程”实现共同富裕的改革魄力，考察小古城村发展农文旅产业共同体、建设共富联盟的鲜活经验。常书铭指出，学习运用“千万工程”经验，要在深刻领会精髓要义上下功夫，在做好转化实化文章上求突破。一要在完善规划上突破。对标浙江规划先行之谋，因地制宜、分类施策，从群众意愿出发，坚持顶层设计、顶格推进、集体决议，解决盲目性、随意性问题，保持乡村的田园风光、乡土气息。二要在找准抓手上突破。对标浙江下好环境整治“先手棋”之举，抓住垃圾、污水、厕所“关键小事”，引导广大农民群众共建干净、整洁、安全的美丽家园，由点到面、由浅入深、由表及里、形神兼备推动乡村全面振兴。三要在做强产业上突破。对标浙江贯彻“两山”理念之力，发展农文旅共富项目，促进农业与加工流通、休闲旅游、健康养生等业态的深度融合；持续做好“粮头食尾”“农头工尾”增值文章，培育乡村特色产业全产业链条，带富一方百姓。四要在深化改革上突破。对标浙江敢为人先之风，充分吃透国家好政策，通过体制机制的变革有效盘活利用乡村闲置资源，让更多村民变股民、乡村变景区。五要在建强堡垒上突破。对标浙江坚持党建引领之方，在全市启动打造农村“头雁”工程，选好农村带头人，培优“两委”干部，带领大家谋产业、促发展、解难题，点亮乡村美好新生活。', '县为主体、乡村落实，关键在人，要害在干。为了更好打造学习运用“千万工程”经验的作战队、生力军，市委分四批组织市县乡村四级干部赴浙江学习培训，通过集体授课、座谈互动、实地参观相结合的方式，推动各级干部真正学深悟透用好“千万工程”经验。在开班式上，常书铭要求，全体学员要把握难得学习机遇，系统化学习掌握党建引领、合力共建的引领路径，环境整治、城乡融合的建设脉络，产业开发、富民强村的发展经验，共建共享、善治善成的治理模式，因地制宜、知行合一的工作方法，把真理力量和实践伟力转化为推动乡村全面振兴的生动实践。要聚焦“一片一带一圈”总体框架和重点任务，实施好“百乡千村”治理行动，扎实推动各项任务落地见效。常书铭要求，全市各级党委、政府要坚决扛起政治责任，落实“四级书记抓乡村振兴”要求，推动各项工作争先进位、比学赶超，在学习运用“千万工程”经验上干在实处走在前列，为我市在全省高质量发展中奋勇争先作出更大贡献。', '4月21日晚，常书铭在湖州市与国家发改委经济所副所长吴萨等一行专家举行工作会谈，就加快推进以县城为重要载体的新型城镇化建设，全面推动县域经济高质量发展等方面进行深入交流。他指出，县域经济是推动高质量发展的重要支撑，是以县城为重要载体的新型城镇化建设的重要一环。要做好高质量规划，打造“1+11”市县统筹规划体系，谋准找实符合我市实际的县域经济发展模式和路径。要系统性谋划，跳出晋中看晋中、立足区域抓特色，充分发挥我市交通区位、产业基础、人才创新、文化底蕴等优势，构建特色化、差异化、协同化县域发展新格局。要整体性推进，一体推动主导产业集聚集群、公共服务业补短提质、要素市场化改革提速、城乡融合共富等，增强县域对技术、资金、人才吸引力，促进人产城融合发展，为全力推进山西中部城市群建设，主动融入中部地区崛起战略作出晋中贡献。', '在浙期间，常书铭专门安排榆次区、综改区晋中开发区主要负责同志就发展县域经济、做大临空临铁经济赴嘉兴对接全球航空物流枢纽项目。他强调，晋中要主动服务和融入“一带一路”、京津冀协同发展等重大国家战略，抢抓山西中部城市群高质量发展机遇，充分学习借鉴嘉兴发展航空物流的先进经验，大力发展临空临铁经济，壮大航空物流、高端服务、先进制造、国际商贸等产业形态，以高效供应链集聚产业链，更好地把临空优势转化为发展优势。', '考察学习期间，常书铭一行还来到杭州市科技和产业创新领军企业申昊科技股份有限公司对接洽谈项目合作事宜。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>20</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>市民政局赵成武局长李峰副局长赴太原考察学习调研居家和社区养老服务工作</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2020-06-01</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>https://mzj.sxjz.gov.cn/gzdt/content_335256</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['市民政局赵成武局长、李峰副局长赴太原考察学习调研居家和社区养老服务工作_工作动态_晋中市民政局', '为有力推进我市全国第五批“居家和社区养老服务改革试点”工作，学习借鉴全国第一批改革试点经验，', '，在太原市民政局相关领导的详细介绍下，查看了太原市养老服务综合信息化大数据平台的建设和运行状况，了解了居家和社区养老服务内容、特点、老年人满意度等情况，重点了解了相关政策实施和财政配套情况。', '社区老年日间照料中心、老年餐厅、康复理疗区域、适老化改造和社区服务中心党建活动室等，听取了', '城市的做法与经验。赵成武局长介绍了晋中市改革试点推进情况和面临的形势，他表示，将认真学习太原市的先进经验做法，围绕改革试点目标任务，结合晋中实际，创新工作方法，打造特色服务，', '围绕习近平总书记视察山西重要讲话重要指示精神 晋中市民政局党组理论学习中心组召开 集中学习研讨']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>20</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>冯建平带队赴晋城学习考察全域旅游工作来源晋中日报</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2017-11-28</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>https://wlj.sxjz.gov.cn/xxgk/fdzdgknr/gzdt8lfw/content_51293</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['冯建平带队赴晋城学习考察全域旅游工作（来源晋中日报）_工作动态_法定主动公开内容_政府信息公开_\u200b晋中市文化和旅游局', '11月27日，晋中市人大常委会主任冯建平带队赴晋城市学习考察全域旅游工作，晋中市人大常委会副主任张耀明、秘书长杨允强以及左权、和顺县政府主要负责人一同参加了考察。', '考察组一行先后实地考察了晋城司徒小镇和阳城中国农业公园、县城六大森林公园、城市步道建设、农业嘉年华等项目，详细听取了项目介绍，并与当地主要负责同志进行了深入的交流。', '冯建平指出，近年来，晋城市全域旅游工作特色鲜明、效果突出，特别是阳城县坚持围绕旅游抓发展格局、抓功能完备、抓旅游产品，全域旅游呈现快速发展的良好态势。', '冯建平强调，晋中市处在打造全域旅游示范区的关键时期，要认真学习借鉴，把好的经验和做法带回去，推动我市全域旅游工作快步向前发展。特别是左权、和顺两县，森林覆盖率高、自然环境优美、旅游资源丰富，更要坚定信心、乘势而上，用足用好优势资源，根据自身特点，做好发展旅游这篇大文章，打造一流的旅游品牌。要结合农业发展、美丽乡村、拆违治乱和脱贫攻坚等工作，准确定位、融合发展、久久为功，走好全域旅游发展之路，力争早日全面实现“望得见山，看得见水，记得住乡愁，富得了百姓”的美好愿景。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>20</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>左权县邯郸市林业局到晋中左权县就森林防火队伍建设进行考察学习</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2023-05-31</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>https://ghhzrzyj.sxjz.gov.cn/xqdt/content_464228</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['左权县｜邯郸市林业局到晋中左权县就森林防火队伍建设进行考察学习_县区动态_晋中市规划和自然资源局', '5月22日，邯郸市委委员、邯郸市林业局党组成员、副局长范爱保带领武安市、涉县等7个县（区、市）林业局一行9人，来左权县就乡村两级森林草原消防队伍和护林员队伍建设进行考察学习。晋中市林业和草原发展中心主任孙彦亮、市规划和自然资源局防火科负责人武晓方、左权县林业局局长赵建军陪同。', '考察组一行首先到城区、辽阳镇和拐儿镇森林消防分队，对乡级队伍和护林员队伍建设情况实地考察调研，随后深入县森林防火应急分队，对县级队伍运作、管理和机具、装备、车辆配备等情况详细了解。', '实地考察结束后，在县森林防火预警处置中心召开座谈会，左权县林业局局长赵建军向考察组介绍了全县森林草原防火情况，交流了队伍和护林员管理经验做法。考察组对左权县在防火方面取得的成绩给予了肯定，认为左权县在森林草原消防队伍和护林员队伍建设管理等方面的做法值得借鉴学习，希望今后两市在森林草原防火联防联控方面继续加强交流，合力做好森林草原防灭火工作。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>20</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>市委常委政法委书记贡琦率市检察院团队到北京市海淀区考察学习</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2019-11-29</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xxzb1/xxk1248/content_308298</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['10月28日，晋中市委常委、政法委书记贡琦亲率市检察院团队赴北京市海淀区就执法办案管理中心检察室工作进行考察学习。市检察院党组书记、检察长南世勤，党组副书记、常务副检察长郑黎明及相关业务部门负责同志参加学习。', '考察组先后参观了北京市海淀区分局执法办案管理中心和海淀区人民检察院派驻分局执法办案管理中心检察室、刑事速裁法庭等，并与北京市公安局海淀分局、海淀区人民检察院相关领导进行了座谈，详细了解了执法办案管理中心检察室的成立、检察人员派驻等相关情况。', '贡琦书记指出，北京市海淀分局执法办案中心以规范办案、方便基层、提高效率、保证安全为着力点，不断细化措施、拓展功能、创新机制，真正实现了执法理念、办案模式的创新改变。通过此次对标一流，晋中政法机关明确了差距和不足，要进一步见贤思齐、精准发力，大力推进晋中市的执法办案中心建设。市检察院要认真学习海淀区检察院通过派驻检察室工作实现对公安机关办案的全面、同步、实时的监督，提高立案、侦查活动监督能力，促进公安侦查活动更加规范，努力为晋中政法机关执法司法水平再上新的台阶贡献力量。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>20</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>临汾市襄汾县蓝天清洁服务有限公司到市环卫处恒济通集团考察学习</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2020-07-07</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>https://cgj.sxjz.gov.cn/bmdt/hwdt0000/content_339954</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['临汾市襄汾县蓝天清洁服务有限公司到市环卫处恒济通集团考察学习_环卫动态_部门动态_晋中市城市管理局', '7月1日下午，临汾市襄汾县蓝天清洁服务有限公司董事长杨保忠一行6人,来到我市环卫处恒济通集团考察学习，就制度创新、设备创新、管理创新、作业模式创新等方面进行座谈交流。', '座谈会上，市环卫处恒济通集团常务副总经理周文成详细介绍了市城区环境卫生体制机制、道路清扫保洁和考核等工作。双方就道路清扫保洁的运营、发展、管理，环卫基础设施的规划建设，生活垃圾的收运处置，以及动态考核机制等方面进行了深入交流。随后，实地参观了天湖停车场、建通巷“垃圾压缩站+公厕+休息间”一体式建设项目，并观看了专题宣传片、监控室环卫作业车辆GPS系统智慧监管和龙田路“四位一体”深度保洁作业模式的演示。', '考察团表示，此次考察收获颇多，市环卫处恒济通集团在环卫创新方面的经验做法非常值得学习借鉴。希望今后双方进一步加强沟通交流，共同促进环卫管理工作快速健康发展。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>20</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>太原市农村基层干部培训班来我市考察学习现代农业企业和美丽乡村建设情况</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2017-09-21</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/xxgk/fdzdgknr/gzdt31nw/content_39432</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['太原市农村基层干部培训班来我市考察学习 现代农业企业和美丽乡村建设情况_工作动态_法定主动公开内容_政府信息公开_晋中市农业农村局', '，太原市十县（区、市）农委或新农办领导、乡镇及涉农街道办事处同志、村两委主干及农产品加工企业、休闲农业企业、农村电商企业、合作社等致富带头人共计', '我市紧紧抓住《国务院关于支持农业产业化龙头企业发展的意见》出台的机遇，围绕“全市农业龙头企业', '这一目标，市、县两级积极开展工作，创优发展环境，深入推进农产品加工企业发展，全市农业产业化龙头', '全市农业产业化龙头企业总数达到373家，其中国家级龙头企业3家（平遥牛肉、平遥龙海、太谷通宝）；省级龙头企业5', '全市现有休闲农业经营主体204家，其中休闲观光庄园106家，农家乐98家。国家级休闲观光农业与乡村旅游示范县2个（榆次区、太谷县），国家级休闲观光农业与乡村旅游示范点2个（昔阳大寨村、太谷美宝庄园），省级休闲观光农业与乡村旅游示范县1个（平遥县），省级休闲观光农业与乡村旅游示范点17个。', '不断创新工作思维、强化组织领导、注重政策整合、合力推进宜居示范工程建设。初步形成了政府主导、农民主体、社会参与的以省级示范村为龙头、市级示范村为基础、县级示范村为补充的分级创建、分类示范、三级联动、互促互进的']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>20</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>晋中市种子站赴太原市学习考察脱毒马铃薯和谷子渗水地膜穴播生产技术</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2019-06-20</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/xxgk/fdzdgknr/gzdt31nw/content_118022</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['晋中市种子站赴太原市学习考察 脱毒马铃薯和谷子渗水地膜穴播生产技术_工作动态_法定主动公开内容_政府信息公开_晋中市农业农村局', '月19日，晋中市种子站组织站内技术骨干和相关县、市种子站的业务骨干一行12人赴太原市娄烦县参观学习了马铃薯脱毒技术和谷子渗水地膜穴播技术。', '考察人员在太原市种子站许福民站长的陪同下先来到田园种养专业合作社参观学习谷子渗水地膜穴播技术，该技术既发挥了地膜覆盖的增温保墒作用，又提高了种植的机械化程度和田间管理效率，起到了省工、节水、省籽、保苗、增产的作用。', '许站长随后带领大家来到娄烦县惠农马铃薯科技园，在实验室实地现场讲解了马铃薯脱毒技术，让大家了解了脱毒马铃薯是对茎尖脱毒后用组织培养技术获得的，最后大家又参观了脱毒马铃薯繁育田。', '通过这次考察学习，大家对脱毒马铃薯繁育和谷子种植技术有了新的认识，在当前发展现代农业、现代种业大前提下，为调整种植结构提供有力的技术支撑，为大力发展有机旱作农业注入了一剂强心针。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>20</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>晋中市农经系统考察团赴贵州省六盘水考察学习农村三变改革工作</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2018-10-08</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>https://fgw.sxjz.gov.cn/gzdt/content_249809</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['晋中市农经系统考察团赴贵州省 六盘水考察学习农村“三变”改革工作_工作动态_晋中市发展和改革委员会', '为贯彻落实农村集体产权制度改革，推动资源变资产、资金变股金、农民变股东，探索农村集体经济新的实现形式和运行机制。近日，根据市委、市政府安排，市']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>20</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>山西省赴京津冀学习考察团在北京天津河北学习考察金湘军参加有关活动及座谈交流</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/snxw/content_494157</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['山西省赴京津冀学习考察团在北京天津河北学习考察 金湘军参加有关活动及座谈交流 服务重大国家战略 携手共赢美好未来 高站位宽视野实举措深度融入京津冀', '在京津冀协同发展重大国家战略实施10周年的重要时刻，2月26日至27日，山西省赴京津冀学习考察团先后在北京、天津、河北学习考察，并分别召开工作座谈会，深入贯彻习近平总书记关于京津冀协同发展的重要论述精神，把握国家支持山西省与京津冀地区加强协作实现联动发展重大机遇，学习借鉴三省市推动高质量发展和现代化建设的好经验好做法，以更加积极主动的姿态加快融入京津冀协同发展，共同谱写合作交流新篇章。天津市委书记陈敏尔，市委副书记、市长张工，北京市委副书记、市长殷勇，河北省委副书记、省长王正谱，山西省委副书记、省长金湘军分别参加有关活动及座谈交流。', '工作座谈会上，北京、天津、河北三省市负责同志充分肯定山西各方面工作。指出，三晋大地是华夏文明发祥地之一。近年来，山西省坚决落实习近平总书记对山西工作的重要讲话重要指示精神，聚焦“三区三地”建设，推动能源革命、产业升级、民生保障、生态环保等各项事业取得新成就。京津冀协同发展是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略，也为进一步深化京津冀与山西合作带来了机遇、指明了方向。京津冀与山西地缘相近、人缘相亲、渊源深厚，合作基础扎实、前景广阔。要进一步发挥各自优势，密切交流交往，加强互学互鉴，深化各领域务实合作，更好探索发展新质生产力的新路径，共同为推进中国式现代化贡献力量。', '受省委书记唐登杰委托，金湘军代表省委、省政府对京津冀三地经济社会发展取得的重大成就表示祝贺，对长期以来给予山西发展的大力支持表示感谢。他说，近年来，北京、天津、河北在以习近平同志为核心的党中央坚强领导下，高质量发展成果丰硕，创造的好经验好做法值得我们学习借鉴。山西毗邻京津冀，加强协作实现联动发展，是服务重大国家战略、加快转型发展的题中之义。当前，全省上下正深入贯彻习近平总书记对山西工作的重要讲话重要指示精神，久久为功推动高质量发展，深化全方位转型。山西与京津冀合作基础坚实、潜力巨大、前景广阔。希望在能源绿色发展、产业升级、生态环保、教育科技人才、交通基础设施、文旅康养、对外开放等领域加强高水平务实合作，以协同联动发展新成效为全国发展大局作出更大贡献。', '在北京期间，学习考察团参观了中关村国家自主创新示范区展示中心，实地察看区块链、人工智能、智能制造、氢能储能等前沿科技成果，了解京晋科技合作情况。在天津期间，学习考察团参观了国家会展中心（天津）、天津软件园河西园、哈电国际工程（天津）有限责任公司。其间，省政府与天津市政府签署了战略合作框架协议。在河北期间，学习考察团走进雄安规划展示中心、容东片区城市建设现场、雄安科创中心、东西轴线调度中心，了解雄安新区规划建设、科技创新等情况，零距离感受雄安新区“千年大计、国家大事”由宏伟蓝图变美好现实的生动实践。', '北京市领导夏林茂、于英杰，天津市领导刘桂平、王力军、朱鹏，河北省领导赵大春，省领导吴伟、卢东亮，京津冀及我省相关部门单位负责同志参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>20</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>祁县赴晋都曲沃考察学习国家卫生县城创建工作</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2018-12-04</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xxzb1/xxk1248/content_256930</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['近日，祁县赴临汾市曲沃县考察学习国家卫生县城创建工作先进经验和做法。随行干部纷纷表示要学习曲沃的干部作风，不断提升工作“精气神”；要把在曲沃学到的经验做法与祁县实际相结合，因地制宜、学习借鉴、强化举措、补齐短板，以“创卫”为抓手，切实提升祁县发展的“软硬”环境。', '近日，祁县赴临汾市曲沃县考察学习国家卫生县城创建工作先进经验和做法。随行干部纷纷表示要学习曲沃的干部作风，不断提升工作']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>20</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>榆社县融媒体中心赴长治市上党区进行对标一流考察学习</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2019-04-24</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xxzb1/xxk1248/content_270883</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['近日，县融媒体中心赴长治市上党区进行“对标一流”考察，学习融媒体建设工作，找差距，理思路，引深“改革创新·奋发有为”大讨论活动。', '考察团一行听取了长治市上党区融媒体中心负责人关于融媒体建设情况的介绍，并深入到融媒体中心新闻部、电视播出机房、广播电台、演播室、新闻中心等部门实地参观，就融媒体中心组织架构、运行方式、“上党门”APP系统运行机制、人员构成、工资体系、资金保障、考核制度等问题进行了深入的了解。', '考察团对上党区融媒体的发展表示充分赞赏，认为上党区在融媒体发展方面方向明确，思路清晰，工作具有创新性，对于我县融媒体建设具有指导作用。考察团表示将认真研究上党区融媒体发展的先进做法、经验，并学以致用，做好我县的融媒体建设工作。', '面对县级媒体融合发展的新形势，上党区立足实际，积极探索，大胆改革，通过将区新闻中心和广播电视台进行资源整合，成功组建“融媒体中心”及上党融媒体集团公司，在搞好传统媒体的基础上倾力建设新型媒体，逐步构建起“12175”新型主流媒体的发展模式，即区委统一领导、两个机构、一个调度指挥中心、七种新闻媒介、五种传播渠道。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>20</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>考察交流拓思路宁夏科技厅考察团到山西农谷学习</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2020-04-29</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>https://ng.sxjz.gov.cn/xwdt/lddt/content_331284</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['考察交流拓思路！宁夏科技厅考察团到山西农谷学习……_领导动态_新闻动态_晋中国家农高区', '4月28日，由宁夏科技厅副厅长刘常青、银川市副市长陈艳菊带领的交流考察团就晋中国家农高区（山西农谷）整体规划、建设成效进行参观交流。省科技厅二级巡视员张浩林，副市长丁雪钦，山西农谷党工委副书记、管委会主任李成海，管委会副主任梁铁明陪同考察。', '在番茄小镇的15万平米日光温室大棚里，20余个品种的小番茄长势喜人。考察团走进大棚对番茄小镇的自动化数控育苗、水肥一体化技术及公司运营模式番茄精深加工等环节进行了细致地了解。', '在小白万亩红枣园区，考察团登上观景台，万亩枣树尽收眼底，工作人员介绍了壶瓶枣产业发展、种植设施及新技术示范推广，并对考察团关心的达效周期、亩产值及实际收入进行了详细的解答。随后考察团来到了小白万亩苗木培育推广园对苗木新产品及“带地入股”改革模式进行了了解。', '在晋中国家农高区科创基地，工作人员向考察团介绍了“一所、两室、五中心”承担职能和建设情况。大家饶有兴致地走进产品研发展示中心、智能农机装备工程实验室、农产品质量检验检测中心、谷子研究所进行了实地参观交流。', '宁夏科技厅农村科技处处长徐小涛表示：“我们这次来就是学习山西农高区的建设发展经验，感觉到山西建设农高区的脚步非常快，希望下一步能和山西加强科技合作。我们宁夏和山西有大量共同的旱作农业，需要学习山西的有机旱作农业发展，同时农高区总体规划的方向和创新，非常值得宁夏在发展农高区上设计规划和统筹布局上借鉴。”']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>20</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>高波李文权一行来我市就智慧人大建设情况进行考察学习</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2023-05-17</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>https://renda.sxjz.gov.cn/rdyw/content_462534</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['5月4日，太原市人大常委会副主任高波、李文权带领考察组来我市学习考察人大代表履职服务平台建设情况。市人大常委会副主任王根元、秘书长王双寿陪同。', '考察组一行先后来到榆次区人大、锦纶街道办事处和晋中市人大，现场观摩晋中市人大代表履职服务平台和榆次区“智慧人大”平台演示，详细了解建设经验，并就平台设计思路、组织领导、资金投入等方面进行深入交流。', '考察组一行对我市人大代表履职服务平台工作给予高度评价。考察组认为，人大代表履职服务平台的建设运行，对创新人大履职方式、拓宽代表履职渠道、提升人大工作水平具有显著作用，是推动人大工作改革创新的重要抓手。同时认为，我市人大代表履职服务平台建设起步早、见效快、有特色，已实现全市联网运行，在代表履职信息化方面走在全省前列，为太原市人大常委会全面开展“智慧人大”建设工作提供了实践经验和工作路径。考察组一行表示，要按照中央及省委、市委人大工作会议要求，积极践行全过程人民民主重大理念，以人大工作全面数字化为主线，以提高人大业务效率和应用水平为重点，充分学习借鉴晋中市人大代表履职服务平台建设的好经验和创新做法，加快推进太原市“智慧人大”建设步伐，为全面提升太原市人大代表工作信息化水平提供有力保障。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>20</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>晋中市城市管理局赴忻州市岢岚县考察学习环卫市场化和城乡环境卫生监管工作</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2020-02-06</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>https://cgj.sxjz.gov.cn/gzdt/content_317400</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['晋中市城市管理局赴忻州市岢岚县考察学习环卫市场化和城乡环境卫生监管工作_工作动态_晋中市城市管理局', '1月16日，晋中市城市管理局局长贺建国带领市环卫处等相关单位负责人赴忻州市岢岚县，考察学习环卫市场化和城乡环境卫生监管工作。岢岚县委副书记、县长侯俊生等陪同考察。', '座谈会上，考察团观看了岢岚县创建国家卫生城市（县城）宣传片，听取了相关部门负责人工作情况介绍，双方就专项工作进行了深入交流和探讨。随后，考察团一行深入农贸市场、钟楼街、古城文旅项目城南工地、宋家沟，以实地参观、听取工作介绍、询问交流等方式，全面考察学习岢岚县在市容环境整治、环境卫生监管、环卫市场化等方面的先进经验和做法。大家边听边看、边学边思，开阔了视野，找到了差距，坚定了推进城乡环境卫生监管工作的信心和决心。', '考察组指出，要学习借鉴岢岚精神、岢岚作风、岢岚经验，对标先进找差距、补短板，切实将学习考察成果转化为实实在在的举措，转化为推动环卫工作高质量发展的具体行动。要进一步激发干劲，结合晋中市城区实际，牢固树立“三分建、七分管”和“环境秩序比保洁更重要，秩序井然了，道路清扫保洁则相对容易”的管理理念，创新工作思路，完善“以条牵头、以块配合、条块结合”的工作措施，改善“雷厉风行、立说立行”的工作作风，加强“重拳出击、严管重罚”的工作力度，把环卫市场化改革和城乡环卫监管机制一抓到底，抓紧抓实抓出成效。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>20</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>市商务局组织各开发区赴深圳前海蛇口自贸片区学习考察</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2019-07-01</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>https://swj.sxjz.gov.cn/kfqjs/content_288636</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['在全省大力推广中国（广东）自由贸易试验区深圳前海深口自贸片区制度创新经验，并研究制定了制度创新经验事项清单的背景下，为进一步推进我市开发区改革创新发展，把推广制度创新经验落到实处，6月24-26日，我局赵成武局长组织全市9个开发区管委会负责人一行共18人，赴深圳前海蛇口自贸片区学习考察。', '考察学习分为两个阶段，第一阶段，与前海管理局各处室负责人召开座谈会，了解学习中国（广东）自由贸易试验区深圳前海蛇口自贸片区制度创新经验，重点学习管理运营模式、承接管理权限、一体化开发模式、招商引资模式、现代服务业发展等，针对我市开发区存在的问题进行沟通交流，并实地参访了前海深港青年梦工厂、前海展示厅、前海石公园，直观感受前海的发展历程、现状和规划运营模式。', '第二阶段，由晋中开发区和太谷经济技术开发区分别安排考察华润电力控股有限公司、中兴通讯股份有限公司和深圳溢旭电子有限公司项目，通过召开座谈会深入了解项目情况，各开发区根据自身情况和需求进行进一步交流对接。', '通过此次学习考察，我们感受到了我市与前海之间巨大的差距，我们需要继续探索如何在新形势下更好地深入贯彻落实省委、省政府精神，学习借鉴、对标对接深圳前海蛇口自贸片区，推动我市开发区改革创新发展再上新台阶。', '6月19日，太谷县政府、山西农谷管委会与山西乐村淘网络科技有限公司签署战略合作协议']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>20</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>晋中市组织部分县区领导干部赴酒泉市等地考察学习高标准农田项目建设</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2020-07-21</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/gzdt/content_341106</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['晋中市组织部分县（区）领导干部赴酒泉市等地考察学习高标准农田项目建设_工作动态_晋中市农业农村局', '为了进一步开阔我市农田建设管理干部的视野，加强与大禹节水集团的协作交流和沟通，深入了解大禹节水集团先进技术和实践成果，切实提高我市农田建设管理水平。根据市政府主要领导的指示安排，7月17-20日，由市农业农村局党组成员肖虎善带队，太谷和祁县分管副县（区）长、农业农村局局长、水利局局长以及山西农谷管委会有关领导等组成的考察团赴甘肃省酒泉市等地考察学习高标准农田建设项目建设情况。大禹节水集团山西公司总经理保功辉和当地市、县（区）农业农村部门领导一起参加了考察。', '考察团先后重点学习了大禹节水集团分别在西宁市湟源县（EPC模式）、在张掖市甘州区（EPC+O模式）、在酒泉市肃州区（EPC+O模式）实施的高标准农田建设项目建设情况，并实地了解当地政府及群众对项目设计、建设和运维的评价和认可度。同时，考察团参观了大禹节水集团股份有限公司酒泉分公司农村污水处理项目、智慧农业项目。', '湟源县（2020年）、甘州区（2020年）、肃州区（2019年）高标准农田建设项目全部由市级农业农村部门批准建设，资金来源为中央、省级财政资金和地方配套资金以及整合资金。招标人为当地县、乡人民政府，中标人全部为大禹节水集团公司企业。施工方式全部采用EPC或EPC+O模式，其中：EPC模式为工程设计施工总承包，企业按照合同约定，承担工程项目的优化设计、采购、施工、管护服务等工作，并对承包工程的质量、安全、工期、造价全面负责；O模式为运营与管护。据酒泉市农业农村局领导介绍，全市2019年的项目基本验收结束，2020年项目已经完成80%左右，属于全省领先水平。', '大禹节水集团股份有限公司成立于1999年，2009年成功上市。公司长期致力于农业、农村、水资源问题的解决与服务。公司历经20年的不断调整、发展、壮大，现已发展成为在农业节水、污水处理、安全饮水设施生态农业等领域集项目规划、设计、投资、建设、运营、服务及材料生产与供应、水利信息化软硬件系统配套的全产业链专业化系统解决方案提供商，是国内节水领域的龙头企业。特别是从去年开始，在甘肃、云南、天津等不同地区的高标准农田建设中实施了很多的项目工程，做出了很大的贡献。', '四天来，考察学习团马不停蹄、日夜兼程。肖虎善主任抢抓一切时间，及时将自己的所思所想与大家分享，引导大家在思维碰撞中统一思想、深化认识，在研究分析中完善思路、创新举措，在对照比较中激发干劲、催生斗志。他强调，太谷、祁县、山西农谷的领导要学思践悟，现行先试。认真落实好市委、市政府贯彻中央、省委主要领导的指示精神，把外地先进经验和技术学回来，要把高标准农田建设与节水农业、有机旱作农业结合起来，为早日趟出一条具有晋中特色的国家农高区高质量发展新路子做出我们最大的努力。', '考察中，大家始终保持着振奋昂扬的精神状态，看甘肃，说晋中，表示回去后要用足用活考察学习成果，立足各自实际，争取把张掖、酒泉与大禹集团合作模式的好思路、好做法、好经验晋中化、具体化，运用好、落实好，在推进晋中市农田建设管理水平上，现代节水农业高质量发展创一流中迅速行动，尽快见效。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>20</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>新乡市委书记张国伟一行赴我市学习考察乡村振兴及国家农高区创建</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2020-04-23</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/xxgk/fdzdgknr/gzdt31nw/content_142625</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['新乡市委书记张国伟一行赴我市学习考察乡村振兴及国家农高区创建_工作动态_法定主动公开内容_政府信息公开_晋中市农业农村局', '来我市考察学习农业高质量发展及晋中国家农业高新技术产业示范区创建经验并召开座谈会，新乡市委副书记王新军、河南科技学院院长李成伟、新乡市副市长王占波参加，我市副市长丁雪钦、', '张国伟一行先后到榆次区乌金山镇后沟村、东赵乡石羊坂村、北田镇张胡村，太谷县番茄小镇项目、小白乡白燕村，山西广誉远国药有限公司，山西巨鑫现代农业示范园，晋中国家农高区（山西农谷）科创基地等进行了实地考察。', '座谈会上，新乡市、晋中市面对面就推动农业现代化发展的政策机制、产学融合、人才引进、创新思路等方面展开深入交流学习。', '张国伟说，通过一天半的考察学习，全方位感受到了晋中市在农业现代化发展方面取得的显著成果，“六美后沟”“多彩石羊坂”“田园张胡”百里乡村振兴示范廊带、山西巨鑫现代农业示范区、晋中国家农高区（山西农谷）科创基地等样板工程给大家留下了深刻印象。晋中市高度重视农业现代化发展，下大力气改革创新，使之发展又快又好，是新乡市学习的榜样，晋中市的好经验、好做法，也对新乡市有很好的借鉴意义，下一步要充分运用和放大这次考察学习成果，加快新乡市农业现代化建设，更希望晋中和新乡两市在今后能够开展更广领域的交流与合作。', '张国伟说，通过一天半的考察学习，全方位感受到了晋中市在农业现代化发展方面取得的显著成果，', '丁雪钦对张国伟一行的到来表示欢迎，他指出，晋中市是传统农业区，农业生产条件优越，现代农业发展水平在全省领先。近年来，晋中市紧紧抓住国家现代农业发展的契机，不断创新推动全市农业现代化改革，取得一定成绩，希望新乡市考察团通过实地查看，为晋中市多提宝贵意见，助力晋中市农业水平向更高更好发展。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>20</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>年中非南南合作农业技术培训班来我市考察学习</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2018-09-21</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/xxgk/fdzdgknr/gzdt31nw/content_84886</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['2018年中非南南合作农业技术培训班来我市考察学习_工作动态_法定主动公开内容_政府信息公开_晋中市农业农村局', '乘着中非合作论坛北京峰会的东风，我市农业系统迎来了非洲第一批客人——根据农业部对外经济合作中心和省农业厅有关函件要求，经过市县农委与相关基地企业的密切配合和积极筹备，9月17日——19日，“2018年中非南南合作农业技术培训班”一行30名中非共和国学员，在农业部外经中心和省农业厅国际站相关领导的陪同下，参观考察了我市寿阳、太谷、平遥县的相关基地、企业。省农业厅国际站张建浩副站长和市县农委相关人员全程陪同考察。', '培训班一行，先后考察了我市寿阳县上湖乡常村国家梨产业技术体系玉露香梨示范基地、中国', '——墨西哥农业合作交流示范园区、山西晋荞米业有限公司、山西果树研究所果树培育基地、山西平遥牛肉集团有限公司。学员们对我市现代农业的发展、对外合作交流基地的建设和优特农产品的打造给予了极高的评价。每到一处，学员们都异常惊讶和啧啧赞叹，不停驻足观看和询问，拍照留念作着笔记，与讲解员形成密切的互动和交流。场面融洽，气氛热烈。', '相信此次圆满的考察活动，将进一步加深中非共和国对我市农业发展的了解，既是践行习近平总书记中非合作共赢，携手构建更加紧密的中非命运共同体，也为今后相互深度交流与合作打下了很好的基础。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>20</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>河北省公安司法戒毒系统来我市考察学习吸毒人员管控工作</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>https://jzjd.sxjz.gov.cn/xwdt/content_499358</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['3月20日，河北省公安厅禁毒总队二级高级警长冉建世、禁吸戒毒支队支队长齐文件等公安司法戒毒系统一行26人来我市考察学习吸毒人员管控工作。', '上午，在市公安局禁毒支队举行的座谈会上，观看了我市《“平台+机制”齐发力 赋能毒品治理出新绩》专题片，听取了我市吸毒人员管控工作的经验做法介绍，详细了解了晋中市吸毒人员智能管控平台功能，交流了吸毒人员信息采集类型、采集标准、审核流程和吸毒人员管控方法等方面工作。', '下午，在城区公安分局锦纶街派出所，听取了城区分局禁毒大队近年来的禁毒工作汇报，实地翻阅了吸毒人员排查、见面、管控的基本信息登记、吸毒检测记录等工作台账和禁毒宣传资料，详细了解了吸毒人员排查见面工作进度。', '大家纷纷表示，晋中市吸毒人员管控工作从机制到实践，全覆盖、精准管控吸毒人员，将结合本地实际，借鉴晋中有关经验做法，希望双方进一步加强沟通联系，深化交流合作，共同提升吸毒人员管控能力和水平。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>20</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>习近平在青海考察</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2024-06-21</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>https://rfb.sxjz.gov.cn/gzdt/content_506153</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['习近平在青海考察时强调 持续推进青藏高原生态保护和高质量发展 奋力谱写中国式现代化青海篇章', '新华社西宁6月20日电 中共中央总书记、国家主席、中央军委主席习近平近日在青海考察时强调，青海要认真贯彻党中央决策部署，完整准确全面贯彻新发展理念，牢牢把握青海在全国发展大局中的战略定位，充分发挥自身优势，坚持深化改革、扩大开放，坚持生态优先、绿色发展，坚持民族团结、共同富裕，在推进青藏高原生态保护和高质量发展上取得更大进展，奋力谱写中国式现代化青海篇章。', '6月18日至19日，习近平在青海省委书记陈刚和省长吴晓军陪同下，深入西宁市的学校、宗教场所等进行调研。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学食堂察看学生就餐条件。新华社记者 谢环驰 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学宿舍楼察看学生住宿条件。新华社记者 岳月伟 摄', '18日下午，习近平首先来到果洛西宁民族中学考察。这是一所隶属于果洛藏族自治州的寄宿制中学，由上海市投资援建。习近平听取上海等东部地区援助青海教育工作和学校建设情况介绍，详细询问学生构成、课程设置、体育锻炼、普通话水平等情况，走进食堂、宿舍楼察看学生就餐和住宿条件，嘱咐食堂工作人员一定要确保学生饮食安全、营养可口。之后，他来到高一（1）班教室，观摩“新时代、新家乡”主题思政课。了解到学校将思政课内容融入日常教学，听了孩子们讲述新时代家乡的可喜变化，看了孩子们的画作，习近平十分高兴。他说，包括教育在内的东西部协作和对口支援取得显著成效，充分彰显了中国共产党领导和中国特色社会主义制度的优势，充分体现了中华民族大家庭的温暖。要把铸牢中华民族共同体意识作为学校思政课的一个重点，讲好中国共产党和中国特色社会主义的故事，讲好新时代以中国式现代化全面推进强国建设、民族复兴伟业的故事，讲好中华民族共同体和民族团结进步的故事，把中华民族共同体意识从小就植入孩子们的心灵。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学高一（1）班观摩“新时代、新家乡”主题思政课时，同学生亲切交流。新华社记者 鞠鹏 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学高一（1）班观摩“新时代、新家乡”主题思政课。新华社记者 鞠鹏 摄', '教学楼前广场上，师生们纷纷围拢过来，高声向总书记问好。习近平亲切地对大家说，我到西宁第一站就来看望老师和同学们。上海援建的这所中学，培养来自果洛牧区的各民族孩子，成效明显，意义深远。希望孩子们倍加珍惜这里的良好条件，心怀感恩、好好学习，德智体美劳全面发展，立志成为中国特色社会主义事业的接班人和建设者，努力为自己赢得人生出彩的机会。他祝孩子们学有所成、健康成长。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。新华社记者 谢环驰 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。新华社记者 燕雁 摄', '随后，习近平来到位于西宁市城中区的宏觉寺。在寺前院落，宏觉寺民主管理委员会负责人向总书记敬献哈达，僧人提香炉、持宝伞迎接总书记。习近平参观青海省民族团结进步教育基地展陈等，了解寺庙历史沿革、老一辈革命家关心推动民族工作和宗教工作的情况。他走进大殿，听取寺庙加强日常管理、促进民族团结进步等情况介绍。习近平指出，宏觉寺这座千年古刹，在增进历代中央政府与藏传佛教联系方面发挥了重要的桥梁纽带作用。要保护好这份珍贵的历史文化遗产，为铸牢中华民族共同体意识、促进民族团结进步作出新贡献。要向老一辈革命家学习，把新时代党的统战工作、民族工作、宗教工作做得更好。习近平强调，以中国式现代化全面推进强国建设、民族复兴伟业，需要全国各族人民包括广大信教群众团结奋斗。希望青海藏传佛教界弘扬爱国爱教优良传统，促进宗教和顺、社会和谐、民族和睦，在中国式现代化进程中发挥积极作用。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在位于西宁市城中区的宏觉寺考察。新华社记者 翟健岚 摄', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在位于西宁市城中区的宏觉寺考察。新华社记者 谢环驰 摄', '19日上午，习近平听取青海省委和省政府工作汇报，对青海各项工作取得的成绩给予肯定。', '习近平指出，青海承担着维护生态安全的重大使命，产业发展必须坚持有所为、有所不为，着力培育体现本地特色和优势的现代化产业体系。要有效集聚资源要素，加快建设世界级盐湖产业基地，打造国家清洁能源产业高地、国际生态旅游目的地、绿色有机农畜产品输出地。坚持科技研发和成果转化两手抓，广泛应用新技术，因地制宜改造提升传统产业、发展战略性新兴产业，培育新质生产力。进一步全面深化改革、扩大开放，优化营商环境，主动对接长江经济带发展等重大战略，推动绿色丝绸之路建设。统筹省内区域协调发展，发挥好西宁、海东、海西支撑作用，因地制宜发展县域经济、特色产业。', '习近平强调，青藏高原生态系统丰富多样、也十分脆弱，加强生态环境保护，实现生态功能最大化，是这一区域的主要任务。要始终坚持生态优先、绿色发展，认真实施青藏高原生态保护法，全面落实主体功能区规划要求，把青藏高原建设成为生态文明高地。坚持山水林田湖草沙一体化保护和系统治理，加快实施重要生态系统保护和修复重大工程，巩固提升生态环境保护成效。重中之重是把三江源这个“中华水塔”守护好，保护生物多样性，提升水源涵养能力。加强以国家公园为主体的自然保护地体系建设，打造具有国家代表性和世界影响力的自然保护地典范。有序推进重点领域节能降碳，发展生态友好型产业，加快构建新型能源体系。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，向师生们挥手致意。新华社记者 鞠鹏 摄', '习近平指出，要切实保障和改善民生，尽力而为、量力而行，多办顺民意、惠民生、暖民心的实事，扎实解决群众急难愁盼问题。统筹谋划基本公共服务设施布局，着力增强基本公共服务的均衡性可及性。乡村振兴要突出农牧民增收这个重点，加快推进高原特色种业振兴行动，发展绿色有机农牧业，打响高原土特产品牌。推进高原美丽乡村建设，推动移风易俗。落实防止返贫监测帮扶机制，确保不发生规模性返贫。继续做好积石山地震灾后恢复重建工作，加强防灾减灾救灾能力建设。', '6月18日至19日，中共中央总书记、国家主席、中央军委主席习近平在青海考察。这是18日下午，习近平在果洛西宁民族中学考察时，同师生们亲切交流。新华社记者 岳月伟 摄', '习近平强调，青海是我国少数民族分布集中的省份，要继续做好民族工作和宗教工作。全面贯彻新时代党的民族工作大政方针，坚持以铸牢中华民族共同体意识为主线，广泛开展民族团结进步创建工作，促进各民族全方位嵌入、广泛交往交流交融。全面贯彻新时代党的宗教工作理论和方针政策，坚持我国宗教中国化方向，依法加强宗教事务管理特别是宗教活动场所管理。', '习近平指出，目前正在开展党纪学习教育，要真抓实学、善始善终，以学纪知纪明纪促进遵纪守纪执纪。大力弘扬以改革创新为核心的时代精神和青藏高原精神，激励党员、干部进一步解放思想、转变观念，锐意进取、担当作为。坚持党性党风党纪一起抓、正风肃纪反腐相贯通，推进作风建设常态化长效化，持续深化整治形式主义为基层减负。完善一体推进不敢腐、不能腐、不想腐工作机制，以风清气正的政治生态引领形成正气充盈的社会生态。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>20</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>左权县委党校开展学习灵石党校办学经验交流会</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2020-06-03</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>https://swdx.sxjz.gov.cn/dxxx/content_335767</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['会上，五位赴灵石党校考察学习的教师进行了交流分享。常务副校长王丽琴表示，党校作为干部教育培训的主渠道，要切实加强党性教育内容，全面谋划教学布局，借鉴灵石县委党校办学治校的先进经验，制定本校特色的办学治校方案，乘势而上书写党校新篇章。']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>20</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>习近平在广西考察解放思想深化改革凝心聚力担当实干建设新时代中国特色社会主义壮美广西</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2021-04-29</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>https://xfj.sxjz.gov.cn/gzdt/content_365360</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['习近平在广西考察：解放思想深化改革凝心聚力担当实干 建设新时代中国特色社会主义壮美广西 _工作动态_晋中市信访局', '习近平在广西考察：解放思想深化改革凝心聚力担当实干 建设新时代中国特色社会主义壮美广西', '习近平在广西考察时强调 解放思想深化改革凝心聚力担当实干 建设新时代中国特色社会主义壮美广西', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 谢环驰 摄', '新华社南宁4月27日电 中共中央总书记、国家主席、中央军委主席习近平近日在广西考察时强调，要坚决贯彻党中央决策部署，完整、准确、全面贯彻新发展理念，坚持稳中求进工作总基调，解放思想、深化改革、凝心聚力、担当实干，统筹疫情防控和经济社会发展，统筹发展和安全，在推动边疆民族地区高质量发展上闯出新路子，在服务和融入新发展格局上展现新作为，在推动绿色发展上迈出新步伐，在巩固发展民族团结、社会稳定、边疆安宁上彰显新担当，建设新时代中国特色社会主义壮美广西。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县，乘船考察漓江阳朔段。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂考察调研。新华社记者 鞠鹏 摄', '4月25日至27日，习近平在广西壮族自治区党委书记鹿心社和自治区政府主席蓝天立陪同下，先后来到桂林、柳州、南宁等地，深入革命纪念馆、农村、企业、民族博物馆等，就贯彻党的十九届五中全会精神、开展党史学习教育、推动“十四五”开好局起好步等进行调研。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮。新华社记者 鞠鹏 摄', '25日上午，习近平来到位于桂林市全州县才湾镇的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮并三鞠躬，瞻仰“红军魂”雕塑，参观纪念馆。1934年底，为确保中共中央和中央红军主力渡过湘江，粉碎敌人围歼红军于湘江以东的企图，几万名红军将士血染湘江两岸，这一战成为事关中国革命生死存亡的重要历史事件。习近平表示，我到广西考察的第一站就来到这里，目的是在全党开展党史学习教育之际，缅怀革命先烈，赓续共产党人精神血脉，坚定理想信念，砥砺革命意志。革命理想高于天，理想信念之火一经点燃就会产生巨大的精神力量。红军将士视死如归、向死而生、一往无前、敢于压倒一切困难而不被任何困难所压倒的崇高精神，永远值得我们铭记和发扬。在实现第二个百年奋斗目标的新长征路上，我们要抱定必胜信念，勇于战胜来自国内外的各种重大风险挑战，朝着实现中华民族伟大复兴的目标奋勇前进。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆时，同工作人员亲切交谈。新华社记者 谢环驰 摄', '随后，习近平来到才湾镇毛竹山村。该村近年来积极发展葡萄种植业，有力促进了农民增收。习近平走进葡萄种植园，察看葡萄长势。农技人员正在指导村民为葡萄绑蔓、定梢，看到总书记来了，乡亲们纷纷围拢过来。习近平详细询问葡萄产量、品质、销路、价格等情况。他强调，全面推进乡村振兴，要立足特色资源，坚持科技兴农，因地制宜发展乡村旅游、休闲农业等新产业新业态，贯通产加销，融合农文旅，推动乡村产业发展壮大，让农民更多分享产业增值收益。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村，走进葡萄种植园，同农技人员和村民亲切交流。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察。新华社记者 殷博古 摄', '习近平步行察看村容村貌，并到村民王德利家中看望，同一家人围坐在一起聊家常。王德利告诉总书记，他们家种了12亩葡萄，农闲时外出务工，去年家庭收入超过14万元。习近平听了十分高兴。他指出，经过全党全国各族人民共同努力，在迎来中国共产党成立一百周年的重要时刻，我国脱贫攻坚战取得全面胜利。好日子都是奋斗出来的。希望你们依靠勤劳智慧把日子过得更有甜头、更有奔头。要注重学习科学技术，用知识托起乡村振兴。离开村子时，乡亲们高声向总书记问好。习近平向大家挥手致意。他深情地说，让人民生活幸福是“国之大者”。全面推进乡村振兴的深度、广度、难度都不亚于脱贫攻坚，决不能有任何喘口气、歇歇脚的想法，要在新起点上接续奋斗，推动全体人民共同富裕取得更为明显的实质性进展。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村村民王德利家中看望，同一家人围坐在一起聊家常。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察时，同乡亲们亲切交流。新华社记者 谢环驰 摄', '近年来，桂林市大力推进漓江“治乱、治水、治山、治本”，改善了漓江生态环境。25日下午，习近平来到桂林市阳朔县漓江杨堤码头，听取漓江流域综合治理、生态保护等情况汇报，并乘船考察漓江阳朔段。他强调，要坚持山水林田湖草沙系统治理，坚持正确的生态观、发展观，敬畏自然、顺应自然、保护自然，上下同心、齐抓共管，把保持山水生态的原真性和完整性作为一项重要工作，深入推进生态修复和环境污染治理，杜绝滥采乱挖，推动流域生态环境持续改善、生态系统持续优化、整体功能持续提升。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县漓江杨堤码头，了解漓江流域综合治理、生态保护等情况。新华社记者 申宏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县漓江杨堤码头，了解漓江流域综合治理、生态保护等情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县，乘船考察漓江阳朔段。新华社记者 申宏 摄', '26日，习近平来到桂林市象鼻山公园，远眺山水风貌，沿步道察看商业、邮政等服务设施。游客们高声欢呼：“总书记好！”习近平同大家亲切交流。他指出，桂林是一座山水甲天下的旅游名城。这是大自然赐予中华民族的一块宝地，一定要呵护好。要坚持以人民为中心，以文塑旅、以旅彰文，提升格调品位，努力创造宜业、宜居、宜乐、宜游的良好环境，打造世界级旅游城市。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在桂林市象鼻山公园考察调研。新华社记者 申宏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在桂林市象鼻山公园考察时，同游客们亲切交流。新华社记者 鞠鹏 摄', '当天下午，习近平来到柳州市考察调研。在广西柳工集团有限公司，习近平先后走进公司展厅、研发实验中心、挖掘机装配厂等，听取企业发展情况介绍，察看主要产品展示，同企业职工和技术研发人员亲切交谈。习近平强调，制造业高质量发展是我国经济高质量发展的重中之重，建设社会主义现代化强国、发展壮大实体经济，都离不开制造业，要在推动产业优化升级上继续下功夫。只有创新才能自强、才能争先，要坚定不移走自主创新道路，把创新发展主动权牢牢掌握在自己手中。要坚持党对国有企业的全面领导，坚持加强党的领导和完善公司治理相统一，在深化企业改革中搞好党的建设，充分发挥党组织在企业改革发展中的领导核心作用。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司察看产品展示。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂了解企业发展情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂，同企业职工和技术研发人员亲切交谈。新华社记者 谢环驰 摄', '随后，习近平来到柳州螺蛳粉生产集聚区，详细了解螺蛳粉特色产业促进就业、带动农民增收等情况。习近平指出，发展特色产业是地方做实做强做优实体经济的一大实招，要结合自身条件和优势，推动高质量发展。要把住质量安全关，推进标准化、品牌化。要帮助民营企业解决实际困难，鼓励、支持、引导民营企业发展壮大。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区，了解螺蛳粉生产情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区，了解螺蛳粉生产情况。新华社记者 殷博古 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区考察调研。新华社记者 鞠鹏 摄', '广西是我国少数民族人口最多的自治区。27日上午，习近平来到位于南宁市邕江之畔的广西民族博物馆，参观壮族文化展。博物馆外，三月三“歌圩节”壮族对歌等民族文化活动正在这里集中展示。习近平强调，广西是全国民族团结进步示范区，要继续发挥好示范带动作用。各民族共同团结进步、共同繁荣发展是中华民族的生命所在、力量所在、希望所在，在全面建设社会主义现代化国家的新征程上，一个民族都不能少，各族人民要心手相牵、团结奋进，共创中华民族的美好未来，共享民族复兴的伟大荣光。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆参观壮族文化展。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 申宏 摄', '当天上午，习近平听取了广西壮族自治区党委和政府工作汇报，对广西各项工作取得的成绩给予肯定，希望广西各族干部群众奋力谱写全面建设社会主义现代化国家的广西篇章，以优异成绩庆祝建党一百周年。', '习近平指出，推动经济高质量发展，既要深刻认识贯彻新发展理念、构建新发展格局对推动地方高质量发展的原则要求，又要准确把握本地区在服务和融入新发展格局中的比较优势，走出一条符合本地实际的高质量发展之路。要推动传统产业高端化、智能化、绿色化，推动全产业链优化升级，积极培育新兴产业，加快数字产业化和产业数字化。要继续深化改革，坚持“两个毫不动摇”，优化营商环境。要加大创新支持力度，优化创新生态环境，推动各类创新要素向企业集聚，激发创新活力，推动科技成果转化。要主动对接长江经济带发展、粤港澳大湾区建设等国家重大战略，融入共建“一带一路”，高水平共建西部陆海新通道，大力发展向海经济，促进中国－东盟开放合作，办好自由贸易试验区，把独特区位优势更好转化为开放发展优势。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司考察调研。新华社记者 鞠鹏 摄', '习近平强调，要弘扬伟大脱贫攻坚精神，加快推进乡村振兴，健全农村低收入人口常态化帮扶机制，继续支持脱贫地区特色产业发展，强化易地搬迁后续扶持。要立足广西林果蔬畜糖等特色资源，打造一批特色农业产业集群。要严格实行粮食安全党政同责，压实各级党委和政府保护耕地的责任，稳步提高粮食综合生产能力。要继续打好污染防治攻坚战，把碳达峰、碳中和纳入经济社会发展和生态文明建设整体布局，建立健全绿色低碳循环发展的经济体系，推动经济社会发展全面绿色转型。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村，走进葡萄种植园，同农技人员和村民亲切交流。新华社记者 殷博古 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察时，同乡亲们亲切交流。新华社记者 鞠鹏 摄', '习近平指出，要提高人民生活品质，落实就业优先战略和积极就业政策，做好高校毕业生、退役军人、农民工和城镇困难人员等重点群体就业工作。要完善多渠道灵活就业的社会保障制度，维护好卡车司机、快递小哥、外卖配送员等的合法权益。要全面贯彻党的教育方针，落实立德树人根本任务，加强对线上线下校外培训机构的规范管理。要深化疾病预防控制体系改革，强化基层公共卫生体系，创新医防协同机制，提升基层预防、治疗、护理、康复服务水平，毫不放松抓好常态化疫情防控。要严密防范各种风险挑战，有效遏制重特大安全生产事故，常态化开展扫黑除恶斗争。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 鞠鹏 摄', '习近平强调，要搞好民族团结进步宣传教育，引导各族群众牢固树立正确的国家观、历史观、民族观、文化观、宗教观，增进各族群众对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的认同，促进各民族像石榴籽一样紧紧抱在一起。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园考察。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆时，同工作人员亲切交谈。新华社记者 鞠鹏 摄', '习近平指出，广西红色资源丰富，在党史学习教育中要用好这些红色资源，做到学史增信。学史增信，就是要增强信仰、信念、信心，这是我们战胜一切强敌、克服一切困难、夺取一切胜利的强大精神力量。要增强对马克思主义、共产主义的信仰，教育引导广大党员、干部从党百年奋斗中感悟信仰的力量，始终保持顽强意志，勇敢战胜各种重大困难和严峻挑战。要增强对中国特色社会主义的信念，教育引导广大党员、干部深刻认识到，中国特色社会主义是历史发展的必然结果，是发展中国的必由之路，是经过实践检验的科学真理，始终坚定道路自信、理论自信、制度自信、文化自信。要增强对实现中华民族伟大复兴的信心，教育引导广大党员、干部牢记初心使命、增强必胜信心，坚信我们党一定能够团结带领人民在中国特色社会主义道路上实现中华民族伟大复兴，努力创造属于我们这一代人、无愧新时代的历史功绩。信仰、信念、信心是最好的防腐剂。要始终抓好党风廉政建设，使不敢腐、不能腐、不想腐一体化推进有更多的制度性成果和更大的治理成效。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>20</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>习近平在广西考察解放思想深化改革凝心聚力担当实干建设新时代中国特色社会主义壮美广西</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2021-04-28</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>https://czj.sxjz.gov.cn/gsyw/content_365168</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['习近平在广西考察：解放思想深化改革凝心聚力担当实干 建设新时代中国特色社会主义壮美广西_国省要闻_晋中市财政局', '习近平在广西考察：解放思想深化改革凝心聚力担当实干 建设新时代中国特色社会主义壮美广西', '习近平在广西考察时强调 解放思想深化改革凝心聚力担当实干 建设新时代中国特色社会主义壮美广西', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 谢环驰 摄', '新华社南宁4月27日电 中共中央总书记、国家主席、中央军委主席习近平近日在广西考察时强调，要坚决贯彻党中央决策部署，完整、准确、全面贯彻新发展理念，坚持稳中求进工作总基调，解放思想、深化改革、凝心聚力、担当实干，统筹疫情防控和经济社会发展，统筹发展和安全，在推动边疆民族地区高质量发展上闯出新路子，在服务和融入新发展格局上展现新作为，在推动绿色发展上迈出新步伐，在巩固发展民族团结、社会稳定、边疆安宁上彰显新担当，建设新时代中国特色社会主义壮美广西。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县，乘船考察漓江阳朔段。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂考察调研。新华社记者 鞠鹏 摄', '4月25日至27日，习近平在广西壮族自治区党委书记鹿心社和自治区政府主席蓝天立陪同下，先后来到桂林、柳州、南宁等地，深入革命纪念馆、农村、企业、民族博物馆等，就贯彻党的十九届五中全会精神、开展党史学习教育、推动“十四五”开好局起好步等进行调研。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮。新华社记者 鞠鹏 摄', '25日上午，习近平来到位于桂林市全州县才湾镇的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮并三鞠躬，瞻仰“红军魂”雕塑，参观纪念馆。1934年底，为确保中共中央和中央红军主力渡过湘江，粉碎敌人围歼红军于湘江以东的企图，几万名红军将士血染湘江两岸，这一战成为事关中国革命生死存亡的重要历史事件。习近平表示，我到广西考察的第一站就来到这里，目的是在全党开展党史学习教育之际，缅怀革命先烈，赓续共产党人精神血脉，坚定理想信念，砥砺革命意志。革命理想高于天，理想信念之火一经点燃就会产生巨大的精神力量。红军将士视死如归、向死而生、一往无前、敢于压倒一切困难而不被任何困难所压倒的崇高精神，永远值得我们铭记和发扬。在实现第二个百年奋斗目标的新长征路上，我们要抱定必胜信念，勇于战胜来自国内外的各种重大风险挑战，朝着实现中华民族伟大复兴的目标奋勇前进。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆时，同工作人员亲切交谈。新华社记者 谢环驰 摄', '随后，习近平来到才湾镇毛竹山村。该村近年来积极发展葡萄种植业，有力促进了农民增收。习近平走进葡萄种植园，察看葡萄长势。农技人员正在指导村民为葡萄绑蔓、定梢，看到总书记来了，乡亲们纷纷围拢过来。习近平详细询问葡萄产量、品质、销路、价格等情况。他强调，全面推进乡村振兴，要立足特色资源，坚持科技兴农，因地制宜发展乡村旅游、休闲农业等新产业新业态，贯通产加销，融合农文旅，推动乡村产业发展壮大，让农民更多分享产业增值收益。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村，走进葡萄种植园，同农技人员和村民亲切交流。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察。新华社记者 殷博古 摄', '习近平步行察看村容村貌，并到村民王德利家中看望，同一家人围坐在一起聊家常。王德利告诉总书记，他们家种了12亩葡萄，农闲时外出务工，去年家庭收入超过14万元。习近平听了十分高兴。他指出，经过全党全国各族人民共同努力，在迎来中国共产党成立一百周年的重要时刻，我国脱贫攻坚战取得全面胜利。好日子都是奋斗出来的。希望你们依靠勤劳智慧把日子过得更有甜头、更有奔头。要注重学习科学技术，用知识托起乡村振兴。离开村子时，乡亲们高声向总书记问好。习近平向大家挥手致意。他深情地说，让人民生活幸福是“国之大者”。全面推进乡村振兴的深度、广度、难度都不亚于脱贫攻坚，决不能有任何喘口气、歇歇脚的想法，要在新起点上接续奋斗，推动全体人民共同富裕取得更为明显的实质性进展。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村村民王德利家中看望，同一家人围坐在一起聊家常。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察时，同乡亲们亲切交流。新华社记者 谢环驰 摄', '近年来，桂林市大力推进漓江“治乱、治水、治山、治本”，改善了漓江生态环境。25日下午，习近平来到桂林市阳朔县漓江杨堤码头，听取漓江流域综合治理、生态保护等情况汇报，并乘船考察漓江阳朔段。他强调，要坚持山水林田湖草沙系统治理，坚持正确的生态观、发展观，敬畏自然、顺应自然、保护自然，上下同心、齐抓共管，把保持山水生态的原真性和完整性作为一项重要工作，深入推进生态修复和环境污染治理，杜绝滥采乱挖，推动流域生态环境持续改善、生态系统持续优化、整体功能持续提升。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县漓江杨堤码头，了解漓江流域综合治理、生态保护等情况。新华社记者 申宏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县漓江杨堤码头，了解漓江流域综合治理、生态保护等情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县，乘船考察漓江阳朔段。新华社记者 申宏 摄', '26日，习近平来到桂林市象鼻山公园，远眺山水风貌，沿步道察看商业、邮政等服务设施。游客们高声欢呼：“总书记好！”习近平同大家亲切交流。他指出，桂林是一座山水甲天下的旅游名城。这是大自然赐予中华民族的一块宝地，一定要呵护好。要坚持以人民为中心，以文塑旅、以旅彰文，提升格调品位，努力创造宜业、宜居、宜乐、宜游的良好环境，打造世界级旅游城市。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在桂林市象鼻山公园考察调研。新华社记者 申宏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在桂林市象鼻山公园考察时，同游客们亲切交流。新华社记者 鞠鹏 摄', '当天下午，习近平来到柳州市考察调研。在广西柳工集团有限公司，习近平先后走进公司展厅、研发实验中心、挖掘机装配厂等，听取企业发展情况介绍，察看主要产品展示，同企业职工和技术研发人员亲切交谈。习近平强调，制造业高质量发展是我国经济高质量发展的重中之重，建设社会主义现代化强国、发展壮大实体经济，都离不开制造业，要在推动产业优化升级上继续下功夫。只有创新才能自强、才能争先，要坚定不移走自主创新道路，把创新发展主动权牢牢掌握在自己手中。要坚持党对国有企业的全面领导，坚持加强党的领导和完善公司治理相统一，在深化企业改革中搞好党的建设，充分发挥党组织在企业改革发展中的领导核心作用。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司查看产品展示。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂了解企业发展情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂，同企业职工和技术研发人员亲切交谈。新华社记者 谢环驰 摄', '随后，习近平来到柳州螺蛳粉生产集聚区，详细了解螺蛳粉特色产业促进就业、带动农民增收等情况。习近平指出，发展特色产业是地方做实做强做优实体经济的一大实招，要结合自身条件和优势，推动高质量发展。要把住质量安全关，推进标准化、品牌化。要帮助民营企业解决实际困难，鼓励、支持、引导民营企业发展壮大。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区，了解螺蛳粉生产情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区，了解螺蛳粉生产情况。新华社记者 殷博古 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区考察调研。新华社记者 鞠鹏 摄', '广西是我国少数民族人口最多的自治区。27日上午，习近平来到位于南宁市邕江之畔的广西民族博物馆，参观壮族文化展。博物馆外，三月三“歌圩节”壮族对歌等民族文化活动正在这里集中展示。习近平强调，广西是全国民族团结进步示范区，要继续发挥好示范带动作用。各民族共同团结进步、共同繁荣发展是中华民族的生命所在、力量所在、希望所在，在全面建设社会主义现代化国家的新征程上，一个民族都不能少，各族人民要心手相牵、团结奋进，共创中华民族的美好未来，共享民族复兴的伟大荣光。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆参观壮族文化展。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 申宏 摄', '当天上午，习近平听取了广西壮族自治区党委和政府工作汇报，对广西各项工作取得的成绩给予肯定，希望广西各族干部群众奋力谱写全面建设社会主义现代化国家的广西篇章，以优异成绩庆祝建党一百周年。', '习近平指出，推动经济高质量发展，既要深刻认识贯彻新发展理念、构建新发展格局对推动地方高质量发展的原则要求，又要准确把握本地区在服务和融入新发展格局中的比较优势，走出一条符合本地实际的高质量发展之路。要推动传统产业高端化、智能化、绿色化，推动全产业链优化升级，积极培育新兴产业，加快数字产业化和产业数字化。要继续深化改革，坚持“两个毫不动摇”，优化营商环境。要加大创新支持力度，优化创新生态环境，推动各类创新要素向企业集聚，激发创新活力，推动科技成果转化。要主动对接长江经济带发展、粤港澳大湾区建设等国家重大战略，融入共建“一带一路”，高水平共建西部陆海新通道，大力发展向海经济，促进中国－东盟开放合作，办好自由贸易试验区，把独特区位优势更好转化为开放发展优势。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司考察调研。新华社记者 鞠鹏 摄', '习近平强调，要弘扬伟大脱贫攻坚精神，加快推进乡村振兴，健全农村低收入人口常态化帮扶机制，继续支持脱贫地区特色产业发展，强化易地搬迁后续扶持。要立足广西林果蔬畜糖等特色资源，打造一批特色农业产业集群。要严格实行粮食安全党政同责，压实各级党委和政府保护耕地的责任，稳步提高粮食综合生产能力。要继续打好污染防治攻坚战，把碳达峰、碳中和纳入经济社会发展和生态文明建设整体布局，建立健全绿色低碳循环发展的经济体系，推动经济社会发展全面绿色转型。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村，走进葡萄种植园，同农技人员和村民亲切交流。新华社记者 殷博古 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察时，同乡亲们亲切交流。新华社记者 鞠鹏 摄', '习近平指出，要提高人民生活品质，落实就业优先战略和积极就业政策，做好高校毕业生、退役军人、农民工和城镇困难人员等重点群体就业工作。要完善多渠道灵活就业的社会保障制度，维护好卡车司机、快递小哥、外卖配送员等的合法权益。要全面贯彻党的教育方针，落实立德树人根本任务，加强对线上线下校外培训机构的规范管理。要深化疾病预防控制体系改革，强化基层公共卫生体系，创新医防协同机制，提升基层预防、治疗、护理、康复服务水平，毫不放松抓好常态化疫情防控。要严密防范各种风险挑战，有效遏制重特大安全生产事故，常态化开展扫黑除恶斗争。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 鞠鹏 摄', '习近平强调，要搞好民族团结进步宣传教育，引导各族群众牢固树立正确的国家观、历史观、民族观、文化观、宗教观，增进各族群众对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的认同，促进各民族像石榴籽一样紧紧抱在一起。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园考察。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆时，同工作人员亲切交谈。新华社记者 鞠鹏 摄', '习近平指出，广西红色资源丰富，在党史学习教育中要用好这些红色资源，做到学史增信。学史增信，就是要增强信仰、信念、信心，这是我们战胜一切强敌、克服一切困难、夺取一切胜利的强大精神力量。要增强对马克思主义、共产主义的信仰，教育引导广大党员、干部从党百年奋斗中感悟信仰的力量，始终保持顽强意志，勇敢战胜各种重大困难和严峻挑战。要增强对中国特色社会主义的信念，教育引导广大党员、干部深刻认识到，中国特色社会主义是历史发展的必然结果，是发展中国的必由之路，是经过实践检验的科学真理，始终坚定道路自信、理论自信、制度自信、文化自信。要增强对实现中华民族伟大复兴的信心，教育引导广大党员、干部牢记初心使命、增强必胜信心，坚信我们党一定能够团结带领人民在中国特色社会主义道路上实现中华民族伟大复兴，努力创造属于我们这一代人、无愧新时代的历史功绩。信仰、信念、信心是最好的防腐剂。要始终抓好党风廉政建设，使不敢腐、不能腐、不想腐一体化推进有更多的制度性成果和更大的治理成效。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>20</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>习近平在浙江考察时强调</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/ywkx/content_477695</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察', '始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察', '习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察 蔡奇陪同考察', '始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察 蔡奇陪同考察', '新华社浙江杭州/山东枣庄9月25日电 中共中央总书记、国家主席、中央军委主席习近平近日在浙江考察时强调，要完整准确全面贯彻新发展理念，围绕构建新发展格局、推动高质量发展，聚焦建设共同富裕示范区、打造新时代全面展示中国特色社会主义制度优越性的重要窗口，坚持一张蓝图绘到底，持续推动“八八战略”走深走实，始终干在实处、走在前列、勇立潮头，奋力谱写中国式现代化浙江新篇章。', '9月20日至21日，习近平在浙江省委书记易炼红和省长王浩陪同下，先后来到金华、绍兴等地，深入农村、商贸市场、陈列馆、文化园区等进行调研。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察。新华社记者 谢环驰 摄', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察。新华社记者 李学仁 摄', '20日上午，习近平来到金华市义乌市后宅街道李祖村考察调研。近年来，李祖村人居环境大为改善，各类创业主体纷纷进驻，乡村旅游十分红火，被评为全国文明村。习近平先后在村党群服务中心、“共富市集”、扎染商铺等场所了解李祖村发展变化情况。得知李祖村年人均收入达到5.2万元，习近平十分高兴。他说，李祖村扎实推进共同富裕，是浙江“千万工程”显著成效的一个缩影，要再接再厉，在推动乡村振兴上取得更大成绩。乡村振兴为年轻人提供了展现才华的用武之地，希望更多的年轻人为乡村振兴发挥积极作用。离开村子时，当地群众簇拥到总书记身旁，热情欢送总书记。习近平对大家说，乡村振兴潜力无限、大有可为，乡亲们要努力奋斗，一起奔向共同富裕的美好明天。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在义乌国际商贸城考察时，同商户亲切交流。新华社记者 李学仁 摄', '随后，习近平来到义乌国际商贸城考察。他通过电子屏幕实时了解商贸城运营及“义新欧”班列运行情况，并走进市场同商户、小企业主代表亲切交流，详细询问市场行情。他强调，义乌小商品闯出了大市场、做成了大产业，走到这一步很了不起，每个人都是参与者、建设者、贡献者。商贸城要再创新辉煌，为拓展国内国际市场、畅通国内国际双循环作出更大贡献。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在义乌国际商贸城考察时，同商户、小企业主代表亲切交流。新华社记者 李学仁 摄', '今年是毛泽东同志批示学习推广“枫桥经验”60周年。20日下午，习近平来到“枫桥经验”发源地诸暨市枫桥镇，参观枫桥经验陈列馆，了解新时代“枫桥经验”的生动实践。习近平指出，要坚持好、发展好新时代“枫桥经验”，坚持党的群众路线，正确处理人民内部矛盾，紧紧依靠人民群众，把问题解决在基层、化解在萌芽状态。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在诸暨市枫桥镇枫桥经验陈列馆，同当地群众亲切交流。新华社记者 燕雁 摄', '随后，习近平乘车来到位于绍兴的浙东运河文化园考察。他步行察看古运河河道和周边历史文化遗存，详细了解浙东运河发展演变史和当地合理利用水资源、推进大运河保护等情况。习近平强调，大运河是世界上最长的人工运河，是十分宝贵的文化遗产。大运河文化是中国优秀传统文化的重要组成部分，要在保护、传承、利用上下功夫，让古老大运河焕发时代新风貌。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在绍兴市浙东运河文化园考察。新华社记者 谢环驰 摄', '21日下午，习近平听取了浙江省委和省政府工作汇报，对浙江各项工作取得的成绩给予肯定，对浙江提出了新要求。', '习近平指出，浙江要在以科技创新塑造发展新优势上走在前列。要把增强科技创新能力摆到更加突出的位置，整合科技创新力量和优势资源，在科技前沿领域加快突破。强化企业科技创新主体地位，推动创新链产业链资金链人才链深度融合，加快科技成果落地转化。把实体经济作为构建现代化产业体系的根基，引导和支持传统产业加快应用先进适用技术，推动制造业高端化、智能化、绿色化发展。深化国家数字经济创新发展试验区建设，打造一批具有国际竞争力的战略性新兴产业集群和数字产业集群。加强科技基础能力建设，深化科技体制改革，打造科创高地。从全球视野布局产业链供应链建设，不断提升产业链供应链韧性和安全水平。坚定不移推动发展方式绿色转型，建立完善绿色低碳循环发展的经济体系。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察时，同群众亲切交流。新华社记者 李学仁 摄', '习近平强调，浙江要在推进共同富裕中先行示范。要把缩小城乡差距、地区差距、收入差距作为主攻方向，进一步健全城乡融合发展体制机制。坚持就业优先政策，在推动传统产业转型升级和发展新兴产业中注重扩大就业容量，解决好重点群体就业问题。深化收入分配制度改革，健全多层次社会保障体系。全面推进乡村振兴，积极发展乡村特色产业，深化“千村示范、万村整治”工程。加强平安浙江、法治浙江建设，在推进基层治理体系和治理能力现代化上创造更多经验。', '习近平指出，浙江要在深化改革、扩大开放上续写新篇。要以重点领域改革为牵引，全面推进各领域体制机制创新。以服务全国、放眼全球的视野来谋划改革，稳步扩大规则、规制、管理、标准等制度型开放。发挥各种开放平台的功能作用，创新利用外资、做大外贸的方法和渠道。主动适应国际经贸规则重构走向，在服务业开放、数字化发展、环境保护等方面先行先试。坚持“两个毫不动摇”、“三个没有变”，鼓励和支持民营企业积极参与全球范围产业分工和资源配置，提升核心竞争力。', '习近平强调，浙江要在建设中华民族现代文明上积极探索。要更好担负起新时代新的文化使命，赓续历史文脉，加强文化遗产保护，推动优秀传统文化创造性转化、创新性发展。坚守中华文化立场，积极发展反映时代要求、具有时代特色的新文化，发展中华文明的现代形态。弘扬伟大建党精神，广泛培育和践行社会主义核心价值观，发展社会主义先进文化。繁荣发展文化事业和文化产业，持续推进城乡公共文化服务标准化、均等化，加强公民道德建设，推进书香社会建设。运用杭州亚运会亚残运会、世界互联网大会等窗口加强文化交流传播，不断提升中国文化感染力和中华文明影响力。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在绍兴市浙东运河文化园考察。新华社记者 李学仁 摄', '习近平指出，要坚持和加强党的全面领导、加强和改进党的建设。树立正确政绩观，坚持立足实际、科学决策，坚持着眼长远、打牢基础，坚持干在实处、务求实效，防止形式主义、官僚主义。加强干部教育培训和实践锻炼，健全干部担当作为激励保护机制，激发干部干事创业活力，构建亲清统一的新型政商关系。各级党组织要加强对第二批主题教育的组织领导和工作指导，把握不同层级、不同领域、不同对象的特点，结合实际，分类指导，上下联动抓整改，让群众看到实效。', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园了解石榴产业发展情况。新华社记者 燕雁 摄', '9月24日下午，在返京途中，习近平在山东省委书记林武和省长周乃翔陪同下来到枣庄市考察。枣庄是我国石榴集中连片种植面积最大、品种最多、产业链最完整的地区之一。习近平来到位于峄城区的冠世榴园石榴种质资源库，察看石榴树种，了解当地石榴种植历史、种质资源收集保存和产业发展情况，并来到石榴种植园中向老乡们询问今年石榴种植、收获和收入情况。得知当地大力发展石榴深加工和石榴盆栽培育有力带动了农民增收，习近平很高兴。他指出，人们生活水平在提高，优质特产市场需求在增长，石榴产业有发展潜力。要做好品牌、提升品质，延长产业链，增强产业市场竞争力和综合效益，带动更多乡亲共同致富。祝乡亲们生活像石榴果一样红红火火。', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园同老乡们亲切交流。新华社记者 燕雁 摄', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园同老乡们亲切交流。新华社记者 谢环驰 摄', '李干杰、何立峰、王小洪及中央和国家机关有关部门负责同志陪同分别参加上述有关活动，主题教育中央第五巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>20</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>习近平在上海考察</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2018-11-08</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>https://czj.sxjz.gov.cn/gsyw/content_253399</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['习近平在上海考察时强调 坚定改革开放再出发信心和决心 加快提升城市能级和核心竞争力', '新华社上海11月7日电 中共中央总书记、国家主席、中央军委主席习近平近日在上海考察时强调，坚决贯彻落实党中央决策部署，坚定改革开放再出发的信心和决心，坚持稳中求进工作总基调，全面贯彻新发展理念，坚持以供给侧结构性改革为主线，加快建设现代化经济体系，打好三大攻坚战，加快提升城市能级和核心竞争力，更好为全国改革发展大局服务。', '11月6日至7日，习近平在出席首届中国国际进口博览会开幕式和相关活动后，在中共中央政治局委员、上海市委书记李强和市长应勇陪同下，深入上海的企业、社区、城市运行综合管理中心、高新科技园区，就贯彻落实党的十九大精神和当前经济形势、推进科技创新、加强城市管理和社区治理进行调研。', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日上午，习近平在上海中心大厦22层的陆家嘴金融城党建服务中心，同正在联合开展主题党日活动的企业党员亲切交谈。新华社记者 谢环驰 摄', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日上午，习近平在上海中心大厦22层的陆家嘴金融城党建服务中心，详细了解中心开展党建工作等情况。新华社记者 李涛 摄', '位于陆家嘴的上海中心大厦建筑总高度632米，是已建成的中国第一、世界第二高楼，是上海的一座标志性建筑。2007年，习近平在上海工作期间，十分重视上海中心大厦建设，多次到陆家嘴地区实地调研，亲自研究陆家嘴地区规划，亲自审定上海中心大厦设计方案，推动相关工作，要求把上海中心大厦建设成为绿色、智慧、人文的国际一流精品工程。大厦22层的陆家嘴金融城党建服务中心，是陆家嘴金融贸易区综合党委建立的楼宇党建阵地。6日上午，习近平来到这里，详细了解中心开展党建工作等情况。在党建服务中心的空中花园研讨交流区，3家企业党支部正在联合开展“我与金融城共成长”主题党日活动，习近平来到他们中间，同他们亲切交谈。习近平充分肯定上海从陆家嘴金融城产业集聚、企业汇聚、人才广聚的实际出发，创新党建工作思路和模式，为楼宇内各种所有制企业的基层党组织和党员提供学习指导、管理服务、活动平台的做法。习近平指出，党建工作的难点在基层，亮点也在基层。随着经济成分和就业方式越来越多样化，在新经济组织、新社会组织就业的党员越来越多，要做好其中的党员教育管理工作，引导他们积极发挥作用。基层党建既要发扬优良传统，又要与时俱进，不断适应新形势，拓宽基层党建的领域，做到党员工作生活在哪里、党组织就覆盖到哪里，让党员无论在哪里都能找到组织找到家。希望上海在加强基层党建工作上继续探索、走在前头。我们在有党员的各类企业里建立党组织，目的是为企业的党员提供管理和服务，团结凝聚员工遵纪守法，遵守企业规章制度，发挥党员先锋模范作用。这也有利于企业加强管理，有利于推动企业健康发展。', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日上午，习近平在上海中心大厦119层观光厅俯瞰上海城市风貌。新华社记者 李学仁 摄', '随后，习近平来到119层观光厅，俯瞰上海城市风貌。东方明珠、环球金融中心、金茂大厦、杨浦大桥、世博园区……一处处经典建筑铺展成一幅壮美长卷。大厅内，一幅幅照片今昔对比，生动展示上海百年沧桑巨变。习近平不时驻足观看，同大家交流，回顾上海城市发展历程。他表示，改革开放以来，中国发生了翻天覆地的变化，上海就是一个生动例证。上海是我国最大的经济中心城市和长三角地区合作交流的龙头，要不断提高城市核心竞争力和国际竞争力。要发扬“海纳百川、追求卓越、开明睿智、大气谦和”的上海城市精神，立足上海实际，借鉴世界大城市发展经验，着力打造社会主义现代化国际大都市。', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日上午，习近平在虹口区市民驿站嘉兴路街道第一分站察看综合服务窗口。新华社记者 李涛 摄', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日上午，习近平在虹口区市民驿站嘉兴路街道第一分站托老所同老年居民亲切交谈。新华社记者 李涛 摄', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日上午，习近平在虹口区市民驿站嘉兴路街道第一分站，同几位正在交流社区推广垃圾分类的做法的年轻人亲切交谈。新华社记者 李涛 摄', '上海虹口区人口密度大。为满足居民社区生活各方面需求，虹口区设置了35个市民驿站，努力打造“15分钟社区生活服务圈”。习近平走进虹口区市民驿站嘉兴路街道第一分站，逐一察看综合服务窗口、托老所、党建工作站等。托老所内，几位老年居民正在制作手工艺品，总书记亲切向他们问好，老人们激动地握着总书记的手，向总书记讲述自己的幸福晚年。习近平指出，我国已经进入老龄社会，让老年人老有所养、生活幸福、健康长寿是我们的共同愿望。党中央高度重视养老服务工作，要把政策落实到位，惠及更多老年人。市民驿站里，来自居委会、企业的几位年轻人正在交流社区推广垃圾分类的做法。习近平十分感兴趣，仔细询问有关情况。一位年轻人介绍说公益活动已经成为新时尚。习近平强调，垃圾分类工作就是新时尚！垃圾综合处理需要全民参与，上海要把这项工作抓紧抓实办好。习近平叮嘱他们，城市治理的“最后一公里”就在社区。社区是党委和政府联系群众、服务群众的神经末梢，要及时感知社区居民的操心事、烦心事、揪心事，一件一件加以解决。老百姓心里有杆秤。我们把老百姓放在心中，老百姓才会把我们放在心中。加强社区治理，既要发挥基层党组织的领导作用，也要发挥居民自治功能，把社区居民积极性、主动性调动起来，做到人人参与、人人负责、人人奉献、人人共享。临别时，闻讯赶来的居民簇拥在总书记身边，争相同总书记握手。', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日下午，习近平在浦东新区城市运行综合管理中心了解上海城市精细化管理和国际贸易单一窗口运营情况。新华社记者 李学仁 摄', '6日下午，习近平来到浦东新区城市运行综合管理中心，通过大屏幕了解上海城市精细化管理和国际贸易单一窗口运营情况。习近平强调，城市治理是国家治理体系和治理能力现代化的重要内容。一流城市要有一流治理，要注重在科学化、精细化、智能化上下功夫。既要善于运用现代科技手段实现智能化，又要通过绣花般的细心、耐心、巧心提高精细化水平，绣出城市的品质品牌。上海要继续探索，走出一条中国特色超大城市管理新路子，不断提高城市管理水平。', '习近平一直关心洋山港建设和发展，在这里还视频连线洋山港四期自动化码头，听取码头建设和运营情况介绍。他指出，经济强国必定是海洋强国、航运强国。洋山港建成和运营，为上海加快国际航运中心和自由贸易试验区建设、扩大对外开放创造了更好条件。要有勇创世界一流的志气和勇气，要做就做最好的，努力创造更多世界第一。他希望上海把洋山港建设好、管理好、发展好，加强软环境建设，不断提高港口运营管理能力、综合服务能力，在我国全面扩大开放、共建“一带一路”中发挥更大作用。', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日下午，习近平在张江科学城展示厅考察，了解上海科技创新和科技成果转化情况。新华社记者 谢环驰 摄', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日下午，习近平在张江科学城展示厅考察时，同在场的科技工作者亲切交谈。新华社记者 李学仁 摄', '张江科学城作为上海科创中心核心区和国家级科技高地，集聚了一批大科学设施、科学平台和一流创新型院所。在展示厅，习近平听取科学城发展历程及规划建设情况介绍，参观了大科学设施、集成电路、航空航天、生物医药等展区。习近平同在场的科技工作者亲切交谈，他强调，科学技术从来没有像今天这样深刻影响着国家前途命运，从来没有像今天这样深刻影响着人民生活福祉。在实现中华民族伟大复兴的关键时刻，要增强科技创新的紧迫感和使命感，把科技创新摆到更加重要位置，踢好“临门一脚”，让科技创新在实施创新驱动发展战略、加快新旧动能转换中发挥重大作用。要认真落实党中央关于科技创新的战略部署和政策措施，加强基础研究和应用基础研究，提升原始创新能力，注重发挥企业主体作用，加强知识产权保护，尊重创新人才，释放创新活力，培育壮大新兴产业和创新型企业，加快科技成果转化，提升创新体系整体效能。要以全球视野、国际标准推进张江综合性国家科学中心建设，集聚建设国际先进水平的实验室、科研院所、研发机构、研究型大学，加快建立世界一流的重大科技基础设施集群。', '7日下午，习近平听取了上海市委和市政府工作汇报，对上海各方面工作给予肯定。他希望上海继续当好全国改革开放排头兵、创新发展先行者，勇于挑最重的担子、啃最难啃的骨头，发挥开路先锋、示范引领、突破攻坚的作用，为全国改革发展作出更大贡献。', '习近平强调，中华民族伟大复兴绝不是轻轻松松、敲锣打鼓就能实现的，必须进行具有许多新的历史特点的伟大斗争。我们仍然处在大有可为的历史机遇期，前景十分光明，挑战也十分严峻。现在，我国发展外部环境发生明显变化，我国经济已由高速增长阶段转向高质量发展阶段，发展不平衡不充分问题和各种周期性、结构性、体制性因素交织叠加在一起，加大了工作难度。但是，只要我们保持战略定力，集中精力办好自己的事情，我们认准的目标就一定能实现。', '习近平强调，上海在党和国家工作全局中具有十分重要的地位，做好上海工作要有大局意识、全局观念，在服务全国中发展上海。习近平对上海提出了5个方面的工作要求。', '一是更好为全国改革发展大局服务。要把增设上海自由贸易试验区新片区、在上海证券交易所设立科创板并试点注册制、实施长江三角洲区域一体化发展国家战略这3项新的重大任务完成好，坚持推动高质量发展的要求，构筑新时代上海发展的战略优势。要按照国家统一规划、统一部署，全力服务“一带一路”建设、长江经济带发展等国家战略。要在推动长三角更高质量一体化发展中进一步发挥龙头带动作用，把长三角一体化发展的文章做好，使之成为我国发展强劲活跃的增长极。', '二是推动经济高质量发展。要主动推动质量变革、效率变革、动力变革，在提高城市经济密度、提高投入产出效率上下功夫，在提升配置全球资源能力上下功夫，在增强创新策源能力上下功夫，加快建设现代化经济体系。要瞄准世界科技前沿，加强科技创新前瞻布局，聚焦关键领域，集合精锐力量，尽早取得重大突破，使创新成为高质量发展的强大动能。要把高质量发展着力点放在实体经济上，加快建设实体经济、科技创新、现代金融、人力资源协同发展的产业体系，全面提升上海在全球城市体系中的影响力和竞争力。', '三是推动改革开放向纵深发展。要进一步解放思想，准确识变、科学应变、主动求变，坚决破除条条框框、思维定势的束缚，深入推进重要领域和关键环节改革，加强系统集成，继续抓好国资国企、民营经济、商事制度、社会信用、人才发展、城市管理、民生保障等改革举措的完善和落实，放大改革综合效应。要深化资本市场改革，吸引培育本土更多科创企业发展壮大。要瞄准最高标准、最高水平，优化政务服务，打造国际一流营商环境。要在更深层次、更宽领域、以更大力度推进全方位高水平开放，为长远发展夯实基础。要带头贯彻鼓励、支持、引导民营企业发展的政策举措，为民营企业发展创造良好制度环境。', '四是深化社会治理创新。要提高社会治理社会化、法治化、智能化、专业化水平，更加注重在细微处下功夫、见成效。要坚持以人民为中心的发展思想，坚持共建共治共享，坚持重心下移、力量下沉，着力解决好人民群众关心的就业、教育、医疗、养老等突出问题，不断提高基本公共服务水平和质量，让群众有更多获得感、幸福感、安全感。', '五是提高党的建设质量和水平。要认真贯彻新时代党的建设总要求，坚持党要管党、全面从严治党，全面推进党的政治建设、思想建设、组织建设、作风建设、纪律建设。要坚持严字当头、全面从严、一严到底，严格落实管党治党责任。要贯彻新时代党的组织路线，坚持把政治标准作为第一标准，建设忠诚干净担当的高素质干部队伍，确保干部队伍政治上信得过、靠得住、能放心。要不断提高思想觉悟和理论水平，坚定理想信念，不断增强“四个意识”、坚定“四个自信”，补足精神之钙，把稳思想之舵。要加快培养各领域各方面的专业人才，引导干部自觉更新知识、提高本领，经风雨、见世面、壮筋骨、长才干。要广开进贤之路，广泛集聚各方面优秀人才。要加强党的基层组织建设，把资源、服务、管理下沉基层、做实基层，把每个基层党组织建设成为坚强战斗堡垒。要高度重视意识形态工作，弘扬社会主义核心价值观，弘扬正能量。', '11月6日至7日，中共中央总书记、国家主席、中央军委主席习近平在上海考察。这是6日，习近平在上海亲切接见驻沪部队副师职以上领导干部和团级单位主官，代表党中央和中央军委向驻沪部队全体官兵致以诚挚问候。新华社记者 李刚 摄', '考察期间，习近平在上海亲切接见驻沪部队副师职以上领导干部和团级单位主官，代表党中央和中央军委向驻沪部队全体官兵致以诚挚问候。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>20</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>国侨办第期侨领研习班来我学习考察</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2017-11-15</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>https://wlj.sxjz.gov.cn/gzdt/content_202183</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['11月12日—13日，国侨办“第55期侨领研习班”到我市接受国情教育，感悟晋商精髓，体验家国风采，来自欧非29个国家和地区的60名华侨华人社团负责人参加。期间，研习班一行参观了我市富有浓郁晋商文化气息的平遥古城和常家庄园，观看了展现晋商诚信道义精神的《又见平遥》，学员们纷纷对晋商家国文化、儒学道义的传承表示赞叹，对晋商仁德、诚信、守信、互助等优秀品质给予高度评价，一致认为此次考察学有所得、收获颇丰、效果显著、不虚此行。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>20</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>习近平在陕西榆林考察时强调解放思想改革创新再接再厉谱写陕西高质量发展新篇章</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2021-09-16</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>https://xfj.sxjz.gov.cn/gzdt/content_381097</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['习近平在陕西榆林考察时强调：解放思想改革创新再接再厉 谱写陕西高质量发展新篇章_工作动态_晋中市信访局', '新华社榆林9月15日电 中共中央总书记、国家主席、中央军委主席习近平近日在陕西省榆林市考察时强调，要坚决落实党中央决策部署，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，弘扬光荣革命传统，解放思想、改革创新、再接再厉，切实抓好统筹疫情防控和经济社会发展各项工作，更好统筹发展和安全，更好服务和融入新发展格局，谱写陕西高质量发展新篇章。', '9月13日至14日，习近平在陕西省委书记刘国中、省长赵一德陪同下，深入企业、农村、学校、革命旧址等进行调研。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日上午，习近平在国家能源集团榆林化工有限公司中心控制室考察。新华社记者 李学仁 摄', '13日上午，习近平首先来到国家能源集团榆林化工有限公司，了解循环经济煤炭综合利用项目规划建设运行情况。在中心控制室，习近平观看项目产品展示，对企业坚持创新发展，坚持安全、稳定、清洁运行的做法表示肯定。随后，习近平到年产40万吨乙二醇项目现场察看，询问煤化工深度发展有关情况，同企业职工代表亲切交流。他强调，榆林是国家重要能源基地，为国家经济社会发展作出了重要贡献。煤炭作为我国主体能源，要按照绿色低碳的发展方向，对标实现碳达峰、碳中和目标任务，立足国情、控制总量、兜住底线，有序减量替代，推进煤炭消费转型升级。煤化工产业潜力巨大、大有前途，要提高煤炭作为化工原料的综合利用效能，促进煤化工产业高端化、多元化、低碳化发展，把加强科技创新作为最紧迫任务，加快关键核心技术攻关，积极发展煤基特种燃料、煤基生物可降解材料等。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日上午，习近平在国家能源集团榆林化工有限公司考察时，同企业职工代表亲切交流。新华社记者 燕雁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日上午，习近平在国家能源集团榆林化工有限公司年产40万吨乙二醇项目现场考察。新华社记者 李学仁 摄', '13日下午，习近平前往米脂县银州街道高西沟村考察调研。山谷间果园、林地、梯田、淤地坝错落有致，初秋的黄土高原一片绿意盎然。途中，习近平临时下车走进田间，察看谷子、糜子、玉米长势，同正在田间劳作的老乡拉家常，询问他们生产经营、家庭收入、医疗保障、子女上学就业等情况。在高西沟村龙头山山顶，习近平听取了陕西省生态文明建设和高西沟村探索黄土丘陵沟壑区综合治理情况介绍。习近平指出，高西沟村是黄土高原生态治理的一个样板，你们坚持不懈开展生态文明建设、与时俱进发展农村事业，路子走的是对的。要深入贯彻绿水青山就是金山银山的理念，把生态治理和发展特色产业有机结合起来，走出一条生态和经济协调发展、人与自然和谐共生之路。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日下午，习近平在米脂县银州街道高西沟村临时下车，察看粮食作物长势，同正在田间劳作的老乡拉家常。新华社记者 李学仁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日下午，习近平在米脂县银州街道高西沟村龙头山山顶，考察黄土丘陵沟壑区综合治理情况。新华社记者 谢环驰 摄', '离开高西沟村，习近平来到位于米脂县城东南的杨家沟革命旧址。1947年底，毛泽东同志率领中央机关来到杨家沟村，在这里战斗生活了4个多月，指挥了全国解放战争和西北战场，领导开展土地改革运动。习近平参观中共中央“十二月会议”旧址、毛泽东旧居、周恩来旧居等，追忆革命历史，缅怀革命先辈丰功伟绩。习近平强调，政策和策略是党的生命。一百年来，我们党之所以能够统一思想、统一步调、团结一致向前进，之所以能够取得革命、建设、改革的伟大胜利和辉煌成就，就在于我们党坚持马克思主义指导，高瞻远瞩、见微知著，既解决现实问题，又解决战略问题，准确判断和把握形势，制定切合实际的目标任务、政策策略。要始终坚持和完善党的领导，不断提高党科学执政、民主执政、依法执政水平，充分发挥党总揽全局、协调各方的领导核心作用。要坚持马克思主义基本原理，用马克思主义观察时代、把握时代、引领时代，同时坚持实事求是，从我国实际出发，不断推进马克思主义中国化、时代化。习近平指出，要充分运用红色资源，深化党史学习教育，赓续红色血脉。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是13日下午，习近平在米脂县杨家沟革命旧址考察。新华社记者 谢环驰 摄', '14日上午，习近平前往中共绥德地委旧址，仔细察看旧址布局和部分复原场景，参观有关专题展陈。习近平指出，回顾这段厚重的革命历史，老一辈革命家坚持“党的利益在第一位”，坚持“站在最大多数劳动人民的一面”，坚持“把屁股端端地坐在老百姓的这一面”，有着重大教育意义。中国共产党领导人民取得革命胜利，是赢得了民心，是亿万人民群众坚定选择站在我们这一边。我们要继承发扬革命传统和优良作风，始终把人民利益放在最高位置，不忘初心、牢记使命，贯彻党的群众路线，尊重人民主体地位，始终同人民站在一起、想在一起、干在一起。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平在中共绥德地委旧址考察。新华社记者 李学仁 摄', '随后，习近平来到绥德实验中学，先后走进教室、操场，观看同学们书法练习和体育锻炼，同大家亲切交流。他指出，中华文明源远流长、绵延不断，基础在教育。实现中华民族伟大复兴，基础在教育。我们办教育，就是要提高人民综合素质，促进人的全面发展，提升社会文明程度，坚定文化自信，增强全民族创造活力。要全面贯彻党的教育方针，落实立德树人根本任务，厚植爱党、爱国、爱人民、爱社会主义的情感，努力培养德智体美劳全面发展的社会主义建设者和接班人。要深化教育教学改革，强化学校教育主阵地作用，全面提高学校教学质量，真正把过重的学业负担和校外培训负担减下来，办好人民满意的教育。最后，习近平勉励同学们珍惜大好年华，修身立德、勤学上进、强健体魄、锤炼意志，做对国家、对人民、对社会有用的人。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平在绥德实验中学考察时，同正在练习书法的学生亲切交流。新华社记者 李学仁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平在绥德实验中学考察时，同师生亲切交流。新华社记者 谢环驰 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平同绥德实验中学的学生在一起。新华社记者 李学仁 摄', '陕西历史悠久，文化遗产丰厚。习近平来到绥德县非物质文化遗产陈列馆，观摩石雕、绥德平安书、剪纸、民歌、泥塑等展示，对当地传统文化保护和传承工作表示肯定。陈列馆外，正在进行陕北秧歌表演。习近平向现场群众问好。他指出，绥德是黄土文化的重要发源地之一，非物质文化遗产资源丰富，孕育发展了优秀民间艺术，展现了陕北人民的热情、质朴、豪迈。民间艺术是中华民族的宝贵财富，保护好、传承好、利用好老祖宗留下来的这些宝贝，对延续历史文脉、建设社会主义文化强国具有重要意义。要坚持以社会主义核心价值观为引领，坚持创造性转化、创新性发展，找到传统文化和现代生活的连接点，不断满足人民日益增长的美好生活需要。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日上午，习近平在绥德县非物质文化遗产陈列馆，同群众亲切交流。新华社记者 谢环驰 摄', '位于绥德县城西南的张家砭镇郝家桥村，是绥德地委在抗战时期经过调查研究发现的一个模范村，通过开展“村村学习郝家桥，人人学习刘玉厚”活动，掀起了大生产热潮。党的十八大以来，郝家桥村积极发展特色产业，村容村貌和村民生活发生了深刻变化，荣获“全国脱贫攻坚楷模”荣誉称号。14日下午，习近平来到这里，详细观看村史展览，了解这个“红色山村”的光荣革命历史以及革命传统传承情况。随后，习近平来到村民侯志荣家中看望。侯志荣一家曾经因病致贫，靠着各级帮扶和自身努力2016年摆脱贫困。习近平强调，看到你们一家人日子越过越好、人丁兴旺，我感到很欣慰。让乡亲们过好光景，是我们党始终不渝的初心使命，共产党就要把这件事情干好，不断交上好答卷。全党全国全社会都要大力弘扬脱贫攻坚精神，奋发图强、自力更生，不断夺取全面建设社会主义现代化国家新的更大胜利。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村，看望村民侯志荣一家。新华社记者 李学仁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村考察。新华社记者 谢环驰 摄', '在村果蔬大棚基地，习近平仔细了解该村产业规划发展情况，走进大棚察看葡萄长势。在村互助幸福院、村卫生站，习近平同村里的老人、医护人员等亲切交流。他指出，来到郝家桥，我深受教育和启发。山沟沟能走出致富路、过上好日子，靠的是政策好、人努力、天帮忙。这里能做到的，其他地方也应该能做到。重要的是深入调查研究，摸准情况、吃透问题、找到办法、总结经验，持续发挥典型引领示范作用，建好党支部、选好带头人，把基层党组织战斗堡垒作用充分发挥出来。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村互助幸福院，同村里的老人亲切交流。新华社记者 李学仁 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村卫生站同村里的老人、医护人员亲切交流。新华社记者 李学仁 摄', '离开村子时，习近平深情对乡亲们说，无论是革命战争年代的大生产运动，还是新时代的脱贫攻坚战，郝家桥人始终勤劳奋进、开拓创新。希望你们继续发扬优良传统，感党恩、听党话、跟党走，敢为人先、奋力拼搏，努力把郝家桥村建设成为乡村振兴的楷模。', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村，同乡亲们亲切交流。新华社记者 谢环驰 摄', '9月13日至14日，中共中央总书记、国家主席、中央军委主席习近平在陕西省榆林市考察。这是14日下午，习近平在绥德县张家砭镇郝家桥村考察时，向乡亲们挥手致意。新华社记者 谢环驰 摄', '在第四个“中国农民丰收节”到来之际 习近平向全国广大农民和工作在“三农”战线上的同志们致以节日祝贺和诚挚慰问']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>20</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>刘星出席山西晋中长三角精准招商推介会专场活动并学习考察医疗健康等产业</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2024-05-14</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/bssz/content_502158</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['刘星出席2024山西·晋中长三角精准招商推介会专场活动并学习考察医疗健康等产业 以精准招商为培育新质生产力蓄势赋能', '5月11日至12日，市委副书记、市长刘星出席2024山西·晋中长三角精准招商推介会专场活动，并学习考察医疗健康等产业。他强调，要深入学习贯彻习近平总书记对山西工作的重要讲话重要指示精神，认真落实省委、省政府决策部署，锚定“156”战略举措，以更加开放的姿态、更加迅速的行动、更加务实的举措，以精准招商蓄势赋能，加快培育新质生产力，为奋力谱写中国式现代化晋中篇章提供有力支撑。副市长王帮富参加专场活动。', '刘星先后参加医疗器械产业、特钢产业、碳基材料产业、煤机机器人、低空经济产业专场推介对接活动，与长三角地区企业深入开展交流洽谈，全力推动意向合作项目加快落地。刘星指出，到长三角先进地区开展招商推介活动，机遇难得、影响力大、带动性强。综改区晋中开发区和各相关县（市）要充分运用好招商活动平台，突出“精准”二字，有的放矢“走出去”“引进来”，大招商、招大商，充分展示地方产业优势、特色魅力，紧盯先进地区转移产业和项目，靶向对接承接一批溢出优质项目，有序承接产业梯度转移，优化产业布局，推动产业升级。医疗器械产业要充分发挥综改区晋中开发区要素集聚、产业发展优势，引进一批行业龙头企业共建产业园区，加快形成示范引领。特钢产业要依托全省特钢产业“链主”企业安泰集团，积极引进上下游产业链配套产业，建设精品钢深加工“零碳”产业园，推动我市特钢产业做大做强。碳基材料产业要围绕昔阳、祁县等碳素制品产能优势，加快招引产业链优势企业，打造碳基材料产业发展增长极。煤机机器人要立足我市煤炭资源优势，抓住智能化矿井建设契机，积极对接引进煤矿机器人产业项目，赋能煤炭产业智能绿色转型发展。低空经济产业要依托北斗产业园区，加大园区招商力度，做大无人机产业，加快在低空经济发展上取得突破。', '期间，刘星还带领有关部门深入学习考察医疗健康等产业，在科森科技股份有限公司、远望谷物联网产业园实地察看后，先后与企业负责人深入交流洽谈，推介晋中优势，洽谈合作事宜。刘星指出，晋中工业门类齐全、创新要素集聚，发展医疗器械、医疗大健康等产业前景广阔、潜力巨大。刘星希望充分发挥企业的技术优势、产品优势，进一步在医疗器械、生物医药、分布式储能等领域加强合作，诚邀企业家到晋中投资兴业。刘星要求，各级各有关部门要发挥晋中比较优势，加强跟踪对接，强化要素保障，为落地项目提供全周期、全方位、全流程优质服务，全力推动落地项目早开工、快建设、早投产，为全市经济高质量发展积蓄发展后劲，在全省推动高质量发展中奋勇争先。']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>20</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>介休市种子管理站赴晋中市参加现代种业培训会及赴太原市学习考察</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2019-06-24</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>https://nyncj.sxjz.gov.cn/xxgk/fdzdgknr/gzdt31nw/content_118348</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['介休市种子管理站 赴晋中市参加现代种业培训会及赴太原市学习考察_工作动态_法定主动公开内容_政府信息公开_晋中市农业农村局', '为提升工作人员业务水平，进一步加强种子监管，进而更好地服务于我市种子经营户、农户，6月18日—19日，在站长宋金亮的带领下介休市种子管理站全体人员赴晋中市参加现代种业培训会。', '在培训会上有幸聆听了山西省农业种子总站站长阎会平关于“发展现代农作物种业，保障国家粮食安全”的精彩讲解及独到见解。阎站长首先强调了种业的重要性，指出种业是农业的“芯片”，是农业生产发展的主要抓手，是稳固我国粮食安全的“根基”，种业是国家战略性、基础性核心产业；接着带着参会人员一起回顾了种业发展史以及对新《种子法》、新《山西省农作物种子条例》及其他种子法律法规、部门规章及规范性文件的解读；最后阎站长指出今后山西种业发展思路和趋势，指明我们的差距所在及今后的发展对策。', '另外，山西省农业种子总站管理科科长伊江山从《省条例》修订情况、种子执法管理工作的法律依据及种子执法管理工作常见情况说明三方面对新《山西省农作物种子条例》及相关法律法规做了详细解读。', '月19—20日，在太原市站站长许福民、晋中市站长李云昌的带领下，介休市种子管理站站长宋金亮同左权、昔阳种子站站长及市站相关人员赴太原市娄烦县针对脱毒马铃薯和谷子穴播渗水地膜生产技术进行了实地考察学习。', '通过这次培训学习、实地考察学习，我站人员受益匪浅，特别是阎站长发自肺腑的精彩讲课，振奋了参会人员对种业工作的信心，提高了种业队伍的素质，为我们今后的工作指明了方向，如李云昌站长所说：我们不仅要在优良品种培育上下功夫，还应在栽培技术上找出路。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>20</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>习近平在黑龙江考察时强调牢牢把握在国家发展大局中的战略定位奋力开创黑龙江高质量发展新局面</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2023-09-14</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>https://xfj.sxjz.gov.cn/gzdt/content_476464</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['习近平在黑龙江考察时强调 牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面_工作动态_晋中市信访局', '习近平在黑龙江考察时强调 牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面', '中共中央总书记、国家主席、中央军委主席习近平近日在黑龙江考察时强调，要牢牢把握在国家发展大局中的战略定位，扭住推动高质量发展这个首要任务，落实好党中央关于推动东北全面振兴的决策部署，扬长补短，把资源优势、生态优势、科研优势、产业优势、区位优势转化为发展新动能新优势，建好建强国家重要商品粮生产基地、重型装备生产制造基地、重要能源及原材料基地、北方生态安全屏障、向北开放新高地，在维护国家国防安全、粮食安全、生态安全、能源安全、产业安全中积极履职尽责，在全面振兴、全方位振兴中奋力开创黑龙江高质量发展新局面。', '9月6日至8日，习近平在黑龙江省委书记许勤和省长梁惠玲陪同下，来到大兴安岭、哈尔滨等地，深入林场、乡村、高校等进行调研，前往灾后恢复重建现场看望慰问受灾群众。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市漠河林场自然林区考察。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市漠河林场自然林区考察。新华社记者 谢环驰 摄', '6日下午，习近平来到大兴安岭地区漠河市，考察漠河林场自然林区，察看自然林生长态势和林下作物展示，听取当地深化森林资源资产管理改革、推进生态产业化和产业生态化以及加强森林防火灭火情况介绍。习近平指出，要坚持造林与护林并重，做到未雨绸缪、防患于未然，决不能让几十年、几百年、上千年之功毁于一旦。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察。新华社记者 谢环驰 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村，同村民史瑞娟一家亲切交谈。新华社记者 鞠鹏 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村村民史瑞娟家的民宿小院考察。新华社记者 鞠鹏 摄', '随后，习近平乘车来到我国大陆最北端的边境临江村落北极村，仔细了解当地结合地域优势发展特色旅游、将生态优势转化成发展优势等情况。习近平强调，森林是集水库、粮库、钱库、碳库于一身的大宝库。要树立增绿就是增优势、护林就是护财富的理念，在保护的前提下让老百姓通过发展林下经济增加收入。在村民史瑞娟家的民宿小院，习近平向乡亲们了解当地发展乡村特色产业、助推兴边富民乡村振兴等情况。他指出，北极村的发展和群众的生活状况好，看了很高兴。发展旅游业是推动高质量发展的重要着力点。把大兴安岭森林护好，旅游业才有吸引力。这里的旅游资源得天独厚，地方党委和政府要提供政策支持，坚持林下经济和旅游业两业并举，让北国边塞风光、冰雪资源为乡亲们带来源源不断的收入。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，同当地群众亲切交流。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，同当地群众亲切交流。新华社记者 鞠鹏 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是6日下午，习近平在大兴安岭地区漠河市北极村考察时，向当地群众挥手致意。新华社记者 鞠鹏 摄', '离开小院时，当地群众在道路两旁热情欢送总书记。习近平亲切地对大家说，北极村前景可期。希望广大干部、群众共同努力，把乡村建设得更好、把生态保护得更好、让人民生活得更好，共同奔向中国式现代化的美好未来。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾情况。新华社记者 谢环驰 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，察看水毁房屋重建情况。新华社记者 殷博古 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，习近平走进村民杨春贵家中，察看受损房屋修缮情况。新华社记者 殷博古 摄', '习近平十分牵挂洪涝灾害地区灾后恢复重建工作和受灾群众的生活保障问题。7日上午，习近平乘车来到受灾较重的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾和水毁房屋重建情况。村民杨春贵家房屋在洪灾中进水浸泡，屋内设施受损、间墙开裂，正在修缮。习近平走进杨春贵家中，看到房屋修缮即将完毕、生产生活都有安排，感到很欣慰。习近平指出，我一直牵挂受灾群众，尚志市这次受灾较为严重，看到灾后恢复重建快速顺利，乡亲们生活有了着落、生产有了保障，心里很踏实。东北冬季来得早、时间长，要确保受灾群众安全温暖过冬，地方党委和政府要抓紧谋划，提前行动，把吃、喝、住、行、就业、教育、医疗防疫等事关群众生产生活的大小事情考虑得更细致、更周全一些，不留一丝纰漏。要抓紧修复受损房屋，加快推进灾后重建，最大程度减少农业因灾损失，确保受灾群众安心安全。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在遭受洪涝灾害的哈尔滨尚志市老街基乡龙王庙村，同当地村民和施工人员亲切交流。新华社记者 谢环驰 摄', '看到总书记来了，当地村民和施工人员纷纷围拢过来，向总书记问好。习近平亲切地对大家说，党和政府十分关心灾区群众，始终同大家风雨同舟、携手同行，希望乡亲们在党组织领导下齐心协力、共克时艰，努力建设美好家园。', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学哈军工纪念馆考察。新华社记者 谢环驰 摄', '9月6日至8日，中共中央总书记、国家主席、中央军委主席习近平在黑龙江考察。这是7日上午，习近平在哈尔滨工程大学考察时，同师生代表亲切交流。新华社记者 谢环驰 摄', '7日上午，习近平还来到哈尔滨工程大学，了解学校发展历程和为我国国防科技事业作出的贡献，察看教学科研成果展示。习近平强调，哈尔滨工程大学要发扬“哈军工”优良传统，紧贴强国强军需要，抓好教育、科技、人才工作，为建设教育强国、科技强国、人才强国再立新功。年轻一代成为奋力拼搏、振兴中华的一代，实现第二个百年奋斗目标就充满希望。青年学子要树牢科技报国志，刻苦学习钻研，勇攀科学高峰，在推进强国建设、民族复兴伟业中绽放青春光彩。再过几天就是教师节，向全校教师致以节日祝福，祝全国广大教师节日快乐。', '8日上午，习近平听取了黑龙江省委和省政府工作汇报，对黑龙江各项工作取得的成绩给予肯定。', '习近平指出，要以科技创新引领产业全面振兴。要立足现有产业基础，扎实推进先进制造业高质量发展，加快推动传统制造业升级，发挥科技创新的增量器作用，全面提升三次产业，不断优化经济结构、调整产业结构。整合科技创新资源，引领发展战略性新兴产业和未来产业，加快形成新质生产力。提高国有企业核心竞争力，引领民营经济健康发展，打造一批产业集群，做大做强实体经济。把企业作为科技成果转化核心载体，提高科技成果落地转化率。主动对接全国产业链供应链，在优势产业和产业优势领域深耕细作，更好融入全国统一大市场，在联通国内国际双循环中发挥更大作用。坚持绿色发展，加强绿色发展技术创新，建立健全绿色低碳循环发展经济体系。', '习近平强调，黑龙江要当好国家粮食安全“压舱石”。要以发展现代化大农业为主攻方向，加快建设现代农业大基地、大企业、大产业，率先实现农业物质装备现代化、科技现代化、经营管理现代化、农业信息化、资源利用可持续化。强化数字技术和生物技术赋能，优先把黑土地建成高标准农田，切实把黑土地保护好。把发展农业科技放在更加突出的位置，统筹推进科技农业、绿色农业、质量农业、品牌农业，推进现代种业提升工程，配套推广先进适用科技和高端农机装备，发展农业循环经济。创新农业经营方式，发展规模化经营、社会化服务。打造食品和饲料产业集群，提高粮食生产综合效益。加快推进乡村振兴，让农村具备现代化生产生活条件。', '习近平指出，要大力发展特色文化旅游。把发展冰雪经济作为新增长点，推动冰雪运动、冰雪文化、冰雪装备、冰雪旅游全产业链发展。守护好森林、江河、湖泊、湿地、冰雪等原生态风貌，改善边境地区基础设施条件，积极发展边境旅游，更好地促进兴边富民、稳边固边。勇担新的文化使命，繁荣发展文化事业和文化产业，深入开展城乡精神文明建设，推进城乡公共文化服务体系一体建设，努力培育新风尚、展示新形象。', '习近平强调，要构筑我国向北开放新高地。更好统筹贸易、投资、通道和平台建设，在市场准入、要素流动、制度型开放等方面大胆探索、先行先试，形成全方位对外开放新格局。加快建设重要陆路通道、河海航道、能源管道等基础设施，完善面向东北亚开放的交通运输网络。要加强自贸试验区、综合保税区等开放平台创新发展，深度融入共建“一带一路”，积极参与区域合作。要切实做好重点领域风险防范化解工作，落实安全生产责任，坚决避免发生重特大安全生产事故。', '习近平指出，第一批主题教育已经告一段落，要抓好继续整改和建章立制工作，把主题教育探索的好经验好做法转化为长效机制。要建立健全理论学习、调查研究、推动高质量发展、密切联系群众、防止形式主义和官僚主义等长效机制，巩固发展主题教育成果。第二批主题教育已经启动，各地要坚持科学谋划、统筹安排、分类指导，确保取得实效。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第四巡回指导组负责同志参加汇报会。', '中共中央政治局召开会议 审议《干部教育培训工作条例》《全国干部教育培训规划（2023－2027年）》 习近平主持会议']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>20</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>市委党校学习宣讲中共十九届四中全会精神</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2019-11-12</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>https://swdx.sxjz.gov.cn/xwdt/xyxw/content_306624</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['11月8日上午,市委党校机关党委召开学习培训会，组织在职四个支部负责人和支委对中共十九届四中全会精神进行了学习。', '随后，召开全校党员大会，市委党校史江鹏老师为全体党员干部宣讲中共十九届四中全会精神。史老师对全会通过的《中共中央关于坚持和完善中国特色社会主义制度 推进国家治理体系和治理能力现代化若干重大问题的决定》从背景和基本考量、基本框架、主要内容三个方面进行了系统解读，阐明了全会的重大意义，阐释了中国特色社会主义制度和国家治理体系的显著优势。他指出，全会取得的重要成果、作出的重大部署是实现两个百年奋斗目标的重大任务，是把新时代改革开放推向前进的根本要求，是应对风险挑战赢得主动的有力保证，必将有力推动各方面制度更加成熟，不断推动我国治理体系和治理能力现代化。', '史老师的讲解深入透彻、通俗易懂，帮助全校党员干部深化了对全会精神的理解，掌握了《决定》的相关内容。大家表示，要按照党中央部署，深入学习贯彻全会精神，增强“四个意识”，坚定“四个自信”，做到“两个维护”，自觉遵循制度、严格执行制度、坚决维护制度，把全会确定的各项目标任务落实到位。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>20</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>晋中市应急管理局关于做好下基层锻炼实习人员考察的通知</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2021-01-26</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>https://yjglj.sxjz.gov.cn/xxgk/fdzdgknr/zcwj/zcwj29ajj/content_154866</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['晋中市应急管理局 关于做好下基层锻炼实习人员考察的通知_部门文件_政策文件_法定主动公开内容_政府信息公开_晋中市应急管理局', '根据2020年5月11日《关于我局新招人员下基层锻炼实习事宜的通知》和结合当前工作实际，经研究决定对十三名下基层锻炼实习人员工作进行考察，现将考察工作方案通知如下：', '成立考察工作组办公室，办公室设在人事科，组织协调相关成员具体负责考察工作。考察工作组人员组成：', '考察内容主要包括政治思想、遵纪守法、工作实绩、能力素质、工作态度、考勤纪律、廉政建设、学习及工作表现等情况。', '（2）考察意见。考察对象实习单位出具的在政治思想、道德品质、能力素质、工作表现等方面的书面评价意见并经集团公司加注意见并盖章；', '（3）个别谈话。工作组与考察对象本人及实习单位领导干部、一般干部、负责人、群众代表等进行谈话，听取他们对实习人员政治思想、遵纪守法、工作实绩、考勤纪律和廉政建设等方面的评价；', '（4）民主测评。工作组在考察对象实习单位对实习人员民主测评，测评人数不少于15人；', '（5）考察鉴定。考察完成后，由实习单位负责填写《事业单位招聘工作人员实习期考察表》（一式二份），由集团公司审定后，将鉴定结果反馈市应急管理局人事科。', '1.工作组成员要严格遵守工作纪律，坚持公开、公正、公平的原则，实事求是的反映考察情况。', '2.实习人员要认真梳理在煤矿期间的工作情况，整理相关资料，11月25日前完成交接，结束实习工作。', '3.工作组负责对每个人撰写考察评语，作为试用期满考察的重要依据，经考察组考察人员签字，报工作组。', '晋中市应急管理局 晋中市地方煤矿安全监督管理局 转发《山西省应急管理厅山西省地方煤矿 安全监督管理局关于全面深入开展煤矿安全生产大排查的通知》的通知', '晋中市应急管理局关于印发行政执法公示、全过程记录和重大行政执法决定法制审核等三项制度的通知解读']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>20</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>晋中市规划勘测局深入推进学习型党组织建设实施意见</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2012-03-31</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/zwgk/fdzdgknr/zfwj/content_23772</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['为更好地深化学习型党组织建设，促进干部职工思想转型，更好服务我市“四化”率先发展区建设，现就引深和推进我局学习型党组织建设提出如下意见。', '引深和推进学习型党组织建设，是保持党的先进性、纯洁性的需要。当前世情、国情、党情发生了深刻变化，加强党的执政能力建设和先进性建设面临着精神懈怠、能力不足、脱离群众、消极腐败的危险，必须加强理论学习，以先进的思想武装头脑、指导工作、解决问题。引深和推进学习型党组织建设，是落实科学发展观、推动转型发展的需要。要实现省十次党代会提出的今后五年乃至更长一段时期全省要办好力争全面小康实现程序五年达到全国平均水平和率先走出资源型地区转型跨越发展新路这两件大事，干部职工就要就要解决知识不足、本领不够的问题，就要坚持不懈地加强学习，做到工作学习化、学习工作化。引深和推进学习型党组织建设，是大力推进思想解放，实现单位创先争优和率先发展的需要。当前，我局在市建设“四化”率先发展区的目标任务中担负着重大责任，这是对我局各级党组织和党员干部职工提出的新考验。我们必须树立责任意识、危机意识、学习意识，把理论学习摆在首位，通过学习，武装思想、提高水平，增强完成任务的能力。', '建设学习型党组织，就是要用马克思主义中国化的最新理论成果武装各级党组织，将党员干部培养成为思想政治素质、科学文化素质、业务能力素质都过硬的先进分子。为此，应抓好以下内容的学习：', '（一）中国特色社会主义理论体系。进一步引深马克思主义、毛泽东思想、邓小平理论、“三个代表”重要思想和科学发展观的学习。尤其要准确把握科学发展观的思想内涵和精神实质，以服务转型跨越为主题，着力破解规划工作中面临的新课题，推动全市规划工作向细、全、深、高全面发展。', '（二）社会主义核心价值体系。要把社会主义核心价值体系融入到党员干部教育全过程，融入到党员干部日常生活学习中，筑牢团结奋进的思想基础。要组织好“晋中精神大讨论”活动，引深文明和谐单位创建活动，以党员干部职工良好的精神面貌和工作状态推动单位事业的全面提升。', '（三）中央、省、市委的新战略新部署。结合学习保持党的纯洁性教育活动，认真学习党的十七届四中、五中、六中全会和胡锦涛总书记在纪念中国共产党成立90周年大会上的讲话精神，特别是十八大精神，自觉把思想认识从那些不合适宜的观念、做法和体制的束缚中解放出来，勇于变革、勇于创新、永不僵化、永不停滞，以实际行动推动规划工作创新发展。', '（四）先进地区的成功经验和创新方法。要把先进地区的成功经验和做法作为学习楷模和工作激励，对标一流，寻找差距，善行善试，破解难题，使工作思路更加开阔、工作举措更加有效、工作效果更加明显。', '（五）现代化建设所必需的各方面知识。党员干部要不断优化知识结构，拓展学习视野，积极掌握经济、政治、文化、科技等方面知识。特别是要在推动规划发展、塑造单位品牌、促进“四化”建设上勤学苦学，争做复合型人才。', '（一）健全学习制度。党组要制定和坚持好学习制度，审定好学习计划，确立好学习主题和研讨专题，主持好集体学习研讨，抓好学习督查。', '（二）抓好学习考勤。中心组集体学习研讨必须本人签到，不能参加的要向组长请假并主动补课。党组中心组学习情况要及时上报市委宣传部。', '（三）落实学习任务。中心组每年集体学习不少于4次，中心组成员深入基层调研不少于60天，参加脱产学习不少于110学时，至少撰写1至2篇调研报告，认真自学并做好笔记。', '（四）增强学习实效。在自学的基础上强化集体学习，通过专题讲座、调查研究、座谈研讨、考察观摩、多媒体课堂等，丰富形式，深化效果。特别是要紧扣实际，邀请有关专家进行宣传和辅导。', '（一）开展好自主学习，用以打开思想大门。在全局党员干部中开展“每天学习一小时、每月阅读一本书、每年写一篇文章”的自主学习活动。', '（二）开展好专题学习，用以推动科学决策。通过举办专题讲座、组织收听收看、开辟专栏论坛、进行在线教育等形式组织好专题学习。组织岗位技能型人才、关键岗位技术骨干开展技能培训。要以“晋中市民大学堂”为载体，邀请专家、学者讲学，提升党员干部战略思维和素养。', '（三）开展好调研学习，用以总结新鲜经验。要通过调查研究，发现问题，解决问题，总结经验，服务决策，推动工作。', '（四）开展好研讨学习，用以破解发展难题。要围绕晋中太原同城化建设和我市“四化”率先发展区建设，组织好规划对接研究；围绕加强社会管理建设，组织好加强规划管理研究；围绕加强单位思想政治建设，开展行业文化、诚信文化、廉政文化、安全文化、网络文化研究，在深化对问题的研究中破解难题，推动发展。', '（五）开展好观摩学习，用以督导任务落实。组织干部职工到右玉及省外等先进发达地区观摩学习，通过对标先进，寻找差距，鼓舞干劲，找准方法，进一步开阔视野，增强工作创新性、预见性和针对性。', '（六）组织好干中学，用以指导实践进程。广大党员干部要在丰富的实践中广开思路，为更好地研究制定科学规划、阳光规划、民生规划和创新规划管理等制度提供理论和实践依据，形成推动全市规划工作科学有序快速发展的路径和办法。', '（一）加强领导。各级党组织书记是学习型党组织建设的第一责任人，要切实负好责任，推动本单位学习型党组织建设工作。各级党组织要按照学习型党组织建设年度目标责任考核要求，将各项工作落实到每个环节，将各项任务细化到每个党员，确保活动取得实效。', '（二）强化考核。局将把学习型党组织建设列入单位年度领导班子和领导干部考核。采取不定期检查学习情况，对党员干部进行考试，对领导班子和领导干部进行述学考核，下发学习活动通报等形式，推动活动各项工作落到实处。', '（三）加强宣传。加强学习型党组织建设的宣传报道，选树和表彰先进典型，适时召开学习经验交流会，营造学习氛围。', '（四）搞好结合。把学习型党组织与学习型机关建设结合起来，努力建设“职工书屋”；引导和鼓励干部职工参与自娱自乐的业余活动团体和“红歌大家唱”活动；以提升家庭生活质量和弘扬传统美德为目标，提倡创建学习型家庭；利用春节、清明、端午、中秋等传统节日，开展丰富多彩的文体活动，继承和弘扬优秀传统文化；组织参观公共教育场所；利用春节、清明、端午、中秋等传统节日，开展丰富多彩的文体活动，继承和弘扬优秀传统文化，努力构建全民学习、终身学习的学习型社会。', '为落实市委、市政府《关于推进学习型社会建设的意见》和市委《关于进一步引深和推进学习型党组织建设的意见》精神，现将引深和推进学习型党组织建设活动的主要任务区分如下：', '12、开展调查研究、解决实际问题（①建立党组成员学习调研登记、②中心组成员深入基层调研不少于60天、③参加脱产学习不少于110学时、④每位成员撰写1至2篇调研报告）；', '13、建立完善学习档案，包括：年度学习计划、自学计划、学习签到、学习记录、学习笔记、学习音像实况、学习总结、学习成果、成果运用；', '16、组织落实“六学六用”（1．自主学，用以打开思想大门；2．专题学，用以推动科学决策；3．调研学，用以总结新鲜经验；4．研讨学，用以破解发展难题；5．观摩学，用以督导任务落实；6．干中学，用以指导实践进程）；', '21、利用春节、清明、端午、中秋等传统节日，开展丰富多彩的文体活动，继承和弘扬优秀传统文化；', '23、10月份参加全市“全民终身学习活动周”活动。组织各类讲座、报告会、读书会、知识竞赛等文化活动；', '集体学习、个人自学、调查研究、教育培训、督促检查等学习制度是否建立健全并工切全实际']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>20</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>太谷区委党校学习中央经济工作会议精神</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2020-12-23</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>https://swdx.sxjz.gov.cn/dxxx/content_353733</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['12月22日，太谷区委党校召开党委中心组（扩大）会议，专题学习中央经济工作会议精神。区委党校常务副校长牛海兵主持会议并讲话。', '牛海兵指出，中央经济工作会议是在党的十九届五中全会之后中央召开的一次重要会议。党中央立足国际与国内，从战略和全局的高度，深刻总结了今年我国经济社会发展取得的巨大成就和规律性认识，深入分析了当前经济形势，明确提出了“十四五”开局之年经济工作的总体要求、目标任务和重大举措，为我们立足新发展阶段、贯彻新发展理念、构建新发展格局、推动高质量发展指明了前进方向，提供了根本遵循。习近平总书记的重要讲话，高瞻远瞩、思想深刻、内涵丰富，科学回答了对当前经济形势怎么看、明年经济工作怎么干的问题，是指导当前和今后一个时期经济工作的纲领性文献，为“十四五”开好局，起好步，具有重大而深远的意义。', '牛海兵强调，大家要把学习中央经济工作会议精神与学习党的十九届五中全会精神作为当前和今后一段时期的重要政治任务。大家要切实提高政治站位，善于从讲政治的高度思考改革、发展和稳定，善于运用政治眼光深入分析和讲解经济社会问题。要一字一句学，原原本本学，吃透精神实质，掌握核心要义，切实把思想和行动统一到会议精神上来，切实担负起学习宣传贯彻党的十九届五中全会精神和中央经济工作会议精神的重任，做到思想上高度自觉、行动上坚定有力、工作上带头推进。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>20</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>榆次区委统战部区工商联月日月日组织民营企业家代表赴浙江考察学习</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2018-06-07</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xxzb1/xxk1248/content_233795</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['区工商联主席、副主席及执委、常委、部分民营企业家等近20余人，赴浙江杭州、湖州等地进行招商推介、考察学习。', '考察团一行实地参观考察了浙江余杭区经济技术开发区、径山现代农业产业示范区、湖州安吉县鲁家田园综合体、中南百草原、大康控股集团有限公司、安吉祖名豆制食品公司、郡安里民宿开发等企业项目，每到一个地方，都与当地企业负责人进行深入交谈，交换意见和看法，了解企业的发展战略、发展理念、生产经营及企业文化。通过参观学习，考察团成员开阔了眼界，增长了见识，找到了差距，拓宽了思路，增强了企业转型发展的信心。', '期间，榆次区委统战部、区工商联还与当地统战部、工商联（总商会）进行了座谈交流，并就工商联（总商会）组织建设、非公企业党建、新的社会阶层人士等工作进行了考察交流', '。榆次区工商联（总商会）还与余杭区、安吉县、德清县三地的工商联（总商会）签订了友好协议，为今后两地增进了解、加深友谊、促进合作奠定了良好基础。（晋中市委统战部）']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>20</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>习近平在浙江考察时强调</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>https://rfb.sxjz.gov.cn/gzdt/content_477972</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['习近平在浙江考察时强调 始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察 蔡奇陪同考察', '始终干在实处走在前列勇立潮头 奋力谱写中国式现代化浙江新篇章 返京途中在山东枣庄考察 蔡奇陪同考察', '新华社浙江杭州/山东枣庄9月25日电 中共中央总书记、国家主席、中央军委主席习近平近日在浙江考察时强调，要完整准确全面贯彻新发展理念，围绕构建新发展格局、推动高质量发展，聚焦建设共同富裕示范区、打造新时代全面展示中国特色社会主义制度优越性的重要窗口，坚持一张蓝图绘到底，持续推动“八八战略”走深走实，始终干在实处、走在前列、勇立潮头，奋力谱写中国式现代化浙江新篇章。', '9月20日至21日，习近平在浙江省委书记易炼红和省长王浩陪同下，先后来到金华、绍兴等地，深入农村、商贸市场、陈列馆、文化园区等进行调研。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察。新华社记者 谢环驰 摄', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察。新华社记者 李学仁 摄', '20日上午，习近平来到金华市义乌市后宅街道李祖村考察调研。近年来，李祖村人居环境大为改善，各类创业主体纷纷进驻，乡村旅游十分红火，被评为全国文明村。习近平先后在村党群服务中心、“共富市集”、扎染商铺等场所了解李祖村发展变化情况。得知李祖村年人均收入达到5.2万元，习近平十分高兴。他说，李祖村扎实推进共同富裕，是浙江“千万工程”显著成效的一个缩影，要再接再厉，在推动乡村振兴上取得更大成绩。乡村振兴为年轻人提供了展现才华的用武之地，希望更多的年轻人为乡村振兴发挥积极作用。离开村子时，当地群众簇拥到总书记身旁，热情欢送总书记。习近平对大家说，乡村振兴潜力无限、大有可为，乡亲们要努力奋斗，一起奔向共同富裕的美好明天。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在义乌国际商贸城考察时，同商户亲切交流。新华社记者 李学仁 摄', '随后，习近平来到义乌国际商贸城考察。他通过电子屏幕实时了解商贸城运营及“义新欧”班列运行情况，并走进市场同商户、小企业主代表亲切交流，详细询问市场行情。他强调，义乌小商品闯出了大市场、做成了大产业，走到这一步很了不起，每个人都是参与者、建设者、贡献者。商贸城要再创新辉煌，为拓展国内国际市场、畅通国内国际双循环作出更大贡献。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在义乌国际商贸城考察时，同商户、小企业主代表亲切交流。新华社记者 李学仁 摄', '今年是毛泽东同志批示学习推广“枫桥经验”60周年。20日下午，习近平来到“枫桥经验”发源地诸暨市枫桥镇，参观枫桥经验陈列馆，了解新时代“枫桥经验”的生动实践。习近平指出，要坚持好、发展好新时代“枫桥经验”，坚持党的群众路线，正确处理人民内部矛盾，紧紧依靠人民群众，把问题解决在基层、化解在萌芽状态。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在诸暨市枫桥镇枫桥经验陈列馆，同当地群众亲切交流。新华社记者 燕雁 摄', '随后，习近平乘车来到位于绍兴的浙东运河文化园考察。他步行察看古运河河道和周边历史文化遗存，详细了解浙东运河发展演变史和当地合理利用水资源、推进大运河保护等情况。习近平强调，大运河是世界上最长的人工运河，是十分宝贵的文化遗产。大运河文化是中国优秀传统文化的重要组成部分，要在保护、传承、利用上下功夫，让古老大运河焕发时代新风貌。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在绍兴市浙东运河文化园考察。新华社记者 谢环驰 摄', '21日下午，习近平听取了浙江省委和省政府工作汇报，对浙江各项工作取得的成绩给予肯定，对浙江提出了新要求。', '习近平指出，浙江要在以科技创新塑造发展新优势上走在前列。要把增强科技创新能力摆到更加突出的位置，整合科技创新力量和优势资源，在科技前沿领域加快突破。强化企业科技创新主体地位，推动创新链产业链资金链人才链深度融合，加快科技成果落地转化。把实体经济作为构建现代化产业体系的根基，引导和支持传统产业加快应用先进适用技术，推动制造业高端化、智能化、绿色化发展。深化国家数字经济创新发展试验区建设，打造一批具有国际竞争力的战略性新兴产业集群和数字产业集群。加强科技基础能力建设，深化科技体制改革，打造科创高地。从全球视野布局产业链供应链建设，不断提升产业链供应链韧性和安全水平。坚定不移推动发展方式绿色转型，建立完善绿色低碳循环发展的经济体系。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日上午，习近平在金华市义乌市后宅街道李祖村考察时，同群众亲切交流。新华社记者 李学仁 摄', '习近平强调，浙江要在推进共同富裕中先行示范。要把缩小城乡差距、地区差距、收入差距作为主攻方向，进一步健全城乡融合发展体制机制。坚持就业优先政策，在推动传统产业转型升级和发展新兴产业中注重扩大就业容量，解决好重点群体就业问题。深化收入分配制度改革，健全多层次社会保障体系。全面推进乡村振兴，积极发展乡村特色产业，深化“千村示范、万村整治”工程。加强平安浙江、法治浙江建设，在推进基层治理体系和治理能力现代化上创造更多经验。', '习近平指出，浙江要在深化改革、扩大开放上续写新篇。要以重点领域改革为牵引，全面推进各领域体制机制创新。以服务全国、放眼全球的视野来谋划改革，稳步扩大规则、规制、管理、标准等制度型开放。发挥各种开放平台的功能作用，创新利用外资、做大外贸的方法和渠道。主动适应国际经贸规则重构走向，在服务业开放、数字化发展、环境保护等方面先行先试。坚持“两个毫不动摇”、“三个没有变”，鼓励和支持民营企业积极参与全球范围产业分工和资源配置，提升核心竞争力。', '习近平强调，浙江要在建设中华民族现代文明上积极探索。要更好担负起新时代新的文化使命，赓续历史文脉，加强文化遗产保护，推动优秀传统文化创造性转化、创新性发展。坚守中华文化立场，积极发展反映时代要求、具有时代特色的新文化，发展中华文明的现代形态。弘扬伟大建党精神，广泛培育和践行社会主义核心价值观，发展社会主义先进文化。繁荣发展文化事业和文化产业，持续推进城乡公共文化服务标准化、均等化，加强公民道德建设，推进书香社会建设。运用杭州亚运会亚残运会、世界互联网大会等窗口加强文化交流传播，不断提升中国文化感染力和中华文明影响力。', '9月20日至21日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察。这是20日下午，习近平在绍兴市浙东运河文化园考察。新华社记者 李学仁 摄', '习近平指出，要坚持和加强党的全面领导、加强和改进党的建设。树立正确政绩观，坚持立足实际、科学决策，坚持着眼长远、打牢基础，坚持干在实处、务求实效，防止形式主义、官僚主义。加强干部教育培训和实践锻炼，健全干部担当作为激励保护机制，激发干部干事创业活力，构建亲清统一的新型政商关系。各级党组织要加强对第二批主题教育的组织领导和工作指导，把握不同层级、不同领域、不同对象的特点，结合实际，分类指导，上下联动抓整改，让群众看到实效。', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园了解石榴产业发展情况。新华社记者 燕雁 摄', '9月24日下午，在返京途中，习近平在山东省委书记林武和省长周乃翔陪同下来到枣庄市考察。枣庄是我国石榴集中连片种植面积最大、品种最多、产业链最完整的地区之一。习近平来到位于峄城区的冠世榴园石榴种质资源库，察看石榴树种，了解当地石榴种植历史、种质资源收集保存和产业发展情况，并来到石榴种植园中向老乡们询问今年石榴种植、收获和收入情况。得知当地大力发展石榴深加工和石榴盆栽培育有力带动了农民增收，习近平很高兴。他指出，人们生活水平在提高，优质特产市场需求在增长，石榴产业有发展潜力。要做好品牌、提升品质，延长产业链，增强产业市场竞争力和综合效益，带动更多乡亲共同致富。祝乡亲们生活像石榴果一样红红火火。', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园同老乡们亲切交流。新华社记者 燕雁 摄', '9月24日，中共中央总书记、国家主席、中央军委主席习近平在浙江考察结束返京途中，来到山东省枣庄市考察。这是习近平在位于峄城区的冠世榴园石榴种植园同老乡们亲切交流。新华社记者 谢环驰 摄', '李干杰、何立峰、王小洪及中央和国家机关有关部门负责同志陪同分别参加上述有关活动，主题教育中央第五巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>20</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>山西在广东学习考察并举办山西之夜王伟中金湘军孟凡利参加有关活动</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2024-04-16</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/snxw/content_499442</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['4月15日晚间，广东省委副书记、省长王伟中，省委副书记、省长金湘军察看“山西之夜”特色产品展区。（阮洋摄）', '4月13日至16日，在第135届中国进出口商品交易会（以下简称“广交会”）开幕之际，省政府代表团在广东学习考察并举办以“相‘粤’珠江，共‘晋’未来”为主题的“山西之夜”，深入贯彻习近平总书记对山西工作的重要讲话重要指示精神，主动对接建设粤港澳大湾区重大国家战略，学习借鉴广东先进经验，加快打造内陆地区对外开放新高地，携手谱写晋粤全面战略合作新篇章。广东省委副书记、省长王伟中，省委副书记、省长金湘军参加活动，并签署全面战略合作框架协议。广东省委副书记、深圳市委书记孟凡利参加有关活动。', '受省委书记黄坤明委托，王伟中代表广东省委、省政府，对山西省代表团来粤考察表示欢迎，对山西长期以来给予广东的大力支持表示感谢。他说，当前，广东正全面贯彻党的二十大精神和习近平总书记视察广东重要讲话、重要指示精神，认真落实省委“1310”具体部署，把坚持高质量发展作为新时代的硬道理，加快产业科技互促双强、培育发展新质生产力，奋力在推进中国式现代化建设中走在前列。广东与山西合作基础扎实、空间广阔、未来可期。希望进一步加强粤港澳大湾区建设与中部地区崛起等重大战略对接，加强产业创新协作和能源、文旅、康养、就业等领域交流合作，加强合作机制建设，拓展协同发展新空间，共同为强国建设、民族复兴伟业作出更大贡献。', '受省委书记唐登杰委托，金湘军代表省委、省政府向广东长期以来给予山西的大力支持表示感谢，对广东推动高质量发展和现代化建设取得的重大成就表示祝贺。他说，当前，全省上下深入贯彻习近平总书记在新时代推动中部地区崛起座谈会上的重要讲话精神，积极培育和发展新质生产力，加快建设“三区三地”，努力在新时代推动中部地区崛起中奋勇争先。晋粤两省人缘相亲、商缘相连，希望双方在打造开放平台、培育发展新质生产力等多方面加强交流合作，取得更多丰硕成果。我们要认真学习借鉴广东先进经验，深度对接粤港澳大湾区，推动晋粤全面战略合作行稳致远，更好谱写中国式现代化山西篇章。', '15日晚间，夜幕下的珠江畔，地标建筑广州塔灯光璀璨、流光溢彩，“山西之夜”在此精彩举办。金湘军、王伟中分别致辞，部分外国驻华使节，粤港澳大湾区及珠三角地区重点企业、商协会、国际组织代表等300余名海内外嘉宾济济一堂，在充满晋风晋韵的活动中感受山西悠久历史、灿烂文化和发展成果，共同度过难忘时光。作为我省塑造对外开放形象的新名片，本次“山西之夜”设重点产业链、特色专业镇、中华老字号、名优特产品、非遗及山西精品等展区，全省42家企业230余种产品参展，通过嘉宾致辞、晋粤故事汇、宣传推介、特色美食展示、文艺展演等形式，全方位多角度展示新时代表里山河的魅力风采。现场，山西籍歌唱家阎维文讲述“晋粤故事”并演唱《人说山西好风光》。高福、王淏、李文静分别代表家乡朔州、太原、大同作宣传推介。', '在粤期间，省政府代表团在深圳、广州等地考察学习，实地感受习近平新时代中国特色社会主义思想在南粤大地的火热实践，先后来到腾讯计算机系统有限公司、前海深港现代服务业合作区、中国科学院深圳先进技术研究院、广汽埃安新能源汽车股份有限公司和广汽研究院、亿航智能设备（广州）有限公司，了解数字经济发展、制度创新和现代服务业集聚发展、科创平台建设、制造业高端化智能化绿色化、低空经济发展等情况，并实地参观了广交会展馆，察看能源装备参展企业、跨境电商山西展厅，推介投资机遇，促进务实合作，更好推动对外开放和新质生产力发展。', '广东省领导陈建文、张虎，广州市市长孙志洋、深圳市市长覃伟中，副省长汤志平参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>20</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>我省在广东学习考察并举办山西之夜以更加开放姿态拥抱粤港澳大湾区携手谱写晋粤全面战略合作新篇章</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2024-04-16</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/snxw/content_499472</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['我省在广东学习考察并举办“山西之夜” 以更加开放姿态拥抱粤港澳大湾区 携手谱写晋粤全面战略合作新篇章 王伟中金湘军孟凡利参加有关活动', '4月15日晚间，广东省委副书记、省长王伟中，省委副书记、省长金湘军察看“山西之夜”特色产品展区。（阮洋摄）', '4月13日至16日，在第135届中国进出口商品交易会（以下简称“广交会”）开幕之际，省政府代表团在广东学习考察并举办以“相‘粤’珠江，共‘晋’未来”为主题的“山西之夜”，深入贯彻习近平总书记对山西工作的重要讲话重要指示精神，主动对接建设粤港澳大湾区重大国家战略，学习借鉴广东先进经验，加快打造内陆地区对外开放新高地，携手谱写晋粤全面战略合作新篇章。广东省委副书记、省长王伟中，省委副书记、省长金湘军参加活动，并签署全面战略合作框架协议。广东省委副书记、深圳市委书记孟凡利参加有关活动。', '受省委书记黄坤明委托，王伟中代表广东省委、省政府，对山西省代表团来粤考察表示欢迎，对山西长期以来给予广东的大力支持表示感谢。他说，当前，广东正全面贯彻党的二十大精神和习近平总书记视察广东重要讲话、重要指示精神，认真落实省委“1310”具体部署，把坚持高质量发展作为新时代的硬道理，加快产业科技互促双强、培育发展新质生产力，奋力在推进中国式现代化建设中走在前列。广东与山西合作基础扎实、空间广阔、未来可期。希望进一步加强粤港澳大湾区建设与中部地区崛起等重大战略对接，加强产业创新协作和能源、文旅、康养、就业等领域交流合作，加强合作机制建设，拓展协同发展新空间，共同为强国建设、民族复兴伟业作出更大贡献。', '受省委书记唐登杰委托，金湘军代表省委、省政府向广东长期以来给予山西的大力支持表示感谢，对广东推动高质量发展和现代化建设取得的重大成就表示祝贺。他说，当前，全省上下深入贯彻习近平总书记在新时代推动中部地区崛起座谈会上的重要讲话精神，积极培育和发展新质生产力，加快建设“三区三地”，努力在新时代推动中部地区崛起中奋勇争先。晋粤两省人缘相亲、商缘相连，希望双方在打造开放平台、培育发展新质生产力等多方面加强交流合作，取得更多丰硕成果。我们要认真学习借鉴广东先进经验，深度对接粤港澳大湾区，推动晋粤全面战略合作行稳致远，更好谱写中国式现代化山西篇章。', '15日晚间，夜幕下的珠江畔，地标建筑广州塔灯光璀璨、流光溢彩，“山西之夜”在此精彩举办。金湘军、王伟中分别致辞，部分外国驻华使节，粤港澳大湾区及珠三角地区重点企业、商协会、国际组织代表等300余名海内外嘉宾济济一堂，在充满晋风晋韵的活动中感受山西悠久历史、灿烂文化和发展成果，共同度过难忘时光。作为我省塑造对外开放形象的新名片，本次“山西之夜”设重点产业链、特色专业镇、中华老字号、名优特产品、非遗及山西精品等展区，全省42家企业230余种产品参展，通过嘉宾致辞、晋粤故事汇、宣传推介、特色美食展示、文艺展演等形式，全方位多角度展示新时代表里山河的魅力风采。现场，山西籍歌唱家阎维文讲述“晋粤故事”并演唱《人说山西好风光》。高福、王淏、李文静分别代表家乡朔州、太原、大同作宣传推介。', '在粤期间，省政府代表团在深圳、广州等地考察学习，实地感受习近平新时代中国特色社会主义思想在南粤大地的火热实践，先后来到腾讯计算机系统有限公司、前海深港现代服务业合作区、中国科学院深圳先进技术研究院、广汽埃安新能源汽车股份有限公司和广汽研究院、亿航智能设备（广州）有限公司，了解数字经济发展、制度创新和现代服务业集聚发展、科创平台建设、制造业高端化智能化绿色化、低空经济发展等情况，并实地参观了广交会展馆，察看能源装备参展企业、跨境电商山西展厅，推介投资机遇，促进务实合作，更好推动对外开放和新质生产力发展。', '广东省领导陈建文、张虎，广州市市长孙志洋、深圳市市长覃伟中，副省长汤志平参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>20</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>山西省赴京津冀学习考察团在北京天津河北学习考察服务重大国家战略携手共赢美好未来高站位宽视野实举措深度融入京津冀</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2024-02-28</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/snxw/content_494230</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['山西省赴京津冀学习考察团在北京天津河北学习考察 服务重大国家战略 携手共赢美好未来 高站位宽视野实举措深度融入京津冀', '在京津冀协同发展重大国家战略实施10周年的重要时刻，2月26日至27日，山西省赴京津冀学习考察团先后在北京、天津、河北学习考察，并分别召开工作座谈会，深入贯彻习近平总书记关于京津冀协同发展的重要论述精神，把握国家支持山西省与京津冀地区加强协作实现联动发展重大机遇，学习借鉴三省市推动高质量发展和现代化建设的好经验好做法，以更加积极主动的姿态加快融入京津冀协同发展，共同谱写合作交流新篇章。天津市委书记陈敏尔，市委副书记、市长张工，北京市委副书记、市长殷勇，河北省委副书记、省长王正谱，山西省委副书记、省长金湘军分别参加有关活动及座谈交流。', '工作座谈会上，北京、天津、河北三省市负责同志充分肯定山西各方面工作。指出，三晋大地是华夏文明发祥地之一。近年来，山西省坚决落实习近平总书记对山西工作的重要讲话重要指示精神，聚焦“三区三地”建设，推动能源革命、产业升级、民生保障、生态环保等各项事业取得新成就。京津冀协同发展是习近平总书记亲自谋划、亲自部署、亲自推动的重大国家战略，也为进一步深化京津冀与山西合作带来了机遇、指明了方向。京津冀与山西地缘相近、人缘相亲、渊源深厚，合作基础扎实、前景广阔。要进一步发挥各自优势，密切交流交往，加强互学互鉴，深化各领域务实合作，更好探索发展新质生产力的新路径，共同为推进中国式现代化贡献力量。', '受省委书记唐登杰委托，金湘军代表省委、省政府对京津冀三地经济社会发展取得的重大成就表示祝贺，对长期以来给予山西发展的大力支持表示感谢。他说，近年来，北京、天津、河北在以习近平同志为核心的党中央坚强领导下，高质量发展成果丰硕，创造的好经验好做法值得我们学习借鉴。山西毗邻京津冀，加强协作实现联动发展，是服务重大国家战略、加快转型发展的题中之义。当前，全省上下正深入贯彻习近平总书记对山西工作的重要讲话重要指示精神，久久为功推动高质量发展，深化全方位转型。山西与京津冀合作基础坚实、潜力巨大、前景广阔。希望在能源绿色发展、产业升级、生态环保、教育科技人才、交通基础设施、文旅康养、对外开放等领域加强高水平务实合作，以协同联动发展新成效为全国发展大局作出更大贡献。', '在北京期间，学习考察团参观了中关村国家自主创新示范区展示中心，实地察看区块链、人工智能、智能制造、氢能储能等前沿科技成果，了解京晋科技合作情况。在天津期间，学习考察团参观了国家会展中心（天津）、天津软件园河西园、哈电国际工程（天津）有限责任公司。其间，省政府与天津市政府签署了战略合作框架协议。在河北期间，学习考察团走进雄安规划展示中心、容东片区城市建设现场、雄安科创中心、东西轴线调度中心，了解雄安新区规划建设、科技创新等情况，零距离感受雄安新区“千年大计、国家大事”由宏伟蓝图变美好现实的生动实践。', '北京市领导夏林茂、于英杰，天津市领导刘桂平、王力军、朱鹏，河北省领导赵大春，省领导吴伟、卢东亮，京津冀及我省相关部门单位负责同志参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>20</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>担负起新的文化使命参加第十九届中国深圳文博会的晋中代表团考察学习深圳高科技文化企业</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2023-06-10</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/bssz/content_465265</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['担负起新的文化使命 —— 参加第十九届中国（深圳）文博会的晋中代表团考察学习深圳高科技文化企业', '在华强方特集团文化科技展厅，《熊出没》系列作品以真切的情感感动观众，以宏大惊险的场面震撼观众。工作人员正在向晋中代表团成员介绍以《熊出没》为代表的数字动漫产品的情况。', '6月9日，参加第十九届中国（深圳）文博会的晋中代表团在市委常委、宣传部部长王兵的带领下，考察学习了深圳华强方特集团、雅昌文化集团、龙岗数字创意产业走廊三家高科技文化企业。', '近年来，数字出版新技术正在颠覆传统的内容生产方式、存储方式、传播方式、阅读方式，如何让优质内容起到积极的引导作用，是晋中代表团成员考察学习华强方特集团的主要目的。', '“作为一家文化企业，弘扬主旋律、激发正能量是华强方特的责任和义务。网络媒介特别是视听媒介作为未成年人成长过程中接触到的新环境，严重影响着未成年人的价值取向。当前，优质内容仍是网络视听行业可持续发展的最重要抓手。”华强方特动漫产品的负责人介绍。', '依靠强大的科技支撑，华强方特集团在文化科技领域不断开拓创新，吸引了大批忠实“粉丝”，取得经济和社会效益的双丰收，是名副其实的中国文化产业的“领头羊”。', '“动漫产品不能仅仅是以娱乐和互动的体验吸引受众，还要加强对受众心理接受规律和正能量传播规律的把握，让正能量产生大流量，大流量带来强效果。”华强方特动漫产品的负责人介绍，“我们以文化、科技和旅游相结合的展示方式，在增加趣味性和互动性的同时，向广大受众传递了社会主义核心价值观，起到了春风化雨和润物无声的作用。”', '世代相传的中文典籍、中国艺术是中华民族最显著的文化烙印，承载着中华民族的精神血脉。如何将印刷传统行业与现代IT技术及其他产业有机融合，将中国珍贵的典籍、传统文化艺术作品进行保存、弘扬并推向世界？雅昌文化集团创建了“传统印刷+现代IT技术+文化艺术”的运营模式，集团三十年如一日，精心打造《中国艺术品数据库》，通过现代IT科技，将珍贵文献、艺术品的图文资料以数据的形式永久地存储起来，为中华民族文化的保护、传播、弘扬作出了巨大贡献。', '在雅昌文化集团，晋中代表团成员进一步领会到历史典籍所承载的传统文化的核心精神，表示将更好地保护文物典籍，并向全社会宣传、普及历经沧桑流传下来的典籍版本的珍贵性，做好典籍资料的收集和保护，使中华文化永续传承。', '在龙岗数字创意产业走廊，晋中代表团成员认真听取了公司工作人员的讲解，从活动管理、流量池、活动数据分析、3D元宇宙展厅、直播等多角度进行考察学习。龙岗数字创意产业走廊是国内首个数字创意全产业链集聚区、大湾区首个文化产业带，今年3月获得国家级文化产业示范园区称号，是深圳首个成功创建的国家级文化产业示范园区，并在数字创意产业政策扶持、空间聚集、园区配套等方面有着一系列创新。龙岗数字创意产业走廊为我市做好文化企业数字化转型服务、强化IP创造和引入、推动文化企业数字化和智能化转型提供了可资借鉴的宝贵经验。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>20</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>习近平在广东考察</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2018-10-26</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>https://czj.sxjz.gov.cn/gsyw/content_252163</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['10月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10月22日下午，习近平考察珠海横琴新区粤澳合作中医药科技产业园。新华社记者 谢环驰 摄', '新华社广州10月25日电 中共中央总书记、国家主席、中央军委主席习近平近日在广东考察时强调，进入新时代，国际国内形势发生广泛而深刻的变化，改革发展面临着新形势新任务新挑战，我们要抓住机遇、迎接挑战，关键在于高举新时代改革开放旗帜，继续全面深化改革、全面扩大开放。越是环境复杂，我们越是要以更坚定的信心、更有力的措施把改革开放不断推向深入。', '十月的南粤大地，金风送爽，丹桂飘香。10月22日至25日，习近平在中共中央政治局委员、广东省委书记李希和省长马兴瑞陪同下，先后来到珠海、清远、深圳、广州等地，深入企业、高校、乡村、社区，就贯彻落实党的十九大精神、深化改革开放、推动经济高质量发展等进行调研。', '22日下午，习近平考察了珠海横琴新区粤澳合作中医药科技产业园。该产业园是《粤澳合作框架协议》下首个落地项目。习近平结合视频、沙盘、中医药产品展示，了解横琴新区规划建设以及产业园建设运营、中医药产业发展和国际交流合作情况。习近平走进车间，察看中药制品生产流程。在研发检测大楼，科研人员纷纷向总书记问好。习近平指出，中医药学是中华文明的瑰宝。要深入发掘中医药宝库中的精华，推进产学研一体化，推进中医药产业化、现代化，让中医药走向世界。他强调，建设横琴新区的初心就是为澳门产业多元发展创造条件。横琴有粤澳合作的先天优势，要加强政策扶持，丰富合作内涵，拓展合作空间，发展新兴产业，促进澳门经济发展更具活力。', '10月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10月22日傍晚，习近平在珠海格力电器股份有限公司考察。新华社记者 谢环驰 摄', '傍晚时分，习近平来到格力电器股份有限公司，考察企业加强自主核心技术研发、推动产业优化升级情况。在科技展厅、精密模具车间，习近平认真观看企业产品和技术展示，详细了解企业创新发展和党建情况，称赞他们在贯彻落实党中央关于自主创新决策部署方面做到了真学真懂真信真用。在空调设备及系统运行节能国家重点实验室，习近平同科研人员亲切交谈。他指出，实体经济是一国经济的立身之本、财富之源。先进制造业是实体经济的一个关键，经济发展任何时候都不能脱实向虚。中华民族奋斗的基点是自力更生，攀登世界科技高峰的必由之路是自主创新，所有企业都要朝这个方向努力奋斗。实现中华民族伟大复兴宏伟目标时不我待，要有志气和骨气加快增强自主创新能力和实力，努力实现关键核心技术自主可控，把创新发展主动权牢牢掌握在自己手中。离开企业时，职工们聚拢在道路旁欢送总书记。习近平同他们挥手告别，大家齐声高呼：“请总书记放心！我们一定加倍努力，让世界爱上中国造！”掌声、歌声、欢呼声响彻夜空。', '清远市是一片富有改革精神的热土。1978年，清远率先在国营工厂推行“超计划利润提成奖”，创造了“清远经验”。23日下午，习近平来到清远市所辖英德市电子商务产业园考察调研，听取广东省推动粤东西北脱贫攻坚和清远市农村综合改革工作汇报，对当地的做法表示肯定。习近平指出，城乡区域发展不平衡是广东高质量发展的最大短板。要下功夫解决城乡二元结构问题，力度更大一些，措施更精准一些，久久为功。要坚持辩证思维，转变观念，努力把短板变成“潜力板”，充分发挥粤东西北地区生态优势，不断拓展发展空间、增强发展后劲。', '10月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10月23日下午，习近平在英德市连江口镇连樟村贫困户陆奕和家，同他们亲切地拉家常。新华社记者 鞠鹏 摄', '离开产业园，习近平乘车沿着崎岖的山路前往连江口镇连樟村。在村公共服务站，习近平详细了解基层党建、脱贫攻坚、村民服务情况。他走进村扶贫玩具加工厂车间，同工人亲切交谈。习近平指出，产业扶贫是最直接、最有效的办法，也是增强贫困地区造血功能、帮助群众就地就业的长远之计。要加强产业扶贫项目规划，引导和推动更多产业项目落户贫困地区。火车跑得快，全靠车头带。要加强基层党组织带头人队伍建设，注重培养选拔有干劲、会干事、作风正派、办事公道的人担任支部书记，团结带领乡亲们脱贫致富奔小康。', '习近平十分牵挂村民生活状况。他走进贫困户陆奕和家，详细了解他的家庭情况，询问他生活怎么样、有哪些困难。习近平还看望了党员、老战士陆上伙。习近平对村民们说，我一直惦记着贫困地区的乡亲们，乡亲们一天不脱贫，我就一天放不下心来。我们党是全心全意为人民服务的党，党的一切工作就是要为老百姓排忧解难谋幸福。全面小康路上一个不能少，脱贫致富一个不能落下。要一代接着一代干，既要加快脱贫致富，又要推动乡村全面振兴、走向现代化。他希望乡亲们生活越来越幸福。', '10月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10月24日上午，习近平在深圳参观“大潮起珠江——广东改革开放40周年展览”。新华社记者 谢环驰 摄', '深圳是我国的一个经济特区，以其沧桑巨变展现了改革开放的磅礴伟力。24日上午，习近平参观了“大潮起珠江——广东改革开放40周年展览”。展厅内，今昔图片强烈对比，历史场景历历再现，全景展示了广东改革开放40年的峥嵘岁月。习近平不时驻足察看、仔细询问。他表示，我国40年的变化翻天覆地，举世瞩目。参观后，习近平同广东省改革开放相关方面代表亲切交谈，祝愿他们在各自岗位上再立新功，祝老同志们生活幸福。他强调，党的十八大后我考察调研的第一站就是深圳，改革开放40周年之际再来这里，就是要向世界宣示中国改革不停顿、开放不止步，中国一定会有让世界刮目相看的新的更大奇迹。我们要不忘改革开放初心，认真总结改革开放40年成功经验，提升改革开放质量和水平。要坚持以人民为中心，把为人民谋幸福作为检验改革成效的标准，让改革开放成果更好惠及广大人民群众。广东要弘扬敢闯敢试、敢为人先的改革精神，立足自身优势，创造更多经验，把改革开放的旗帜举得更高更稳。', '随后，习近平前往广东自由贸易试验区深圳前海蛇口片区，实地察看前海开发情况。2012年12月，习近平曾在这里发表重要讲话，发出了改革开放再出发的号召。昔日的滩涂，如今树影婆娑、绿草如茵、高楼林立，一派勃勃生机。在前海石前，习近平同前海建设者和见证者代表同话沧桑巨变。他指出，实践证明，改革开放道路是正确的，必须一以贯之、锲而不舍、再接再厉。深圳要扎实推进前海建设，拿出更多务实创新的改革举措，探索更多可复制可推广的经验，深化深港合作，相互借助、相得益彰，在共建“一带一路”、推进粤港澳大湾区建设、高水平参与国际合作方面发挥更大作用。', '10月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10月24日上午，习近平在广东自由贸易试验区深圳前海蛇口片区考察。在前海石前，习近平同前海建设者和见证者代表同话沧桑巨变。新华社记者 鞠鹏 摄', '临近中午，习近平来到深圳市龙华区民治街道北站社区，了解社区公共服务、基层党建、社区管理等情况。自助图书馆内，一些居民正在看书学习，看到总书记来了，大家热情鼓起掌来，纷纷向总书记介绍丰富的社区生活。在社区儿童之家，小朋友们争相跑来同习爷爷拥抱。习近平看到社区管理井然有序、居民安居乐业，十分高兴。他强调，要把更多资源、服务、管理放到社区，为居民提供精准化、精细化服务，切实把群众大大小小的事办好。要坚持依靠居民、依法有序组织居民群众参与社区治理，实现人人参与、人人尽力、人人共享。', '广州历史悠久，人文荟萃。24日下午，习近平先后考察了广州市荔湾区西关历史文化街区永庆坊和暨南大学。在永庆坊，他沿街察看旧城改造、历史文化建筑修缮保护情况，走进粤剧艺术博物馆，同粤剧票友亲切交谈，希望他们把粤剧传承好发扬好。习近平听取了广州市城市规划建设管理工作汇报。他指出，城市规划和建设要高度重视历史文化保护，不急功近利，不大拆大建。要突出地方特色，注重人居环境改善，更多采用微改造这种“绣花”功夫，注重文明传承、文化延续，让城市留下记忆，让人们记住乡愁。在暨南大学，习近平参观了校史展览和办学成果展示，察看了图书馆华侨华人文献馆的馆藏文献和实物，并同部分港澳台同胞和海外侨胞学生交流，鼓励他们好好学习，将来为社会作出贡献。习近平指出，我国有5000多万海外侨胞，这是我国发展的一个独特优势。改革开放有海外侨胞的一份功劳。他希望暨南大学认真贯彻全国教育大会精神，坚持自己的办学特色，把学校办得更好，为海外侨胞回祖国学习、传承中华文化创造更好条件。', '10月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10月24日，习近平在深圳市龙华区民治街道北站社区了解情况。新华社记者 谢环驰 摄', '离开暨南大学，习近平乘车来到广州明珞汽车装备有限公司。在企业创新体验中心，陈列着广州明珞汽车装备有限公司、广州洁特生物过滤股份有限公司、广州视源电子科技股份有限公司、广东乐源数字技术有限公司、广州禾信仪器股份有限公司等企业的产品。习近平详细了解企业研发、销售、出口等情况。他指出，民营企业对我国经济发展贡献很大，前途不可限量。党中央一直重视和支持非公有制经济发展，这一点没有改变、也不会改变。创新创造创业离不开中小企业，我们要为民营企业、中小企业发展创造更好条件。各级党委和政府要贯彻党中央关于支持民营企业、中小企业发展的政策措施，在政策、融资、营商环境等方面帮它们解决实际困难，也希望民营企业、中小企业聚焦主业，加强自主创新、练好内功，努力实现新的发展，为祖国强大和人民幸福作出更大贡献。', '25日下午，习近平听取了广东省委和省政府工作汇报，对广东各项工作给予肯定。他希望广东认真贯彻新时代中国特色社会主义思想和党的十九大精神，贯彻落实好党中央决策部署，推动思想再解放、改革再深入、工作再落实。', '10月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10月24日下午，习近平在广州考察暨南大学时同部分港澳台同胞和海外侨胞学生交流。新华社记者 鞠鹏 摄', '习近平强调，广东是改革开放的排头兵、先行地、实验区，改革开放以来党中央始终鼓励广东大胆探索、大胆实践。广东40年发展历程充分证明，改革开放是党和人民大踏步赶上时代的重要法宝，是坚持和发展中国特色社会主义的必由之路，是决定当代中国命运的关键一招，也是决定实现“两个一百年”奋斗目标、实现中华民族伟大复兴的关键一招。总结好改革开放经验和启示，不仅是对40年艰辛探索和实践的最好庆祝，而且能为新时代推进中国特色社会主义伟大事业提供强大动力。要掌握辩证唯物主义和历史唯物主义的方法论，以改革开放的眼光看待改革开放，充分认识新形势下改革开放的时代性、体系性、全局性问题，在更高起点、更高层次、更高目标上推进改革开放。', '10月22日至25日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10月24日下午，习近平考察广州明珞汽车装备有限公司。新华社记者 谢环驰 摄', '习近平对广东提出了4个方面的工作要求。一是深化改革开放。要把粤港澳大湾区建设作为广东改革开放的大机遇、大文章，抓紧抓实办好。要在更高水平上扩大开放，高标准建设广东自由贸易试验区，打造高水平对外开放门户枢纽。要继续推进改革，抓好改革举措的协同配套、同向共进。二是推动高质量发展。要发挥企业创新主体作用和市场导向作用，加快建立技术创新体系，激发创新活力。要大力发展实体经济，破除无效供给，培育创新动能，降低运营成本，推动制造业加速向数字化、网络化、智能化发展。要深入抓好生态文明建设，统筹山水林田湖草系统治理，深化同香港、澳门生态环保合作，加强同邻近省份开展污染联防联治协作，补上生态欠账。要切实保障和改善民生，把就业、教育、医疗、社保、住房、家政服务等问题一个一个解决好、一件一件办好。三是提高发展平衡性和协调性。要加快推动乡村振兴，建立健全促进城乡融合发展的体制机制和政策体系，带动乡村产业、人才、文化、生态和组织振兴。要加快形成区域协调发展新格局，做优做强珠三角核心区，加快珠海、汕头两个经济特区发展，把汕头、湛江作为重要发展极，打造现代化沿海经济带。要推动物质文明和精神文明协调发展，不断提升人民文明素养和社会文明程度。要全面推进法治建设，提高社会治理智能化、科学化、精准化水平。四是加强党的领导和党的建设。要牢固树立“四个意识”，坚定“四个自信”，坚决维护党中央权威和集中统一领导。要严明政治纪律和政治规矩，落实新形势下党内政治生活若干准则，涵养风清气正的政治生态。要坚持正确选人用人导向，建设忠诚干净担当的高素质专业化干部队伍。要继续推进作风建设，整治各种隐形变异“四风”问题，防范商品交换原则向党内渗透，规范政商交往行为，加快构建亲清新型政商关系。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>20</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>习近平在湖南考察</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2024-03-21</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/ywkx/content_496925</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['习近平在湖南考察时强调 坚持改革创新求真务实 奋力谱写中国式现代化湖南篇章 蔡奇陪同考察', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在中德合资企业巴斯夫杉杉电池材料有限公司考察。新华社记者 燕雁 摄', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村，同种粮大户、农技人员、基层干部亲切交流。新华社记者 鞠鹏 摄', '新华社长沙3月21日电 中共中央总书记、国家主席、中央军委主席习近平近日在湖南考察时强调，湖南要牢牢把握自身在构建新发展格局中的战略定位，坚持稳中求进工作总基调，坚持高质量发展不动摇，坚持改革创新、求真务实，在打造国家重要先进制造业高地、具有核心竞争力的科技创新高地、内陆地区改革开放高地上持续用力，在推动中部地区崛起和长江经济带发展中奋勇争先，奋力谱写中国式现代化湖南篇章。', '3月18日至21日，习近平在湖南省委书记沈晓明和省长毛伟明陪同下，先后来到长沙、常德等地，深入学校、企业、历史文化街区、乡村等进行调研。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在湖南第一师范学院（城南书院校区）考察。新华社记者 谢环驰 摄', '18日下午，习近平来到湖南第一师范学院（城南书院校区）考察。该校前身是创办于宋代的城南书院，近代以来培养了一批老一辈无产阶级革命家和名师大家。习近平参观青年毛泽东主题展览，了解学院发展沿革和用好红色资源等情况。在学院大厅，习近平同师生代表亲切交流。他说，国家要强大，必须办好教育。一师是开展爱国主义教育、传承红色基因的好地方，要把这一红色资源保护运用好。学校要立德树人，教师要当好大先生，不仅要注重提高学生知识文化素养，更要上好思政课，教育引导学生明德知耻，树牢社会主义核心价值观，立报国强国大志向，努力成为堪当强国建设、民族复兴大任的栋梁之材。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在湖南第一师范学院（城南书院校区）考察时，同师生代表亲切交流。新华社记者 鞠鹏 摄', '随后，习近平来到巴斯夫杉杉电池材料有限公司考察。这是一家主营锂离子电池正极材料研发、生产和销售的中德合资企业。习近平听取当地加快发展新质生产力、扩大高水平对外开放等情况介绍，察看企业产品展示，了解材料性能测试情况和电池生产流程。他强调，科技创新、高质量发展是企业不断成长壮大、立于不败之地的关键所在，民营企业、合资企业在这方面都可以大有作为。中国开放的大门会越开越大，我们愿意同世界各国加强交流合作，欢迎更多外国企业来华投资发展。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日上午，习近平在常德河街考察时，同店主和游客亲切交流。新华社记者 王晔 摄', '19日，习近平到常德市考察调研。位于沅江江畔的常德河街历史悠久，曾毁于1943年的常德战役。近年来，常德市复原老河街风貌，将此地打造成为历史文化街区。当天上午，习近平来到常德河街，察看各种特色小吃、特产、特色工艺品，同店主和游客亲切交流，并欣赏非物质文化遗产技艺展示，详细了解常德老城街道修复利用、城市规划、水环境综合治理等情况。习近平指出，多姿多彩的地方特色传统文化，共同构成璀璨的中华文明，也助推经济社会发展。常德是有文化传承的地方，这里的丝弦、高腔、号子等要以适当载体传承好利用好，与时俱进发展好。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日上午，习近平在常德河街考察。新华社记者 谢环驰 摄', '湖南是全国13个粮食主产省之一，水稻播种面积、总产量均居全国第一。当天下午，习近平来到常德市鼎城区谢家铺镇港中坪村，走进当地粮食生产万亩综合示范片区，察看秧苗培育和春耕备耕进展，听取高质量推进农业现代化情况介绍，并同种粮大户、农技人员、基层干部一笔一笔算投入产出账。习近平强调，我国有14亿多人口，粮食安全必须靠我们自己保证，中国人的饭碗应该主要装中国粮。要建设好高标准农田，推行适度规模经营，加强政策支持和示范引领，加大良种、良机、良法推广力度，在精耕细作上下功夫，进一步把粮食单产和品质提上去，让种粮也能够致富，进而吸引更多农户参与发展现代化大农业，真正把中国特色农业现代化之路走稳走扎实。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村走进田间，察看秧苗培育和春耕备耕进展。新华社记者 王晔 摄', '习近平随后来到种粮大户戴宏家中，察看农机具和春耕物资准备，并前往村党群服务中心了解当地为基层减负、提升基层治理效能等情况。他指出，要坚决整治形式主义、官僚主义问题，精兵简政，持之以恒抓好这项工作。他勉励基层干部在产业发展和乡村治理上群策群力，不断干出让农民群众认可的实绩。', '离开时，村民们纷纷围拢过来欢送总书记。习近平满怀深情地对大家说，党中央高度重视“三农”工作，一定会采取切实有力的政策举措，回应老百姓的关切和需求，把乡村振兴的美好蓝图变为现实。掌声在村庄久久回荡。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村考察时，同乡亲们亲切交流。新华社记者 鞠鹏 摄', '21日上午，习近平听取了湖南省委和省政府工作汇报，对湖南各项工作取得的成绩给予肯定。', '习近平指出，科技创新是发展新质生产力的核心要素。要在以科技创新引领产业创新方面下更大功夫，主动对接国家战略科技力量，积极引进国内外一流研发机构，提高关键领域自主创新能力。强化企业科技创新主体地位，促进创新链产业链资金链人才链深度融合，推动科技成果加快转化为现实生产力。聚焦优势产业，强化产业基础再造和重大技术装备攻关，继续做大做强先进制造业，推动产业高端化、智能化、绿色化发展，打造国家级产业集群。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在中德合资企业巴斯夫杉杉电池材料有限公司考察。新华社记者 谢环驰 摄', '习近平强调，进一步全面深化改革要突出问题导向，着力解决制约构建新发展格局和推动高质量发展的卡点堵点问题、发展环境和民生领域的痛点难点问题、有悖社会公平正义的焦点热点问题，有效防范化解重大风险，不断为经济社会发展增动力、添活力。湖南要加强改革系统集成，更好参与全国统一大市场建设，全面融入中部地区崛起和长江经济带发展战略，深度融入共建“一带一路”，稳步扩大制度型开放，高标准建设好自由贸易试验区，着力打造中非经贸深度合作先行区。', '习近平指出，推进乡村全面振兴是新时代新征程“三农”工作的总抓手。湖南要扛起维护国家粮食安全的重任，抓住种子和耕地两个要害，加快种业、农机关键核心技术攻关。坚持大农业观、大食物观，积极发展特色农业和农产品加工业，提升农业产业化水平。深入推进城乡融合发展，壮大县域经济，畅通城乡要素双向流动，科学统筹乡村基础设施和公共服务布局。切实加强乡村精神文明建设，大力推动移风易俗。健全党组织领导的自治、法治、德治相结合的基层治理体系，坚持和发展新时代“枫桥经验”。落实防止返贫监测帮扶机制，坚决守住不发生规模性返贫的底线。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是18日下午，习近平在湖南第一师范学院（城南书院校区）考察时，同师生代表亲切交流。新华社记者 王晔 摄', '习近平强调，湖南要更好担负起新的文化使命，在建设中华民族现代文明中展现新作为。保护好、运用好红色资源，加强革命传统和爱国主义教育，引导广大干部群众发扬优良传统、赓续红色血脉，践行社会主义核心价值观，培育时代新风新貌。探索文化和科技融合的有效机制，加快发展新型文化业态，形成更多新的文化产业增长点。推进文化和旅游深度融合，守护好三湘大地的青山绿水、蓝天净土，把自然风光和人文风情转化为旅游业的持久魅力。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是19日下午，习近平在常德市鼎城区谢家铺镇港中坪村党群服务中心了解当地为基层减负、提升基层治理效能等情况。新华社记者 燕雁 摄', '习近平指出，推动高质量发展、推进中国式现代化，必须加强和改进党的建设。要巩固拓展主题教育成果，建立健全长效机制，树立和践行正确政绩观，持续深化整治形式主义为基层减负。组织开展好党纪学习教育，引导党员干部学纪、知纪、明纪、守纪，督促领导干部树立正确权力观，公正用权、依法用权、为民用权、廉洁用权。', '3月18日至21日，中共中央总书记、国家主席、中央军委主席习近平在湖南考察。这是20日上午，习近平在长沙亲切接见驻长沙部队上校以上领导干部，代表党中央和中央军委向驻长沙部队全体官兵致以诚挚问候。新华社记者 李刚 摄', '3月20日上午，习近平在长沙亲切接见驻长沙部队上校以上领导干部，代表党中央和中央军委向驻长沙部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。', '立足新起点谱写新篇章——习近平总书记在新时代推动中部地区崛起座谈会上的重要讲话指明发展方向、激励担当作为']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>20</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>喂马乡组织学习习近平新时代中国特色社会主义思想学习纲要宣讲安排会</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2019-12-11</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xxzb1/xxk1248/content_309782</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['，根据县委宣传部的工作部署和安排，喂马乡紧密结合现阶段“不忘初心、牢记使命”主题教育活动，组织召开学习《习近平新时代中国特色社会主义思想学习纲要》宣讲安排会，会议由党委副书记常青主持，', '深刻领悟习近平新时代中国特色社会主义思想的科学体系、核心要义、理论品格和其中贯穿的方法论，提高']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>20</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>习近平在陕西延安和河南安阳考察时强调全面推进乡村振兴为实现农业农村现代化而不懈奋斗</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>https://xfj.sxjz.gov.cn/xxgk/xxgkml/gzdt12/gzdt4xfj/content_174806</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['习近平在陕西延安和河南安阳考察时强调 全面推进乡村振兴 为实现农业农村现代化而不懈奋斗_工作动态_工作动态_法定主动公开内容_政府信息公开_晋中市信访局', '习近平在陕西延安和河南安阳考察时强调 全面推进乡村振兴 为实现农业农村现代化而不懈奋斗', '新华社陕西延安/河南安阳10月28日电 中共中央总书记、国家主席、中央军委主席习近平近日在陕西省延安市、河南省安阳市考察时强调，全面建设社会主义现代化国家，最艰巨最繁重的任务仍然在农村。要全面学习贯彻党的二十大精神，坚持农业农村优先发展，发扬延安精神和红旗渠精神，巩固拓展脱贫攻坚成果，全面推进乡村振兴，为实现农业农村现代化而不懈奋斗。', '10月26日至28日，习近平分别在中共中央政治局委员、陕西省委书记刘国中和省长赵一德，河南省委书记楼阳生和省长王凯陪同下，深入陕西延安市和河南安阳市的农村、学校、红色教育基地、文物保护单位等进行调研。', '延安是革命老区，也曾是深度贫困地区。习近平一直挂念陕北的老乡们。2015年2月，习近平在延安主持召开陕甘宁革命老区脱贫致富座谈会并发表重要讲话，为当地推进脱贫攻坚指明了方向。党的二十大闭幕后，习近平第一次外出考察来到延安，看看老乡们脱贫后生活怎么样，还有什么困难，乡村振兴怎么搞。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市安塞区高桥镇南沟村苹果园同老乡们亲切交流。 新华社记者 鞠鹏 摄', '26日下午，习近平一下火车，就乘车前往延安市安塞区高桥镇南沟村。正值金秋，山上苹果园硕果累累，一片丰收景象。习近平走进果园，向现场采摘的果农了解今年苹果收成，同老乡们亲切交流，并采摘了一个红红的大苹果。习近平详细询问苹果种植技术、采摘方法、品种质量、销售价格、村民收入以及如何发展苹果种植和其他产业等，老乡们一一回答。习近平十分关心灌溉和用水问题，老乡们告诉总书记，他们通过筑水坝、搞滴灌和精细化管理，有效解决了用水和灌溉问题。习近平称赞说，这就是农业现代化，你们找到了合适的产业发展方向。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市安塞区高桥镇南沟村苹果园同老乡们亲切交流。 新华社记者 燕雁 摄', '在村苹果洗选车间，习近平听取当地苹果产业发展情况，并察看分拣装箱生产线。现场摆放了当地种植的各种苹果和深加工产品，习近平饶有兴趣地一一端详，仔细听取介绍，对当地发展现代农业和乡村旅游、培育壮大集体经济、带动老乡们增收致富的做法表示肯定。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市安塞区高桥镇南沟村苹果洗选车间，察看当地种植的苹果。 新华社记者 鞠鹏 摄', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市安塞区高桥镇南沟村苹果洗选车间外，同老乡们拉家常。 新华社记者 燕雁 摄', '车间外，老乡们聚集在一起，高声向总书记问好。习近平同老乡们拉起家常，回忆当年他在陕北的知青岁月。习近平对老乡们说，我在陕北生活了7年，当年看到老乡们生活很艰苦，心里就想着怎么样让大家生活好起来。这次来延安，看到一派硕果累累的丰收景象，交通条件大为改善，发生了翻天覆地的变化。过去陕北老乡们修梯田、种庄稼，面朝黄土背朝天，抡起老锄头干活，广种薄收，十分辛苦，如今山坡上退耕还林种上了苹果，老乡们有工作、有稳定收入，孩子有好的教育，老人都有医保，生活越来越好。从陕北的变化就可以看到中国的变化。习近平指出，现在，“两个一百年”奋斗目标的第一个百年目标已经实现，绝对贫困问题解决了，老乡们过上了好日子，但还要继续努力往前走，让生活越来越美好。陕北的气候、光照、纬度、海拔等非常适宜发展苹果种植，加上滴灌技术、矮化种植技术、选果生产线等不断发展，就地卖出，销路不愁，大力发展苹果种植业可谓天时地利人和，这是最好的、最合适的产业，大有前途。习近平强调，中国共产党是人民的党，是为人民服务的党，共产党当家就是要为老百姓办事，把老百姓的事情办好。空谈误国，实干兴邦。要认真学习贯彻党的二十大精神，全面推进乡村振兴，把富民政策一项一项落实好，加快推进农业农村现代化，让老乡们生活越来越红火。老乡们爆发出雷鸣般的掌声。', '随后，习近平来到延安中学枣园校区。延安中学是中国共产党创办的第一所中学，是在老一辈革命家、教育家、党和国家领导同志亲切关怀和精心培育下成长起来的，具有光荣历史和优良革命传统，为革命老区培养了大批人才。习近平走进学校教育史馆，了解学校总体办学情况。习近平希望延安中学坚持用延安精神教书育人，办好人民满意的教育，弘扬革命传统，培育时代新人。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市延安中学枣园校区学生餐厅考察。 新华社记者 王晔 摄', '在学生餐厅，各式各样的饭菜色香味俱全。习近平详细察看，向厨师们了解饭菜的价格和口味，叮嘱他们确保质量、注意卫生，让同学们吃得放心舒心。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市延安中学枣园校区高一（2）班教室，同师生亲切交流。 新华社记者 王晔 摄', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是26日下午，习近平在延安市延安中学枣园校区高一（2）班教室，同师生亲切交流。 新华社记者 燕雁 摄', '教学楼里，学生们正在上课。习近平走进高一（2）班教室，同师生亲切交流，问同学们有什么理想，长大后想做什么。一位同学说将来想当李时珍那样的医生，另一位同学说想考大学药剂专业，还有一位同学说想学外语、将来当一名外交翻译。习近平听了十分高兴，称赞他们人生目标明确，理想高尚。他勉励同学们从小树立远大理想，立志成为社会主义建设者和接班人，确保红色基因代代相传。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是28日上午，习近平在安阳林州市红旗渠纪念馆参观。 新华社记者 燕雁 摄', '28日上午，习近平来到河南安阳林州市红旗渠纪念馆。上世纪60年代，当地人民为解决靠天等雨的恶劣生存环境，在党和政府支持下，在太行山腰修建了引漳入林水利工程，被称为“人工天河”。习近平走进展馆，依次参观了“千年旱魔，世代抗争”、“红旗引领，创造奇迹”、“英雄人民，太行丰碑”、“山河巨变，实现梦想”、“继往开来，精神永恒”等展览内容。习近平指出，红旗渠就是纪念碑，记载了林县人不认命、不服输、敢于战天斗地的英雄气概。要用红旗渠精神教育人民特别是广大青少年，社会主义是拼出来、干出来、拿命换来的，不仅过去如此，新时代也是如此。没有老一辈人拼命地干，没有他们付出的鲜血乃至生命，就没有今天的幸福生活，我们要永远铭记他们。今天，物质生活大为改善，但愚公移山、艰苦奋斗的精神不能变。红旗渠很有教育意义，大家都应该来看看。随后，习近平实地察看红旗渠分水闸运行情况，详细了解分水闸在调水、灌溉、改善生态环境等方面的重要作用。', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是28日上午，习近平在安阳林州市实地察看红旗渠分水闸运行情况。 新华社记者 鞠鹏 摄', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是28日上午，习近平在安阳林州市红旗渠青年洞考察。 新华社记者 鞠鹏 摄', '红旗渠修建过程中，300名青年组成突击队，经过1年5个月的奋战，将地势险要、石质坚硬的岩壁凿通，这个输水隧洞被命名为青年洞。习近平拾级而上，来到青年洞，沿步道察看红旗渠。习近平强调，红旗渠精神同延安精神是一脉相承的，是中华民族不可磨灭的历史记忆，永远震撼人心。年轻一代要继承和发扬吃苦耐劳、自力更生、艰苦奋斗的精神，摒弃骄娇二气，像我们的父辈一样把青春热血镌刻在历史的丰碑上。实现第二个百年奋斗目标也就是一两代人的事，我们正逢其时、不可辜负，要作出我们这一代的贡献。红旗渠精神永在！', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是28日下午，习近平在安阳市殷墟博物馆考察。 新华社记者 鞠鹏 摄', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是28日下午，习近平在安阳市殷墟遗址考察。 新华社记者 丁林 摄', '10月26日至28日，中共中央总书记、国家主席、中央军委主席习近平在陕西省延安市、河南省安阳市考察。这是28日下午，习近平在安阳市殷墟遗址考察。 新华社记者 鞠鹏 摄', '28日下午，习近平考察了位于安阳市西北郊洹河南北两岸的殷墟遗址。殷墟是我国历史上第一个文献可考、为考古发掘所证实的商代晚期都城遗址。习近平步入殷墟博物馆，仔细观摩青铜器、玉器、甲骨文等出土文物。随后，习近平来到车马坑展厅，察看商代畜力车实物标本和道路遗迹。他指出，殷墟出土的甲骨文为我们保存3000年前的文字，把中国信史向上推进了约1000年。殷墟我向往已久，这次来是想更深地学习理解中华文明，古为今用，为更好建设中华民族现代文明提供借鉴。中国的汉文字非常了不起，中华民族的形成和发展离不开汉文字的维系。在这方面，考古事业居功至伟。考古工作要继续重视和加强，继续深化中华文明探源工程。中华文明源远流长，从未中断，塑造了我们伟大的民族，这个民族还会伟大下去的。要通过文物发掘、研', '究保护工作，更好地传承优秀传统文化。习近平强调，中华优秀传统文化是我们党创新理论的“根”，我们推进马克思主义中国化时代化的根本途径是“两个结合”。我们要坚定文化自信，增强做中国人的自信心和自豪感。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>20</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>习近平在陕西考察时强调扎实做好六稳工作落实六保任务奋力谱写陕西新时代追赶超越新篇章</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2020-04-27</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>https://czj.sxjz.gov.cn/gsyw/content_331010</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['习近平在陕西考察时强调：扎实做好“六稳”工作落实“六保”任务 奋力谱写陕西新时代追赶超越新篇章_国省要闻_晋中市财政局', '习近平在陕西考察时强调：扎实做好“六稳”工作落实“六保”任务 奋力谱写陕西新时代追赶超越新篇章', '习近平在陕西考察时强调 扎实做好“六稳”工作落实“六保”任务 奋力谱写陕西新时代追赶超越新篇章', '新华社西安4月23日电 中共中央总书记、国家主席、中央军委主席习近平近日在陕西考察时强调，要全面落实党中央决策部署，坚持稳中求进工作总基调，坚持新发展理念，扎实做好稳就业、稳金融、稳外贸、稳外资、稳投资、稳预期工作，全面落实保居民就业、保基本民生、保市场主体、保粮食能源安全、保产业链供应链稳定、保基层运转任务，努力克服新冠肺炎疫情带来的不利影响，确保完成决战决胜脱贫攻坚目标任务，全面建成小康社会，奋力谱写陕西新时代追赶超越新篇章。', '四月的三秦大地，到处春意盎然。4月20日至23日，习近平在陕西省委书记胡和平和省长刘国中陪同下，先后来到商洛、安康、西安等地，深入自然保护区、贫困山区、社区、学校、企业等，了解秦岭生态环境保护、脱贫攻坚、复工复产等情况，就统筹推进新冠肺炎疫情防控和经济社会发展工作、打赢脱贫攻坚战进行调研，看望慰问干部群众。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月20日，习近平在位于秦岭山脉东段的牛背梁国家级自然保护区羚牛谷，了解秦岭生态环境保护情况。新华社记者 谢环驰 摄', '秦岭山脉是我国重要的生态安全屏障。党的十八大以来，习近平总书记多次就查处秦岭北麓西安境内违建别墅问题、加强秦岭生态保护作出重要指示批示。20日下午，习近平抵达商洛市柞水县，首先来到位于秦岭山脉东段的牛背梁国家级自然保护区，步行进入羚牛谷察看自然生态，称赞这里是“养在深闺人未识的天然氧吧”。', '随后，习近平乘车来到海拔1700米的月亮垭，远眺秦岭牛背梁主峰，听取陕西省吸取秦岭北麓违建别墅问题教训、抓好生态保护等工作汇报。习近平强调，秦岭和合南北、泽被天下，是我国的中央水塔，是中华民族的祖脉和中华文化的重要象征。保护好秦岭生态环境，对确保中华民族长盛不衰、实现“两个一百年”奋斗目标、实现可持续发展具有十分重大而深远的意义。陕西要深刻吸取秦岭违建别墅问题的教训，痛定思痛，警钟长鸣，以对党、对历史、对人民高度负责的精神，以功成不必在我的胸怀，把秦岭生态环境保护和修复工作摆上重要位置，履行好职责，当好秦岭生态卫士，决不能重蹈覆辙，决不能在历史上留下骂名。要自觉讲政治，对国之大者要心中有数，关注党中央在关心什么、强调什么，深刻领会什么是党和国家最重要的利益、什么是最需要坚定维护的立场，切实把增强“四个意识”、坚定“四个自信”、做到“两个维护”落到行动上，不能只停留在口号上。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月20日，习近平在位于秦岭山脉东段的牛背梁国家级自然保护区月亮垭，察看秦岭自然生态，了解陕西省吸取秦岭北麓违建别墅问题教训、抓好生态保护等情况。新华社记者 谢环驰 摄', '离开保护区，沿着陡峭的山路，习近平乘车前往柞水县小岭镇金米村考察脱贫攻坚情况。金米村位于秦岭深处，曾经是极度贫困村，近年来通过发展木耳、中药材、旅游等产业实现了整村脱贫。习近平步行察看村容村貌，走进村培训中心、智能联栋木耳大棚，了解木耳品种和种植流程，询问木耳价格、销路和村民收入等，夸奖他们把小木耳办成了大产业。习近平指出，发展扶贫产业，重在群众受益，难在持续稳定。要延伸产业链条，提高抗风险能力，建立更加稳定的利益联结机制，确保贫困群众持续稳定增收。脱贫摘帽不是终点，而是新生活、新奋斗的起点。接下来要做好乡村振兴这篇大文章，推动乡村产业、人才、文化、生态、组织等全面振兴。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月20日，习近平在商洛市柞水县小岭镇金米村培训中心，了解该村发展木耳产业情况。新华社记者 谢环驰 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月20日，习近平在商洛市柞水县小岭镇金米村智能联栋木耳大棚，同村民亲切交流。新华社记者 鞠鹏 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月20日，习近平在商洛市柞水县小岭镇金米村，了解该村发展木耳产业情况。新华社记者 鞠鹏 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月20日，习近平在商洛市柞水县小岭镇金米村考察时，向村民们挥手致意。新华社记者 谢环驰 摄', '安康市地处秦巴山区集中连片特困地区的核心区。21日上午，习近平来到安康市平利县老县镇锦屏社区。锦屏社区累计安置搬迁贫困群众1346户4173人。习近平实地察看了社区电子加工厂、毛绒玩具厂、服饰公司产品展示厅，对当地“山上兴产业，山下建社区，社区办工厂”的发展思路给予肯定，勉励企业努力克服疫情带来的不利影响，积极拓展国内市场。习近平强调，今年是脱贫攻坚决战决胜之年，解决好贫困群众就业问题非常重要。各级党委和政府要加大扶持力度，通过各种方法保障贫困群众就业。镇上的群众听说总书记来了，纷纷来到街上，高声向总书记问好。习近平祝乡亲们幸福安康！', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月21日，习近平在安康市平利县老县镇锦屏社区考察社区毛绒玩具厂，了解搬迁群众就业情况。新华社记者 鞠鹏 摄', '在搬迁户汪显平家，习近平同一家老少围坐在一起拉家常。汪显平告诉总书记，以前在山里，住的是土房，走的是山路，干啥都不方便，搬到社区后，一家人住进了三室两厅的楼房，夫妻两人就近务工，还能照顾老人，过上了过去做梦都想不到的好日子。习近平听了十分高兴。他强调，易地搬迁是解决一方水土养不好一方人、实现贫困群众跨越式发展的根本途径，也是打赢脱贫攻坚战的重要途径。搬得出的问题基本解决后，后续扶持最关键的是就业。乐业才能安居。解决好就业问题，才能确保搬迁群众稳得住、逐步能致富，防止返贫。易地搬迁群众来自四面八方，加强社区建设很重要。基层党组织要发挥领导核心作用，把社区管理和服务工作抓好，求真务实，让人民群众获得实实在在的好处。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月21日，习近平在安康市平利县老县镇锦屏社区，同搬迁户汪显平一家围坐在一起拉家常。新华社记者 谢环驰 摄', '随后，习近平来到老县镇卫生院，了解基层卫生防疫、医疗保障工作，并向坚守在基层防疫抗疫一线广大医务人员表示亲切慰问。习近平指出，要加快补齐公共卫生服务短板，加强农村、社区等基层疫情防控能力建设，把各项防控措施常态化。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月21日，习近平在安康市平利县老县镇卫生院，了解基层卫生防疫、医疗保障工作。新华社记者 鞠鹏 摄', '镇中心小学四至六年级学生已于4月20日开学。习近平走进教室，孩子们齐声向习爷爷问好。习近平询问孩子们学习和生活情况。他强调，要推进城乡义务教育一体化发展，缩小城乡教育资源差距，促进教育公平，切断贫困代际传递。习近平接着来到学校食堂，了解学生伙食和复学后疫情防控情况，叮嘱他们加强学校重点场所消毒，为复学复课提供安全的环境。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月21日，习近平在安康市平利县老县镇中心小学食堂，了解学生伙食和复学后疫情防控情况。新华社记者 谢环驰 摄', '位于老县镇蒋家坪村的女娲凤凰茶业现代示范园区，属于苏陕扶贫协作项目，通过“党支部+龙头企业+贫困户”的模式，带动100多户贫困户年人均增收千元以上。深山之中，春雨淅沥，云雾缭绕。习近平拾级而上，步入茶园，沿途察看春茶长势，同茶农们亲切交谈，仔细询问茶叶收成、价格和村民土地流转、参加分红、务工收入等情况。他指出，人不负青山，青山定不负人。绿水青山既是自然财富，又是经济财富。希望乡亲们坚定不移走生态优先、绿色发展之路，因茶致富、因茶兴业，脱贫奔小康。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月21日，习近平在安康市平利县老县镇蒋家坪村女娲凤凰茶业现代示范园区，同茶农们亲切交谈。新华社记者 谢环驰 摄', '22日，习近平在西安考察复工复产和经济社会恢复运行等情况。陕西汽车控股集团有限公司是西北地区有影响力的制造企业。习近平详细了解产品研发、生产、销售和复工复产情况，对他们克服疫情影响创产销历史新高表示赞赏。总装车间内一片繁忙景象。习近平察看内饰生产线、总装配生产线，饶有兴致登上装配完成的民用重型卡车驾驶室，向技术人员询问产品性能和操作流程。习近平强调，制造业是国家经济命脉所系。国有大型企业要发挥主力军作用，在抓好常态化疫情防控的前提下，带动上下游产业和中小企业全面复工复产。习近平指出，新时代陕西要有勇立潮头、争当时代弄潮儿的志向和气魄，既要抓住西部大开发、共建“一带一路”等重大机遇，又要善于从眼前的危机和挑战中抢抓和创造机遇，不断发展新模式、新业态、新技术、新产品，创造新的更大业绩，迈上新的台阶。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平在陕西汽车控股集团有限公司总装车间察看生产线，了解产品研发、生产、销售和复工复产情况。新华社记者 鞠鹏 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平在陕西汽车控股集团有限公司总装车间察看生产线，了解产品研发、生产、销售和复工复产情况。新华社记者 谢环驰 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平在陕西汽车控股集团有限公司考察时，同企业职工亲切交流。新华社记者 鞠鹏 摄', '交大西迁博物馆坐落于西安交通大学兴庆校区。上世纪50年代，一批交大人响应党的号召，“打起背包就出发”，从上海迁至西安。博物馆二层和三层展厅，分别呈现了交大西迁的创业历程和辉煌成就。习近平仔细端详一张张照片、一件件实物。在一层大厅，习近平亲切会见14位西迁老教授，祝愿他们身体安康、家庭幸福。习近平指出，“西迁精神”的核心是爱国主义，精髓是听党指挥跟党走，与党和国家、与民族和人民同呼吸、共命运，具有深刻现实意义和历史意义。要坚持党对高校工作的全面领导，坚持立德树人，建设高素质教师队伍，努力培养更多一流人才。习近平勉励广大师生大力弘扬“西迁精神”，抓住新时代新机遇，到祖国最需要的地方建功立业，在新征程上创造属于我们这代人的历史功绩。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平在西安交通大学交大西迁博物馆参观。新华社记者 鞠鹏 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平在西安交通大学交大西迁博物馆亲切会见西迁老教授。新华社记者 谢环驰 摄', '傍晚时分，习近平乘车来到毗邻大雁塔的大唐不夜城步行街。疫情发生以来，昔日熙熙攘攘的步行街一度空荡无人，现在又开始热闹起来。习近平走进步行街，了解步行街恢复经营状况。沿途游客看见总书记，惊喜地欢呼起来，习近平频频挥手致意。他走进老字号西安饭庄，同店员和正在就餐的顾客热情交谈。习近平强调，要在科学防控疫情的前提下，有序推动各类商场、市场复商复市，努力恢复正常生活秩序。', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平在西安大唐不夜城步行街考察时，向游客挥手致意。新华社记者 谢环驰 摄', '4月20日至23日，中共中央总书记、国家主席、中央军委主席习近平在陕西考察。这是4月22日，习近平走进西安大唐不夜城步行街老字号西安饭庄，同正在就餐的顾客热情交谈。新华社记者 谢环驰 摄', '23日上午，习近平听取了陕西省委和省政府工作汇报，对陕西各项工作予以肯定。习近平指出，今年是全面建成小康社会和“十三五”规划收官之年，也是脱贫攻坚决战决胜之年，突如其来的新冠肺炎疫情给我们完成既定目标任务带来挑战。希望陕西广大干部群众只争朝夕、真抓实干，在新时代各项工作中取得新气象新作为，为实现“两个一百年”奋斗目标、实现中华民族伟大复兴的中国梦贡献力量。', '习近平强调，我国经济稳中向好、长期向好的基本趋势没有改变。要坚定信心、保持定力，加快转变经济发展方式，把实体经济特别是制造业做实做强做优，推进5G、物联网、人工智能、工业互联网等新型基建投资，加大交通、水利、能源等领域投资力度，补齐农村基础设施和公共服务短板，着力解决发展不平衡不充分问题。要围绕产业链部署创新链、围绕创新链布局产业链，推动经济高质量发展迈出更大步伐。', '习近平指出，要围绕推进国家治理体系和治理能力现代化，突出基础性、根本性、全局性的重大改革举措，打造内陆改革开放高地。要深度融入共建“一带一路”大格局，加快形成面向中亚南亚西亚国家的通道、商贸物流枢纽、重要产业和人文交流基地，构筑内陆地区效率高、成本低、服务优的国际贸易通道。', '习近平强调，陕西生态环境保护，不仅关系自身发展质量和可持续发展，而且关系全国生态环境大局。要牢固树立绿水青山就是金山银山的理念，统筹山水林田湖草系统治理，优化国土空间开发格局，调整区域产业布局，发展清洁生产，推进绿色发展，打好蓝天、碧水、净土保卫战。要坚持不懈开展退耕还林还草，推进荒漠化、水土流失综合治理，推动黄河流域从过度干预、过度利用向自然修复、休养生息转变，改善流域生态环境质量。', '习近平指出，民生是人民幸福之基、社会和谐之本。要坚持以人民为中心的发展思想，扎实办好民生实事。要瞄准突出问题精准施策，做好剩余贫困人口脱贫工作，因地制宜发展区域特色产业，加快建立防止返贫监测和帮扶机制，加强易地扶贫搬迁后续扶持，多措并举巩固脱贫成果。要做好高校毕业生、农民工、退役军人等重点群体就业工作，多渠道促进就业创业。要加强和创新社会治理，坚持和完善新时代“枫桥经验”，深化扫黑除恶专项斗争。', '习近平强调，这次抗击疫情斗争是一次大考，充分彰显了各级党组织的强大战斗力，彰显了广大党员、干部的先锋模范作用，同时也暴露出一些党组织组织领导力不强，一些党员干部能力不足、作风不实等问题。各级党委（党组）要切实落实全面从严治党主体责任，把全面从严治党的要求落实到党的建设全过程。', '习近平指出，延安精神培育了一代代中国共产党人，是我们党的宝贵精神财富。要坚持不懈用延安精神教育广大党员、干部，用以滋养初心、淬炼灵魂，从中汲取信仰的力量、查找党性的差距、校准前进的方向。要把政治建设摆在首位，严肃党内政治生活，严格落实中央八项规定及其实施细则精神，坚决破除形式主义、官僚主义，构建一体推进不敢腐、不能腐、不想腐体制机制，为各项事业发展提供坚强保障。', '习近平强调，陕西是中华民族和华夏文明重要发祥地之一。要加大文物保护力度，弘扬中华优秀传统文化、革命文化、社会主义先进文化，培育社会主义核心价值观，加强公共文化产品和服务供给，更好满足人民群众精神文化生活需要。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>20</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>学习党的光辉历史感悟党的伟大力量</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2021-03-24</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>https://swdx.sxjz.gov.cn/xwdt/xyxw/content_361797</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['3月24日上午，市委党校认真落实市委《关于开展党史学习教育的实施方案》“讲好专题党课”的要求，市委党校党史学习教育领导小组组长、常务副校长易仲林为全校教职员工作了题为《学习党的光辉历史 感悟党的伟大力量》的生动党课，田飞副校长主持。', '易仲林带领大家从三个方面感悟党的百年历史，为党校的发展汲取智慧和营养。他指出，学习党的百年历史，一是要以习近平总书记关于党的历史的重要论述为指导，坚持辩证唯物主义和历史唯物主义的立场观点方法，树立正确的历史观；二是要全面了解党的百年奋斗的光辉历程和历史成就，进一步认清党的发展的历史方位，明确肩负的历史责任和神圣使命；三是要深刻领会百年党史中的宝贵经验和重要启示，必须始终坚持中国共产党的领导，才能实现中华民族伟大复兴的中国梦。在此基础上，易仲林阐述了百年党史中党校的地位、性质和作用，要求党校党员干部、教职员工在党史学习教育中必须走在前、作表率，号召全校教职工进一步增强爱党护党的责任感，自觉承担起党校人的使命，坚持做到在党言党、在党忧党、在党护党，以党的旗帜为旗帜、以党的意志为意志、以党的使命为使命，力求党校事业在新时代呈现出新景象。', '通过这堂主题深刻、发人深省的党课，全校党员干部、教职员工进一步提高了政治站位，更加明确了党史学习教育的重大意义，做到“学史明理、学史增信、学史崇德、学史力行”，切实把党史学习教育的成效转化为干事创业的热情，转化为推动党校事业高质量发展的强大精神动力，以优异成绩迎接党的百年华诞。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>20</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>月日日介休市考察团赴临汾市曲沃县运城市夏县学习考察创建全域旅游示范区经验</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2018-05-28</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>https://wlj.sxjz.gov.cn/aqyj/content_232549</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['5月17日—19日，介休市考察团赴临汾市曲沃县、运城市夏县学习考察创建全域旅游示范区经验_安全应急_\u200b晋中市文化和旅游局', '5月17日—19日，介休市考察团赴临汾市曲沃县、运城市夏县学习考察创建全域旅游示范区经验', '考察团一行先后到曲沃县晋国博物馆、桥山黄帝文化风景区、朝阳沟、晋都文化会展中心、全域旅游服务中心、顾园、诗经故里田园综合体景区，夏县司马温公祠、山西宇达青铜文化艺术有限公司、格瑞特红酒厂、刘海生书法展、卫夫人书画工作苑等地进行了实地参观考察，听取了有关工作介绍，并同相关负责人进行深入交流，详细了解了两地深厚的文化历史以及对文化旅游资源的发掘和利用情况。随后，考察团来到介子推故里——夏县裴介村拜谒介子推墓，并就介子推文化研究进行了深入交流和座谈。', '5月25日，榆次区旅游开发服务中心对黄土农言文化旅游试验示范区创3A工作进行现场指导']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>20</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>习近平在重庆考察并主持召开解决两不愁三保障突出问题座谈会</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2019-04-18</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>https://czj.sxjz.gov.cn/gsyw/content_270275</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['习近平在重庆考察并主持召开解决“两不愁三保障”突出问题座谈会_国省要闻_晋中市财政局', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月16日下午，习近平主持召开解决“两不愁三保障”突出问题座谈会并发表重要讲话。新华社记者 鞠鹏 摄', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，习近平在石柱土家族自治县中益乡华溪村看望贫困户谭登周一家。新华社记者 刘彬 摄', '新华社重庆4月17日电 中共中央总书记、国家主席、中央军委主席习近平4月15日至17日在重庆考察，主持召开解决“两不愁三保障”突出问题座谈会并发表重要讲话。他强调，脱贫攻坚战进入决胜的关键阶段，各地区各部门务必高度重视，统一思想，抓好落实，一鼓作气，顽强作战，越战越勇，着力解决“两不愁三保障”突出问题，扎实做好今明两年脱贫攻坚工作，为如期全面打赢脱贫攻坚战、如期全面建成小康社会作出新的更大贡献。', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，习近平在石柱土家族自治县中益乡华溪村同村民代表、基层干部、扶贫干部、乡村医生等围坐在一起，共话脱贫攻坚。新华社记者 谢环驰 摄', '山城四月，春风和煦，山水透绿，一派生机勃勃。4月15日，习近平在中共中央政治局委员、重庆市委书记陈敏尔和市长唐良智陪同下，深入石柱土家族自治县的学校、农村，实地了解脱贫攻坚工作情况。', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，习近平在石柱土家族自治县中益乡小学同师生亲切交谈，了解义务教育保障情况。新华社记者 谢环驰 摄', '石柱土家族自治县地处武陵山集中连片特困地区，是国家扶贫开发工作重点县。15日中午，习近平一下飞机，就转乘火车、汽车前往石柱县，山路蜿蜒，坡急沟深，辗转3个多小时抵达大山深处的石柱县中益乡华溪村。', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，习近平在石柱土家族自治县中益乡小学走进师生食堂，了解贫困学生餐费补贴和食品安全卫生情况。新华社记者 谢环驰 摄', '习近平首先来到中益乡小学。学校操场上，小学生们正在开展课外文体活动。看到总书记来了，学生们围拢过来，纷纷问习爷爷好，总书记高兴地同大家交谈，询问他们学习和生活情况。中益乡地处大山深山之中，群众居住比较分散，孩子上学是个难题。习近平指出，“两不愁三保障”，很重要的一条就是义务教育要有保障。再苦不能苦孩子，再穷不能穷教育。要保证贫困山区的孩子上学受教育，有一个幸福快乐的童年。习近平走进师生食堂，仔细察看餐厅、后厨，了解贫困学生餐费补贴和食品安全卫生情况。习近平嘱咐学校和老师既要当好老师，又要当好临时家长，把学生教好、管好。要把安全放在第一位，确保学生在学校学、住、吃都安全，让家长们放心。他希望老师们扎根山区，献身乡村教育事业，为群众脱贫贡献一份力量。', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，在石柱土家族自治县中益乡华溪村，习近平踏着湿滑的石阶登上陡坡，前往贫困户谭登周家看望。新华社记者 谢环驰 摄', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，习近平在石柱土家族自治县中益乡华溪村看望贫困户谭登周一家。新华社记者 谢环驰 摄', '华溪村人多地少，土地贫瘠，全村有建档立卡贫困户85户、302人，其中8户、19人还没有脱贫。习近平踏着湿滑的石阶登上陡坡，来到贫困户谭登周家，从屋外看到屋内，详细询问老两口生活和身体状况。谭登周夫妇告诉总书记，由于伤病原因暂时丧失了劳动力，生活还比较困难，但土地流转有分红、医疗有救助、低保有兜底，3间住房加固后都很结实，特别是医药费大部分报销，自己只负担一部分，基本生活还是有保障的。习近平指出，基本医保、大病保险、医疗救助是防止老百姓因病返贫的重要保障。这个兜底作用很关键。脱贫攻坚明年就要收官，要把工作往深里做、往实里做，重点做好那些尚未脱贫或因病因伤返贫群众的工作，加快完善低保、医保、医疗救助等相关扶持和保障措施，用制度体系保障贫困群众真脱贫、稳脱贫。', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，习近平在石柱土家族自治县中益乡华溪村看望老党员、已脱贫户马培清一家。新华社记者 谢环驰 摄', '随后，习近平前往老党员、已脱贫户马培清家，沿着乡间小路步行察看自然环境、村容村貌，了解该村通过种植中药材黄精等特色经济作物带动村民脱贫的情况。在马培清家中，看到谷仓里装满粮食，厨房里挂着不少腊肉，温饱不愁，了解到他们家通过参加黄精中药材产业发展和土地入股分红、管护药材基地等方式，实现了稳定脱贫，习近平表示欣慰。', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，习近平在石柱土家族自治县中益乡华溪村同村民代表、基层干部、扶贫干部、乡村医生等围坐在一起，共话脱贫攻坚。新华社记者 鞠鹏 摄', '在马培清家院子，习近平同村民代表、基层干部、扶贫干部、乡村医生等围坐在一起，摆政策，聊变化，谋发展。大家你一言我一语，争相发言，气氛热烈。习近平对乡亲们说，脱贫攻坚是我心里最牵挂的一件大事。这次我专程来看望乡亲们，就是想实地了解“两不愁三保障”是不是真落地，还有哪些问题。小康不小康，关键看老乡，关键看脱贫攻坚工作做得怎么样。全面小康路上一个也不能少。发展才是社会主义，发展必须致力于共同富裕。国家越发展，越要把贫困群众基本生活保障好。各级党委和政府要把“两不愁三保障”各项措施落实到村、到户、到人。要加强乡村两级基层党组织建设，更好发挥在脱贫攻坚中的战斗堡垒作用，提高党在基层的治理能力和服务群众能力。党员干部要到脱贫攻坚的一线、到带领群众脱贫致富的火热实践中历练，经受考验，磨练党性，增进群众感情，增强做好工作的本领。习近平强调，幸福是奋斗出来的。党的政策对老百姓好，才是真正的好。党的各项惠民政策要落实好，乡亲们要一起奋斗，努力向前奔跑，争取早日脱贫致富奔小康。', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，习近平在石柱土家族自治县中益乡华溪村同村民亲切交流。新华社记者 丁海涛 摄', '离开村子时，村民们聚集在村头，高声向总书记问好。习近平同大家亲切握手，祝乡亲们生活越来越幸福。', '16日下午，习近平在重庆主持召开解决“两不愁三保障”突出问题座谈会。座谈会上，广西、重庆、四川、贵州、云南、陕西、甘肃、新疆等地党委书记作书面汇报，重庆市石柱土家族自治县县委书记蹇泽西，奉节县平安乡党委书记邹远珍，城口县周溪乡凉风村党支部书记伍东，教育部、住房和城乡建设部、水利部、国家卫生健康委、国家医疗保障局等部门主要负责同志，中共中央政治局委员、国务院副总理胡春华先后发言。', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，习近平在石柱土家族自治县中益乡小学同学生们亲切交谈，询问他们学习和生活情况。新华社记者 谢环驰 摄', '听取大家发言后，习近平发表了重要讲话。他强调，到2020年稳定实现农村贫困人口不愁吃、不愁穿，义务教育、基本医疗、住房安全有保障，是贫困人口脱贫的基本要求和核心指标，直接关系攻坚战质量。总的看，“两不愁”基本解决了，“三保障”还存在不少薄弱环节。各地区各部门要高度重视，统一思想，抓好落实。要摸清底数，聚焦突出问题，明确时间表、路线图，加大工作力度，拿出过硬举措和办法，确保如期完成任务。', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，习近平在石柱土家族自治县中益乡华溪村了解该村通过种植中药材黄精等特色经济作物带动村民脱贫的情况。新华社记者 鞠鹏 摄', '习近平强调，脱贫攻坚战进入决胜的关键阶段，务必一鼓作气、顽强作战，不获全胜决不收兵。各省区市党政主要负责同志要增强“四个意识”、坚定“四个自信”、做到“两个维护”，强化政治责任，亲力亲为抓好脱贫攻坚。省级分管扶贫的负责同志要抓好工作落实。各行业部门要围绕脱贫攻坚目标任务，按照尽锐出战要求，切实履职尽责、合力攻坚，对责任不落实、政策不落实、工作不落实影响任务完成的要进行问责。党中央制定了支持深度贫困地区脱贫攻坚的实施意见，各方面都加大了力度，但不能放松。要逐一研究细化实化攻坚举措，攻城拔寨，确保完成脱贫任务。这次脱贫攻坚专项巡视和成效考核发现了不少突出问题和共性问题。各地区各部门要全面排查梳理，确保各类问题整改到位，为明年工作打下良好基础。', '习近平指出，脱贫既要看数量，更要看质量。要严把贫困退出关，严格执行退出的标准和程序，确保脱真贫、真脱贫。要把防止返贫摆在重要位置，适时组织对脱贫人口开展“回头看”。要探索建立稳定脱贫长效机制，强化产业扶贫，组织消费扶贫，加大培训力度，促进转移就业，让贫困群众有稳定的工作岗位。要做好易地扶贫搬迁后续帮扶。要加强扶贫同扶志扶智相结合，让脱贫具有可持续的内生动力。', '习近平强调，贫困县摘帽后，要继续完成剩余贫困人口脱贫任务，实现已脱贫人口的稳定脱贫。贫困县党政正职要保持稳定，做到摘帽不摘责任。脱贫攻坚主要政策要继续执行，做到摘帽不摘政策。扶贫工作队不能撤，做到摘帽不摘帮扶。要把防止返贫放在重要位置，做到摘帽不摘监管。要保持政策稳定性、连续性。', '习近平指出，要把全面从严治党要求贯穿脱贫攻坚全过程，强化作风建设，完善和落实抓党建促脱贫的体制机制，发挥基层党组织带领群众脱贫致富的战斗堡垒作用，深化扶贫领域腐败和作风问题专项治理，把基层减负各项决策落到实处。对奋战在脱贫攻坚一线的同志要关心他们的生活、健康、安全，对牺牲干部的家属要及时给予抚恤、长期帮扶慰问。对在基层一线干出成绩、群众欢迎的干部，要注意培养使用。对那些畏苦畏难、敷衍了事、弄虚作假的扶贫干部，要加强教育管理，该撤换的要及时撤换，该问责的要坚决问责。', '17日上午，习近平听取了重庆市委和市政府工作汇报，对重庆各项工作取得的成绩给予肯定，希望重庆全面落实党中央决策部署，牢牢把握稳中求进工作总基调，坚持新发展理念，统筹做好稳增长、促改革、调结构、惠民生、防风险、保稳定工作，持续营造风清气正的政治生态，更加注重从全局谋划一域、以一域服务全局，努力在推进新时代西部大开发中发挥支撑作用、在推进共建“一带一路”中发挥带动作用、在推进长江经济带绿色发展中发挥示范作用。', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月15日下午，习近平在石柱土家族自治县中益乡华溪村察看自然环境、村容村貌。新华社记者 王晔 摄', '习近平强调，党中央通过了《关于新时代推进西部大开发形成新格局的指导意见》。这是党中央从全局出发作出的重大决策部署，对决胜全面建成小康社会、开启全面建设社会主义现代化国家新征程具有重大而深远的意义。重庆要抓好贯彻落实，在推进西部大开发形成新格局中展现新作为、实现新突破。要坚定不移推动高质量发展，扭住深化供给侧结构性改革这条主线，把制造业高质量发展放到更加突出的位置，加快构建市场竞争力强、可持续的现代产业体系。要加大创新支持力度，坚定不移推进改革开放，努力在西部地区带头开放、带动开放。要加快推动城乡融合发展，建立健全城乡一体融合发展的体制机制和政策体系，推动区域协调发展。要深入抓好生态文明建设，坚持上中下游协同，加强生态保护与修复，筑牢长江上游重要生态屏障。', '4月15日至17日，中共中央总书记、国家主席、中央军委主席习近平在重庆考察，并主持召开解决“两不愁三保障”突出问题座谈会。这是4月16日下午，习近平主持召开解决“两不愁三保障”突出问题座谈会并发表重要讲话。新华社记者 谢环驰 摄', '习近平指出，要按照党中央总体部署，结合自身实际，精心组织实施庆祝新中国成立70周年各项工作。要围绕中国共产党为什么“能”、马克思主义为什么“行”、中国特色社会主义为什么“好”等重大问题，广泛开展宣传教育，加强思想舆论引导，坚定广大干部群众对中国特色社会主义的道路自信、理论自信、制度自信、文化自信，进一步激发全体人民爱党、爱国、爱社会主义的巨大热情。', '习近平强调，要从最困难的群体入手，从最突出的问题着眼，从最具体的工作抓起，通堵点、疏痛点、消盲点，全面解决好同老百姓生活息息相关的教育、就业、社保、医疗、住房、环保、社会治安等问题，集中全力做好普惠性、基础性、兜底性民生建设。要着力抓好安全生产、食品药品安全、防范重特大自然灾害、维护社会稳定工作，不断增强人民群众获得感、幸福感、安全感。', '习近平指出，要贯彻党中央部署，切实加强党的政治建设，培养一支忠诚干净担当的高素质干部队伍，积极营造建功新时代、创造新业绩的浓厚氛围和良好环境，用正确思想、优良作风、良好导向、正面典型持续激荡清风正气。要加强党的基层组织建设，推动基层党组织全面进步、全面过硬。要坚决整治形式主义、官僚主义，让基层干部从繁文缛节、文山会海、迎来送往中解脱出来。要保持惩治腐败高压态势，巩固反腐败斗争压倒性胜利。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>山西省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>20</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>晋中市</t>
+          <t>山西省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>晋中市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>介休市党政考察团赴长三角地区推介考察侧记</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>https://www.sxjz.gov.cn/xwzx/tpxw/content_481300</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['介休市党政考察团赴长三角地区推介考察侧记 感悟思想伟力 汲取智慧力量 推动笃行实干', '10月14日至18日，介休市委书记任光耀率领党政考察团赴上海、浙江开展推介、考察活动，学习先进经验，问计深化改革，谋划加快发展新思路新举措。', '一路走来，长三角地区的转型发展之路，令考察团成员惊叹不已——眼中是绿色突围的一树繁花，是改革创新的惊涛拍岸，是久久为功的筚路蓝缕；心里是对短板和差距的新认知、新思考，是内心渴望与现实对比碰撞激发出的新举措、新打算。', '从三贤故里到吴越故地再到丝绸之府，5天时间里，考察团不仅收获了合作共赢的累累硕果，而且进一步扩大了介休的影响力，更向外界展示了一个人文深厚、开放通达、创新奋斗的宜居宜业宜游之城。', '“以前，您到过山西、去过介休吗？”在上海、浙江两地推介、考察期间，任光耀每到一处，都会问一问当地企业家。“有机会一定去介休看看。”这不是他第一次听到这样的回答，企业家的回答让任光耀陷入沉思。', '如果企业家连一座城市都不了解、不熟悉、不喜欢，何谈到那里投资兴业？提升城市知名度，让更多人走进介休，感受介休之变、介休之进、介休之美，才能不断深化对外交流，创造更多合作机遇，推动高质量发展。', '“介休史出春秋名臣介子推、东汉名士郭林宗、北宋名相文彦博，有‘三贤故里’之称，是我国四大传统节日之一——清明节的发祥地……”任光耀对介休的历史文化如数家珍。', '今日的介休，正牢记领袖殷殷嘱托，立足新发展阶段，完整、准确、全面贯彻新发展理念，主动服务和融入新发展格局，以崭新之姿乘风破浪、加速前行。', '一个个鲜活的故事、一组组详实的数据，勾勒出了这座有着2800多年文明史的城市的前世今生。', '过去，介休有着辉煌的历史；如今，介休是一座充满活力的城市。她正在等待着更多人去触摸源远流长的千年文脉，感受奋力转型的蝶变崛起，见证勇逐潮头的铿锵步伐。', '在上海举办的招商引资推介会上，大屏幕上播放的城市宣传片深深吸引了人们的目光。“真没想到，介休，有诗有酒有故事，有山有水有资源。通过观看宣传片，我们深感‘全国投资潜力百强县’名副其实。”相知无远近，万里尚为邻，与会嘉宾期待与介休相逢。', '每场会谈、考察临近尾声，任光耀都会向在场嘉宾发出诚挚的邀约：“百闻不如一见，真诚欢迎大家到介休走一走、看一看，赏一赏厚重的绵山，看一看美丽的城市，品一品清香的陈醋，尝一尝介休的面食。祝愿贵市越来越美，祝愿企业蓬勃发展，与介休一道共创美好未来。”', '这是一次对标先进、开拓视野的学习之行。此次浙江考察之行，是介休市近年来组织的一次大规模的集体考察学习活动，选取的浙江嘉善、诸暨、开化等地，理念先进、高质量发展势头强劲，创造了很多先进做法和成功经验，是高质高效发展的典型代表。', '嘉善引领潮流的高精尖产业竞相发展，敢为人先的创业精神扑面而来，数字赋能的前沿新业态风起云涌，浩浩荡荡的改革大潮激荡着考察团的心扉。', '嘉善城市建设理念超前，通过创新运营模式，推动城市建设由“开发为主”转变为“运营为主”，真正提升了城市品质和市民幸福感，非常值得介休市学习借鉴。诸暨坚持和发展新时代“枫桥经验”，高标准打造市、镇、村三级社会治理中心，完善信访接待、矛盾调解、网格管理等基本服务功能。当地干部依靠和发动群众，把矛盾纠纷化解在基层、化解在萌芽状态，筑牢维护社会和谐稳定的“第一道防线”。这些经验给考察团带来诸多启示。', '“千万工程”实施以来，浙江省坚持一张蓝图绘到底，从“千村示范、万村整治”引领起步，到“千村精品、万村美丽”深化提升，再到“千村未来、万村共富”迭代升级，不仅深刻改变了浙江农村的面貌，也探索出一条全面推进乡村振兴、建设美丽中国的科学路径。嘉善缪家村及开化金星村、下淤村、龙门村的发展之路，让“千万工程”落地生花、“两山”理念行稳致远。当生态建设与“千万工程”更紧密地结合起来，绿水青山吹来了新风，共同富裕也写下了生动的注脚，绿色成为了浙江发展最动人的色彩。介休市将人居环境整治与生态环境建设紧密结合，立足资源优势，因地制宜发展特色产业，壮大村级集体经济，促进乡村振兴的目标，与浙江一脉相承。', '这是一次找准差距醍醐灌顶的醒脑之行。考察团在3天时间内考察学习了3个市近20个点。在考察点上，任光耀与考察团成员仔细听、认真看，精彩之处纷纷拿出手机拍照记录。考察点之间的大巴车上、城市与城市之间的高铁上，大家交流心得、互相启发，认真听取先进地区经验介绍，并向先进地区相关部门负责同志虚心请教，丰富见闻、增长知识，开阔眼界、打开思路。', '要知其然更要知其所以然，才能学到精髓、学以致用，切实把学习成果转化为对接比拼的实际行动。要学习浙江开拓创新的理念，做到敢为人先。浙江的干部始终站在未来看现在，以前瞻性思维谋篇布局，启示我们要从眼界、思路、格局上全面学习，善于识势、顺势、借势，更新思维方式，破除路径依赖，在开拓奋进中抢抓机遇、跨越发展；要学习浙江勇立潮头的气魄，做到争创一流。浙江的干部始终瞄着“为全国当样板、在世界争一流”的标准来干工作，永不满足、永不懈怠，启示我们要敢于同先进比高下、敢于同自己过不去，推动各项工作进入并保持晋中第一方阵，努力在全省乃至全国争先进位；要学习浙江善作善成的本领，做到专业敬业。浙江的干部始终把心思集中在想干事上、把胆识体现在敢干事上、把能力展现在会干事上，启示我们要心里始终想着目标，天天琢磨思考，提高专业化能力，成为行家里手，以创造性工作把不可能变成可能；要学习浙江干在实处的作风，做到求真务实。浙江的干部一心为民，推崇实干、务实担当，执行力很强，启示我们要树牢正确的政绩观，多做惠民生、顺民意的事，多做出实招、求实效的事，雷厉风行、紧抓快干，以干部的“辛苦指数”换来发展的“上升指数”和群众的“幸福指数”。要学习浙江久久为功的韧劲，做到一抓到底。浙江的干部对认准的事情，一以贯之抓到底，直到干成，启示我们要以“钉钉子”精神抓落实，持之以恒、锲而不舍，一步一个脚印实现既定目标。', '在上海推介之际，介休市共有总投资150.3亿元的21个项目签约，涉及新能源、新材料、物流仓储等领域。开发区企业围绕各自产业优势、资源禀赋，走访签约企业和潜在合作企业，精准、定向招商引资，努力扩大推介成果，增强发展动能。', '取先者之道，启跨越之路，是此次两地推介、考察的难得机遇和重要目的。上海、浙江许多县、市及长三角企业闻讯后纷纷接洽，对介休的发展表示欣喜，也希望能有机会到介休看一看、转一转，寻找合作项目，助力高质量发展。', '此次推介、考察受到了中央媒体和当地主流媒体的高度关注，通过报道介休党政考察团考察学习之行以及大力推介介休，架设了桥梁、加深了了解、增进了友谊。', '新征程中百舸争流，新起点上奋楫争先。介休发展的各种优势在集成、资源在集中、动力在集聚，正以更快的速度、更好的服务、更大的格局，加快推进高质量发展，全面再现魅力介休盛景。', '思想大解放、改革再出发。主动接轨上海、积极参与长江三角洲地区的合作与交流，就是接轨机遇、接轨发展、接轨国际化与现代化。全市各级各部门和广大干部要切实增强等不起的紧迫感、慢不得的危机感、坐不住的责任感，对标最高、聚焦最好、锚定最优，主动进行思想破冰、工作破题、发展破局，真正把上海、浙江的成功经验转化为推动介休高质量发展的实际举措，坚持在经济平稳增长中推动转型、在深化能源革命中推动转型、在发挥比较优势中推动转型、在激发创新活力中推动转型、在统筹发展安全中推动转型、在全面统筹协调中推动转型，深入实施产业转型、基础支撑、抓手牵引、转型赋能、安全保障、党建引领“六大行动”，在奋进“两个基本实现”目标中争当“排头兵”，谱写中国式现代化介休新篇章。']</t>
         </is>
